--- a/TruaNgay18New1/student_add bai hoc/HoanThanhDangNhap/bin/Debug/nhucc/Du lieu cau hoi/thu vien bai hoc.xlsx
+++ b/TruaNgay18New1/student_add bai hoc/HoanThanhDangNhap/bin/Debug/nhucc/Du lieu cau hoi/thu vien bai hoc.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đồ Án\New folder\TruaNgay18\student_add bai hoc\HoanThanhDangNhap\bin\Debug\Resources\Du lieu cau hoi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đồ án tốt nghiệp\TruaNgay18New1\student_add bai hoc\HoanThanhDangNhap\bin\Debug\nhucc\Du lieu cau hoi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDAFD32-529D-4DC0-9305-CD4A17203572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7505800F-7ACF-47BC-91E5-BD001C98AA55}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="9" r:id="rId1"/>
@@ -29,7 +28,7 @@
     <sheet name="9" sheetId="6" r:id="rId14"/>
     <sheet name="10" sheetId="3" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3218" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3248" uniqueCount="784">
   <si>
     <t>nActi</t>
   </si>
@@ -1692,37 +1691,13 @@
     <t>Trả lời câu hỏi sau.</t>
   </si>
   <si>
-    <t>Nguyên tắc khi dùng đồng hồ VOM với thang đo VOLT trong mạch điện là ?</t>
-  </si>
-  <si>
-    <t>Dùng đồng hồ nối tiếp với mạch</t>
-  </si>
-  <si>
-    <t>Dùng đồng hồ song song với mạch</t>
-  </si>
-  <si>
-    <t>Nguyên tắc khi dùng đồng hồ VOM với thang đo AMPE trong mạch là?</t>
-  </si>
-  <si>
     <t>Hiển thị vid</t>
   </si>
   <si>
-    <t>Nguyên tắc khi dùng đồng hồ VOM với thang đo OHM trong mạch là?</t>
-  </si>
-  <si>
-    <t>Đấu mạch 3 điện trở nối tiếp như hình vẽ. Lần lượt đo điện áp giữa B, D, F so với GND.</t>
-  </si>
-  <si>
-    <t>Điện áp 12V của nguồn trừ đi điện áp giữa F so với GND</t>
-  </si>
-  <si>
     <t>p</t>
   </si>
   <si>
     <t>Phần mềm vừa tạo một lỗi cho mạch. Hãy lần lượt đo điện áp giữa 3 điểm B, D, F so với GND, sau đó đo dòng điện chạy qua mạch để nhận biết hiện tượng.</t>
-  </si>
-  <si>
-    <t>Điện áp giữa điểm F so với GND là ?</t>
   </si>
   <si>
     <t>Điện áp giữa điểm B so với GND là ?</t>
@@ -1850,12 +1825,6 @@
 Trên mạch, GND được sắp xếp chạy dọc cạnh dưới, đại diện cho sườn xe ngoài thực tế. Nhiều quy trình chẩn đoán, bao gồm cả đo lường điện áp với cực âm của volt kế được kết nối vào sườn xe.</t>
   </si>
   <si>
-    <t>Ngắt dây tại điểm D. Nhấn công tắc để vận hành mạch. Quan sát hiện tượng và trả lời câu hỏi.</t>
-  </si>
-  <si>
-    <t>Khi có hở mạch tại cuộn dây relay, mạch hoạt động như thế nào?</t>
-  </si>
-  <si>
     <t>Relay chuyển tiếp điểm nhưng còi không kêu.</t>
   </si>
   <si>
@@ -2035,25 +2004,6 @@
 Có thể dùng đồng hồ thang đo OHM để xác định vị trí lỗi. Ngoài ra, chúng ta có thể dùng khả năng của cầu chì ngắt để kiểm tra mạch.</t>
   </si>
   <si>
-    <t>Cho mạch hoạt động và đo điện áp rơi tại 4 bóng đèn</t>
-  </si>
-  <si>
-    <t>Giá trị điện áp tại 4 đèn là như nhau, giá trị này bằng bao nhiêu ?</t>
-  </si>
-  <si>
-    <t>Với cùng 1 điện áp đặt vào đèn hậu và đèn phanh, nhưng đèn phanh sáng rõ hơn đèn hậu. Lí do có sự khác biệt này ?</t>
-  </si>
-  <si>
-    <t>Công suất của đèn hậu cao hơn</t>
-  </si>
-  <si>
-    <t>Tạo lỗi cho mạch bằng cách ngắt dây nối tại điểm P như ảnh.
-Đổi công tắc đèn đầu về vị trí TẮT, bật công tắc đèn phanh. Quan sát hiện tượng và đo điện áp trên mỗi đèn.</t>
-  </si>
-  <si>
-    <t>Công tắc gài số ứng với công tắc số 8 trên mạch với điểm J là gài số P, điểm K gài số N, vị trí chính giữa của công tắc ứng với các tay số không thể khởi động máy đề.</t>
-  </si>
-  <si>
     <t>Ngắt dây nối tại điểm J.
 Chuyển công tắc P/N sang vị trí J, gạt công tắc #10 để vận hành mạch. Quan sát hiện tượng và trả lời câu hỏi.</t>
   </si>
@@ -2092,62 +2042,6 @@
     <t>Xuất hiện điện trở không mong muốn</t>
   </si>
   <si>
-    <t>Công tắc nào điều khiển xi nhan, đèn báo bên hông xe, đèn báo rẽ trên tablo?</t>
-  </si>
-  <si>
-    <t>Công tắc đèn hậu và bộ chớp</t>
-  </si>
-  <si>
-    <t>Bộ chớp và công tắc xi nhan</t>
-  </si>
-  <si>
-    <t>Chỉ bộ chớp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Công tắc đèn đỗ BẬT, công tắc xi nhan TẮT. Quan sát hiện tượng và trả lời câu hỏi. </t>
-  </si>
-  <si>
-    <t>Theo sơ đồ mạch điện trên, dòng điện vẫn đi qua đèn báo bên hông, đèn báo trên tablo, đèn xi nhan, nhưng tại sao đèn xi nhan không sáng?</t>
-  </si>
-  <si>
-    <t>Điện áp trên đèn xi nhan không đủ làm đèn sáng</t>
-  </si>
-  <si>
-    <t>Đèn xi nhan có điện trở cao hơn các đèn khác</t>
-  </si>
-  <si>
-    <t>Cả hai ý trên</t>
-  </si>
-  <si>
-    <t>Bật công tắc xi nhan trái và bộ chớp để vận hành mạch. Đo điện áp lần lượt tại G, I, K so với GND.</t>
-  </si>
-  <si>
-    <t>Điện áp giữa điểm G so với GND là ?</t>
-  </si>
-  <si>
-    <t>Điện áp giữa điểm I so với GND là ?</t>
-  </si>
-  <si>
-    <t>Điện áp giữa điểm K so với GND là ?</t>
-  </si>
-  <si>
-    <t>Bật công tắc xi nhan trái và bộ chớp để vận hành mạch. 
-Đo điện áp tại đèn báo bên hông xe.</t>
-  </si>
-  <si>
-    <t>1V</t>
-  </si>
-  <si>
-    <t>11V</t>
-  </si>
-  <si>
-    <t>Bật công tắc xi nhan trái và bộ chớp để vận hành mạch. 
-Đo điện áp tại đèn đỗ (đèn #12).</t>
-  </si>
-  <si>
-    <t>Có dòng điện chạy qua bóng đèn Đỗ #12 nhưng chỉ một điện áp thấp nên không đủ làm đèn sáng.</t>
-  </si>
-  <si>
     <t>Đo điện áp tại điểm G so với GND</t>
   </si>
   <si>
@@ -2160,39 +2054,12 @@
     <t>Đo điện áp qua đèn bên hông xe (2 điểm K và L)</t>
   </si>
   <si>
-    <t>\\Resources\\tong hop final wiring\\c7.png</t>
-  </si>
-  <si>
-    <t>Mô hình thực tập mô phỏng mạch đèn báo rẽ phía bên trái của xe. Nút nhấn số 2 tượng trưng cho bộ chớp (Flasher) trên xe.</t>
-  </si>
-  <si>
-    <t>\\Resources\\tong hop final wiring\\c3.png</t>
-  </si>
-  <si>
-    <t>Đây là mạch còi trên các xe ô tô. Công tắc số 17 tượng trưng cho công tắc còi trên vô lăng, khi nhấn giữ, còi sẽ kêu.</t>
-  </si>
-  <si>
     <t>\\Resources\\tong hop final wiring\\c4.png</t>
   </si>
   <si>
-    <t>Gạt công tắc số 10 để vận hành mạch</t>
-  </si>
-  <si>
     <t>Tạo lỗi nối tắt GND bằng cách nối thêm một dây từ điểm C về GND như hình vẽ. Lúc này, các tải phía sau điểm C sẽ được bỏ qua. Vì vậy, không có dòng điện đi từ D về GND, nhưng dòng điện từ C về GND sẽ tăng. Khi xảy ra lỗi này trong mạch, cầu chì trong mạch sẽ dễ bị cháy vì dòng điện tăng quá mức giới hạn.</t>
   </si>
   <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\chuong1acti4.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\chuong1acti5.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\chuong1acti6.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\chuong1acti8.PNG</t>
-  </si>
-  <si>
     <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\chuong1acti11.PNG</t>
   </si>
   <si>
@@ -2241,9 +2108,6 @@
     <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\chuong2acti12.PNG</t>
   </si>
   <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c3\\chuong3acti2.PNG</t>
-  </si>
-  <si>
     <t>\\Resources\\Hinh anh cac chuong\\hinh anh c3\\chuong3acti3.PNG</t>
   </si>
   <si>
@@ -2298,21 +2162,6 @@
     <t>\\Resources\\Hinh anh cac chuong\\hinh anh c4\\chuong4acti14.PNG</t>
   </si>
   <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c5\\chuong5acti2.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c5\\chuong5acti3.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c5\\chuong5acti5.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c5\\chuong5acti7.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c6\\chuong6acti3.PNG</t>
-  </si>
-  <si>
     <t>\\Resources\\Hinh anh cac chuong\\hinh anh c6\\chuong6acti4.PNG</t>
   </si>
   <si>
@@ -2331,37 +2180,10 @@
     <t>Đo cường độ dòng điện đi qua AB.</t>
   </si>
   <si>
-    <t>Đèn phanh có điện trở cao hơn</t>
-  </si>
-  <si>
     <t>Kiểm tra đồng hồ thang đo OHM không cần ngắt nguồn.</t>
   </si>
   <si>
     <t>Việc ngắt nguồn hay không không ảnh hưởng đến kết quả kiểm tra</t>
-  </si>
-  <si>
-    <t>Gạt công tắc xi nhan sang vị trí TẮT. Bật công tắc đèn đỗ và quan sát.</t>
-  </si>
-  <si>
-    <t>Giữ công tắc đèn đỗ BẬT, chuyển công tắc xi nhan sang vị trí BẬT, BẬT/TẮT bộ chớp để quan sát các đèn.</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c7\\chuong7acti2.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c7\\chuong7acti5.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c7\\chuong7acti8.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c7\\chuong7acti9.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c7\\chuong7acti12.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c7\\chuong7acti13.PNG</t>
   </si>
   <si>
     <t>\\Resources\\Hinh anh cac chuong\\hinh anh c7\\chuong7acti14.PNG</t>
@@ -2384,21 +2206,6 @@
   <si>
     <t>Giả sử dây nối tại D không bị ngắt. Dựa vào hiện tượng mạch vừa quan sát, hãy suy luận và dùng đồng hồ thang đo OHM để xác định vị trí lỗi.
 CHÚ Ý: Dùng đồng hồ thang đo OHM phải ngắt nguồn.</t>
-  </si>
-  <si>
-    <t>Ngắt nguồn trước khi sử dụng</t>
-  </si>
-  <si>
-    <t>Đèn hậu được điều khiển bởi công tắc đèn đầu. Trong mô hình thực tập, đèn hậu được điều khiển bởi công tắc 3 vị trí tương ứng với 3 vị trí của công tắc đèn đầu trên xe là: OFF, PARK, HEADLIGHT. Khi công tắc ở vị trí PARK hay HEADLIGHT thì đèn hậu đều sáng.</t>
-  </si>
-  <si>
-    <t>Từ 3 giá trị vừa đo được, điện áp rơi trên điện trở số 4 (2 đầu D – E) sẽ được tính bằng cách nào?</t>
-  </si>
-  <si>
-    <t>Điện áp giữa D so với GND trừ đi điện áp giữa F so với GND</t>
-  </si>
-  <si>
-    <t>Cộng 2 điện áp giữa D so với GND và F so với GND</t>
   </si>
   <si>
     <t>Dựa vào những giá trị điện trở đo được, bạn hãy xác định vị trí xảy ra hở mạch?</t>
@@ -2420,10 +2227,10 @@
 Cầu chì không có hiện tượng, có nghĩa rằng lỗi ngắn mạch nối đất nằm ở giữa điểm C và D (bên trong công tắc số 10).</t>
   </si>
   <si>
-    <t>Đèn hậu có điện trở cao hơn</t>
-  </si>
-  <si>
     <t>Đáp án D</t>
+  </si>
+  <si>
+    <t>nhu cc</t>
   </si>
   <si>
     <r>
@@ -2434,7 +2241,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>A.CÁC CẢM BIẾN CHÍNH</t>
+      <t>HỆ THỐNG NHIÊN LIỆU</t>
     </r>
     <r>
       <rPr>
@@ -2444,9 +2251,7 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">
-Cảm biến lưu lượng không khí nạp
-Cảm biến Ne
-Cảm biến G          
+Hệ thống bao gồm thùng nhiên liệu, bơm nhiêu liệu, lọc nhiêu liệu, các đường ống, bộ dập dao động, ống phân phối, các kim phun, kim phun khởi động lạnh và bộ điều áp. 
 </t>
     </r>
     <r>
@@ -2457,7 +2262,19 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>B.CÁC CẢM BIẾN HIỆU CHỈNH</t>
+      <t>Hệ thống nhiên liệu thường được chia làm hai kiểu chính :</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Hệ thống nhiên liệu có đường ống hồi</t>
     </r>
     <r>
       <rPr>
@@ -2467,29 +2284,950 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">
-4.Cảm biến nhiệt độ nước làm mát
-5.Cảm biến nhiệt độ không khí nạp
-6.Cảm biến vị trí bướm ga
-7.Cảm biến vị trí bàn đạp ga
-8.Cảm biến oxy
-9.Cảm biến A/F
-10.Cảm biến kích nổ
-11.Cảm biến tốc độ xe
-12.Cảm biến áp suất nạp</t>
+Bơm nhiên liệu đặt bên trong thùng nhiên liệu. 
+Khi bơm hoạt động nó hút nhiên liệu và cung cấp nhiên liệu qua một đường ống, nhiên liệu được lọc cặn bẩn bởi lọc nhiên liệu, sau đó nhiên liệu được cung cấp đến bộ dập dao động rồi đi vào ống phân phối và bộ điều áp. 
+Tại ống phân phối nhiên liệu phân phối đến các kim phun, khi có tín hiệu điều khiển các kim phun sẽ phun nhiên liệu vào đường ống nạp. 
+Dưới tác dụng của nhiên liệu áp suất cao trong ống phân phối van điều áp mở và nhiên liệu đi về thùng chứa qua ống hồi.</t>
     </r>
   </si>
   <si>
-    <t>Trả lời câu hỏi sau.anh yeu em Đinhk</t>
-  </si>
-  <si>
-    <t>nhu cc</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Hệ thống nhiên liệu không đường ống hồi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Việc loại bỏ đường ống nhiên liệu hồi trở lại thùng nhiên liệu giúp giảm trọng lượng, sự phức tạp của hệ thống, hạn chế sự rò rỉ nhiên liệu cũng như hạn chế việc đưa nhiên liệu nóng trở lại thùng nhiên liệu. 
+Hiện nay sử dụng hệ thống nhiên liệu không đường ống hồi, vị trí và nguyên lý của bộ điều áp chính là sự khác biệt giữa hai hệ thống. 
+Áp suất của nhiên liệu trong hệ thống được giữ không đổi và cao hơn hệ thống nhiên liệu có đường ống hồi. </t>
+    </r>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\1.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\2.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\3.PNG</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bài 1: Bơm nhiên liệu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Nguồn cung cấp chính của bơm nhiên liệu là nguồn 12V của động cơ một chiều. 
+Khi bơm quay, nhiên liệu được bơm lên, lượng nhiên liệu này có một áp suất nhất định. 
+Áp suất này giúp nhiên liệu được phun gián đoạn vào đường ống nạp khi van kim mở và phun có chu kỳ.
+Nhiên liệu do bơm cung cấp có áp suất khoảng 3,5 đến 6,0 kg/cm2, nhưng áp suất nhiên liệu trong hệ thống khoảng 2,7 đến 3,2 kg/cm2 do sự khống chế bởi bộ điều áp.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Động cơ điện</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ Sử dụng động cơ DC 12 vôn để dẫn động bơm, stator là các nam châm vĩnh cửu. Khi cung cấp điện 12 vôn, rotor sẽ quay và kéo bơm quay theo.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Bơm rotor kiểu con lăn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Cung cấp dòng điện 12 vôn cho động cơ, đĩa bơm sẽ quay thông qua sự kéo của rotor làm cho 5 con lăn ép sát vào vỏ bơm bởi lực ly tâm.
+Bơm nén nhiên liệu đi qua khe hở giữa rotor và stator của động cơ điện, áp suất nhiên liệu đẩy van một chiều mở và nhiên liệu được cung cấp vào hệ thống. 
+Khi áp suất nhiên liệu vượt quá quy định, van an toàn mở cho nhiên liệu thoát trở lại thùng chứa để tránh vở đường ống cũng như hư hỏng bơm. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Bơm turbine </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Bơm turbine còn gọi là bơm kiểu cánh gạt, cấu tạo gồm một hoặc hai cánh bơm.
+Khi rotor của động cơ điện quay làm cho cánh bơm quay theo, những cánh nhỏ được bố trí từ mép ngoài sẽ đẩy nhiên liệu từ đường vào đến đường ra của bơm.
+Lượng nhiên liệu được cung cấp sẽ đi qua khe hở của rotor và stator làm van một chiều mở để cung cấp nhiên liệu vào hệ thống. Van an toàn khống chế áp suất làm việc của bơm. 
+Bơm được bố trí bên trong thùng nhiên liệu sẽ được cách âm tốt, được làm mát bởi nhiên liệu. Tuy nhiên, vấn đề này làm cho việc bảo dưỡng và thay thế trở nên khó khăn.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Mạch điều khiển bơm nhiên liệu dùng contact bơm. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Bơm xăng quay khi rơ le chính On và rơ le bơm On. Khi contact máy từ Off chuyển sang On rơ le chính On và rơ le bơm Off nên bơm không quay. 
+Khi contact từ On → ST: Rơ le chính On và Rơ le bơm On. Vì dòng điện từ cực ST contact máy qua cuộn dây L2 về mát nên bơm quay. 
+Khi động cơ hoạt động, contact máy chuyển từ ST → IG: Rơ le chính On, lúc này có không khí qua bộ đo gió van trượt nên contact điều khiển bơm bố trí ở bộ đo gió van trượt On, có dòng điện qua cuộn dây L1 nên rơ le bơm On và bơm tiếp tục quay. 
+Để kiểm tra hệ thống nhiên liệu, nối cực +B và FP ở đầu nối kiểm tra với contact máy On, bơm sẽ quay. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Điều khiển từ ECU (Kiểu cải tiến)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Contact từ Off sang On: Rơ le chính On và rơ le bơm Off nên bơm không quay.
+Contact từ On sang ST: Có tín hiệu STA gửi về ECU, ECU điều khiển transistor mở, có dòng đi qua cuộn dây rơ le bơm nên rơ le bơm On và bơm quay.
+Khi động cơ nổ có tín hiệu số vòng quay động cơ Ne gửi về ECU, transistor tiếp tục mở và bơm tiếp tục quay.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Điều khiển từ ECU
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Contact máy Off → On: Rơ le chính On, rơ le bơm Off nên bơm không quay.
+Khi contact máy On → ST: Rơ le chính On và lúc này có dòng điện từ cực ST qua cuộn dây L2 → rơ le bơm On nên bơm quay. 
+Khi động cơ chạy, ECU tiếp nhận tín hiệu số vòng quay động cơ Ne và tiếp tục điều khiển transistor On, có dòng điện qua cuộn dây L1 và bơm tiếp tục quay. 
+Để kiểm tra hệ thống nhiên liệu, nối cực +B và FP ở đầu nối kiểm tra với contact máy On.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Điều khiển bơm quay hai tốc độ (Dùng rơ le bơm +R)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Khi tiếp điểm rơ le bơm ở vị trí A: Bơm quay nhanh, trường hợp này xảy ra khi khởi động, số vòng quay cao và tải lớn (ECU điều khiển transistor Off).
+Các chế độ còn lại, tiếp điểm rơ le bơm ở vị trí B nên bơm quay chậm vì dòng điện cấp qua bơm phải qua điện trở R (Transistor điều khiển rơ le bơm On). </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Điều khiển bơm quay hai tốc độ (Dùng ECU bơm)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Khi khởi động hoặc lượng không khí nạp lớn, bộ điều khiển bơm nhiên liệu (ECU bơm) nhận tín hiệu 5V từ cực FPC của ECU động cơ, nó cho điện áp ra từ cực FP là 13,3V để điều khiển bơm quay ở tốc độ cao.
+Ở chế độ tải nhỏ ECU động cơ cung cấp điện áp từ cực FPC &lt; 2,5V, bộ điều khiển bơm cung cấp điện áp ra từ cực FP = 9,4V và bơm quay ở tốc độ chậm. 
+Khi contact Off hoặc ô tô bị sự cố, nguồn cung cấp từ cực FPC là 0V và bơm ngừng hoạt động. </t>
+    </r>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\4.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\5.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\6.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\7.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\8.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\9.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\10.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\11.PNG</t>
+  </si>
+  <si>
+    <t>Trên bộ dập dao động có bố trí một con vít để nhận biết nhiên liệu có cung cấp đến ống phân phối hay không. 
+Dưới tác dụng của áp suất nhiên liệu từ bơm mà màng bộ dập dao động di chuyển lên tác động cho con vít trồi lên để xác nhận nhiên liệu áp suất cao được cung cấp đến ống phân phối.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>B. Bộ dập dao động tích hợp trong ống phân phối</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ Ở kiểu bộ dập dao động tích hợp trong ống phân phối, ống phân phối được thiết kế thêm một lớp ống bên trong có thể co giãn dựa trên sự biến đổi của áp suất.
+Khi áp suất nhiên liệu lớn, lớp ống bên trong sẽ bị ép lại làm cho thể tích ống phân phối tăng lên, áp suất giảm xuống. 
+Khi áp suất nhiên liệu trong ống thấp, lớp ống bên trong sẽ giãn nở ra làm cho thể tích ống phân phối giảm xuống, áp suất tăng lên.</t>
+    </r>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c3\\1.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c3\\2.PNG</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">B. Bộ điều áp đặt trong thùng nhiên liệu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ Bộ điều áp được bố trí cùng với bơm xăng và ở bên trong thùng nhiên liệu. Áp suất nhiên liệu được duy trì ở một mức cố định không phụ thuộc vào độ chân không trong đường ống nạp. 
+Khi bơm quay, áp suất nhiên liệu sẽ tác dụng làm cho màng của bộ điều áp di chuyển và lò xo bị nén lại, nhiên liệu thừa sẽ thoát qua van điều áp trở về thùng chưa nhiên liệu. 
+Ở kiểu này, nhiên liệu được hồi bên trong thùng nhiên liệu và lượng nhiên liệu cần thiết cung cấp cho động cơ được giữ ở một áp suất cố định (khoảng 310 đến 347kPa). Như vậy, lượng nhiên liệu được làm nóng bởi động cơ không hồi trở lại thùng nhiên liệu, làm giảm sự bay hơi nhiên liệu bên trong thùng nhiên liệu và kiểm soát được sự phát thải.</t>
+    </r>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c4\\1.PNG</t>
+  </si>
+  <si>
+    <t>Căn cứ vào điện trở của cuộn dây kim phun, kim phun chia làm hai loại. 
+• Kim phun có điện trở cao: 13 – 15 Ω. 
+• Kim phun có điện trở thấp: 2 – 3 Ω. 
+Căn cứ vào số lỗ kim phun 
+• Loại có một lỗ phun. 
+• Loại có nhiều lỗ phun
+Có hai phương pháp dẫn động kim phun. 
+• Kiểu điều khiển bằng điện áp. 
+• Kiểu điều khiển bằng cường độ dòng điện. (Không còn sử dụng).</t>
+  </si>
+  <si>
+    <t>Sơ đồ bên dưới, kim phun điện trở cao của động cơ 4 xy lanh. Điện dương từ cực IG của contact máy sẽ cấp đến mỗi cực của kim phun, các cực còn lại của mỗi kim phun được nối về ECU qua các cực #10 và #20. Khi Transistor mở, dòng điện sẽ chạy qua 4 kim phun qua transistor về mass, các kim phun lúc này sẽ được mở đồng thời và nhiên liệu được phun vào các đường ống nạp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trong hình trên kim phun sử dụng có điện trở cao.
+Điện dương từ cực IG của contact máy sẽ cấp đến mỗi cực của kim phun, mỗi cực còn lại của kim phun 2 và 4 được nối với cực #20 và kim phun 1 và 3 được nối với cực #10 của ECU. Khi transistor số 1 mở, dòng điện sẽ chạy qua kim phun 1 và 3 rồi qua transistor về mass, nhiên liệu đi vào đường ống nạp của xy lanh 1 và 3. Khi transistor 2 mở, dòng điện sẽ chạy qua kim phun 2 và 4 rồi qua transistor về mass, nhiên liệu đi vào đường ống nạp của xy lanh 2 và 4. 
+Ở kiểu phun theo nhóm điện trở 2 đầu cực #10 và #20 là vô cùng (đo được khi tháo giắc kim phun). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Điện dương từ cực IG của contact máy sẽ cấp đến mỗi cực của kim phun, mỗi cực còn lại của kim phun lần lượt nối với các cực #10, #20, #30, #40 của ECU. Dựa theo thứ tự công tác của động cơ mà ECU sẽ kích transistor theo các kim phun tương ứng để phun nhiên liệu. 
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Điều khiển bằng điện áp cho kim phun có điện trở cao</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Điện dương từ ắc quy được cung cấp đến cực số 10 và cực số 20 của ECU qua các cầu chì, contact máy và các kim phun. Khi bộ vi xử lý điều khiển transistor mở, dòng điện đi qua kim phun làm cho van kim được nhấc lên và nhiên liệu được phun vào đường ống nạp. Đối với kim phun có điện trở cao, do số vòng dây của cuộn dây kim phun nhiều nên đẫn đến sự mở trễ của kim phun. Tuy nhiên, hiện nay kim phun điện trở cao được sử dụng là phổ biến và thời gian mở trễ của kim phun được bù lại trong ECU.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Điều khiển bằng điện áp cho kim phun có điện trở thấp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Kim phun điện trở thấp, số vòng dây của cuộn dây kim phun ít, làm tăng độ nhạy của kim phun. 
+Đối với loại này để giảm cường độ dòng điện qua cuộn dây kim phun, bắt buộc phải mắc nối tiếp một điện trở trong mạch điện điều khiển kim phun.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Các kiểu phun của kim phun</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Kiểu phun hàng loạt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Ở kiểu phun này trong một chu kỳ làm việc của động cơ các kim phun phun cùng một lúc và có hai lần phun, lượng nhiên liệu mỗi lần phun sẽ bằng một nửa lượng nhiên liệu cần thiết trong một chu kỳ. Khuyết điểm của kiểu phun này là nhiên liệu phun vào kỳ nạp ở một số xy lanh điều này dẫn đến sự hình thành hỗn hợp ở các xy lanh này kém. Do vậy, nó chỉ áp dụng ở các động cơ có số xy lanh từ 6 trở xuống.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Kiểu phun theo nhóm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Phương pháp này thường được áp dụng cho động cơ có số xy lanh từ 6 trở lên các kim phun có thể chia làm hai nhóm, ba nhóm, bốn nhóm,… tùy theo số xy lanh động cơ. 
+Ở kiểu phun này, lượng nhiên liệu được cung cấp trước quá trình nạp của mỗi xy lanh. Nhóm 1 được thực hiện cho xy lanh 2, 4. Nhóm 2 cho các kim phun 1 và 3. Ở kiểu này, trong một chu kỳ làm việc của động cơ các kim phun chỉ phun có một lần.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kiểu phun theo thứ tự công tác</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Kiểu phun này là kiểu phun phổ biến hiện này, thường được áp dụng ở động cơ 4 và 6 xy lanh. Mỗi kim phun chỉ mở một lần trong một chu kỳ và mở theo thứ tự công tác của động cơ. Theo sơ đồ bên dưới, lượng nhiên liệu được cung cấp ở cuối quá thải của mỗi xy lanh.</t>
+    </r>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c5\\1.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c5\\2.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c5\\3.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c5\\4.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c5\\5.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c5\\6.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c5\\7.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c5\\8.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c5\\9.PNG</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Phương pháp dẫn động kim phun bằng contact nhiệt thời gian </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Contact nhiệt thời gian thường được bố trí ở nắp máy gần cảm biến nhiệt độ nước làm mát. Chức năng của nó dùng để điều khiển thời gian mở của kim phun khởi động lạnh theo nhiệt độ nước làm mát
+Ở nhiệt độ nước làm mát thấp, thanh lưỡng kim điều khiển tiếp điểm contact nhiệt thời gian đóng lại. Khi Contact máy ở vị trí ST, dòng điện đến cuộn dây kim phun khởi động lạnh → lưỡng kim nhiệt → tiếp điểm → mass. Van kim phun khởi động lạnh được nhất lên và nhiên liệu được phun vào buồng nạp. Trong cùng thời gian trên, dòng điện từ cực ST contact máy → hai cuộn dây điện trở và về mass. 
+Sau khi khởi động, contact máy chuyển về vị trí ON, kim phun khởi động ngừng phun.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Phương pháp dẫn động kim phun bằng contact nhiệt thời gian và ECU </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+A: là vùng làm việc của contact nhiệt thời gian ứng với tiếp điểm đóng. 
+B: là vùng làm việc ứng với Transistor trong ECU On. 
+Ở phương pháp dẫn động kim phun bằng contact nhiệt thời gian và ECU. Khi nhiệt độ nước làm mát bé hơn 200C, thời gian mở của kim phun khởi động lạnh phụ thuộc vào sự điều khiển của contact nhiệt thời gian. Khi nhiệt độ nước làm mát lớn hơn 200C, ECU điều khiển thời gian mở của kim phun khởi động lạnh khoảng 0,5 giây. Kim phun khởi động lạnh không phun khi khởi động ở nhiệt độ trên 600C.</t>
+    </r>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c6\\1.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c6\\2.PNG</t>
+  </si>
+  <si>
+    <t>Khi khởi động có tín hiệu STA gửi về ECU, van ISC mở lớn để động cơ dễ khởi động, sau đó van khép lại và dừng ở vị trí tương ứng với nhiệt độ nước làm mát của động cơ.
+Ở tốc độ cầm chừng, nếu nhiệt độ động cơ thấp thì van mở lớn, khi nhiệt độ động cơ tăng dần thì van khép dần và giữ ổn định khi nhiệt độ nước làm mát động cơ đạt 〖80〗^0C trở lên. Đây chính là chế độ cầm chừng nhanh.
+Tốc độ cầm chừng được giữ ổn định căn cứ vào chuẩn trong bộ nhớ. Nếu tốc độ cầm chừng bị sai lệch , ECU sẽ điều khiên van đóng hoặc mở để ổn định tốc độ cầm chừng.
+Ngoài ra van ISC còn có chức năng điều khiển giảm tốc độ động cơ từ từ khi giảm tốc.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Các tín hiệu điều khiển tốc độ cầm chừng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tín hiệu khởi động STA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Khi nhận tín hiệu khởi động STA từ contact máy, ECU sẽ điều khiển van mở lớn để động cơ khởi động dễ dàng. Độ mở của van được cài đặt trong bộ nhớ và căn cứ vào tín hiệu nhiệt độ nước làm mát THW, tín hiệu cầm chừng IDL và số vòng quay động cơ Ne. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>B. Tín hiệu contact tay số NSW</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Động cơ sử dụng hộp số tự động, ECU động cơ dùng tín hiệu NSW để xác định vị trí tay số được cài đặt bởi người lái xe ở tốc độ cầm chừng. Tải động cơ ở tốc độ cầm chừng sẽ gia tăng khi tay số ở các vị trí R, D, L1, L2. 
+Nếu tay số ở vị trí N hoặc P, cực NSW của ECU được nối ra mát. Do vậy, điện áp tại cực NSW sẽ thấp và ECU nhận biết động cơ không gài số. 
+Khi gài số, điện áp cực NSW (cực NSW không nối mát) sẽ cao và ECU sẽ điều khiển van ISC mở để gia tăng lượng không khí nạp nhằm ổn định tốc độ cầm chừng.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>C. Tín hiệu nhiệt độ nước</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Khi nhiệt độ nước làm mát bé hơn 〖80〗^0 𝐶, ECU sẽ điều khiển van ISC mở để ổn định tốc độ cầm chừng khi lạnh. Nếu nhiệt độ nước làm mát càng thấp, van ISC mở càng lớn và tốc độ cầm chừng càng cao.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>D. Tín hiệu hệ thống điều hòa A/C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Khi ECU nhận tín hiệu A/C, nó sẽ điều khiển van ISC mở để bù một phần công suất động cơ bị mất do phải dẫn động máy nén của hệ thống điều hòa không khí.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>E. Tín hiệu tải điện ELS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Khi ECU nhận tín hiệu ELS nó sẽ điều khiển van ISC mở để bù lại công cản máy phát điện gia tang. Tải điện sử dụng có thể là điện trở xông kính xe, đèn pha cốt, đèn kích thước và các phụ tải điện khác. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">F. Tín hiệu trợ lực lái P/S
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Khi xe quay vòng, lúc này bộ trợ lái hoạt động và động cơ phải kéo thêm bơm trợ lực lái. Do vậy, để ổn định tốc độ cầm chừng khi xe quay vòng ECU điều khiển van ISC mở để ổn định tốc độ cầm chừng.
+Tín hiệu từ bơm trợ lực lái gửi về ECU ở dạng contact áp suất hoặc cảm biến áp suất.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>G. Tín hiệu tốc độ xe SPD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Khi tốc độ xe chậm và tốc độ động cơ Ne thấp, ECU sẽ điều khiển gia tăng tốc độ cầm chừng nhằm đảm bảo động cơ không tắt máy đột ngột.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Van ISC kiểu mô tơ bước </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Kiểu này thường được dùng nhiều ở các động cơ có số xy lanh từ 6 trở lên. Van được bố trí ở buồn nạp hoặc thân bướm ga, có khả năng điều khiển lượng không khí đi tắt qua bướm ga rất lớn. 
+Cấu trúc của van bao gồm một mô tơ điều khiển bằng xung và một van. 
+Van được lắp ở đầu trục và được ghép bằng ren. Khi rotor của mô tơ chuyển động theo chiều kim đồng hồ, van sẽ chuyển động tiến về đế van làm giảm khe hở, lượng không khí đi tắt qua bướm ga giảm theo và ngược lại. 
+Rotor của mô tơ được chế tạo bằng nam châm vĩnh cửu có 16 cực. Số cực có thể thay đổi tùy theo từng loại động cơ.
+Stator gồm hai bộ lõi 16 cực, mỗi lõi được đặt xen kẽ nửa bước so với lõi kia và được quấn hai cuộn dây ngược chiều với nhau.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Nguyên lý van ISC kiểu mô tơ bước </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Trong quá trình làm việc ECU sẽ điều khiển dòng điện qua các cuộn dây theo thứ tự S1, S2, S3, S4 hoặc ngược lại để làm cho van chạy tới hoặc chạy lui.
+Hình A: Rotor đứng yên 
+Hình B: Khi cung cấp dòng điện qua một cuộn dây S1, cực tính của stator hình thành 
+Hình C: Các cực khác tên hút nhau và các cực cùng tên đẩy nhau làm cho rotor xoay một bước bằng 1/32 vòng. 
+Muốn rotor chuyển động tiếp theo cùng chiều quay, ECU sẽ điều khiển dòng điện chạy theo thứ tự S2, S3, S4 và lặp lại. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Van ISC kiểu van xoay (Hai cuộn dây)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Kiểu này được sử dụng trong các động cơ cũ. Cấu trúc bao gồm:
+Một nam châm vĩnh cửu có dạng hình trụ đặt ở đầu trục van. Dưới tác dụng từ trường của nam châm điện làm cho nam châm vĩnh cửu xoay qua lại và van chuyển động điều khiển lượng không khí đi tắt qua bướm ga. 
+Ở đầu trục van được bố trí hai cuộn dây đặt đối xứng với nhau. Khi cho dòng điện chạy qua một trong hai cuộn dây này, lực từ của nam châm điện làm nam châm vĩnh cửu chuyển động. 
+Lò xo lưỡng kim đặt ở đuôi trục van và nó chịu tác động bởi nhiệt độ nước làm mát. Một đầu của lò xo được cố định bởi một chốt và đầu còn lại được đặt trong rãnh của tấm chắn và phải bảo đảm trục van chuyển động dễ dàng khi van ISC hoạt động. Khi van ISC bị hỏng, cơ cấu này đảm bảo động cơ làm việc ở tốc độ cầm chừng không quá cao hoặc quá thấp. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Nguyên lý van ISC kiểu van xoay (Hai cuộn dây)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Khi ECU điều khiển cực RSO nối mát, có dòng điện chạy qua cuộc dây, lực từ của nam châm điện sẽ làm cho van xoay theo chiều kim đồng hồ. Ngược lại, khi cực RSC nối mát, có dòng qua T2, van xoay theo ngược chiều kim đồng hồ.
+Trong quá trình van ISC hoạt động, ECU điều khiển theo hệ số chu kỳ ( Duty cycle). Nếu thời gian van mở dài hơn thời gian ECU điều khiển van đóng thì van mở lớn và ngược lại.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Van ISC kiểu van xoay (Một cuộn dây)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Đây là kiểu cải tiến được sử dụng cho hang Toyota. Kết cấu của van gọn nhẹ, van được bố trí ở thân bướm ga.
+Cấu trức của van ISC bao gồm: Một IC, một cuộn dây, van và một nam châm vĩnh cửu. ECU dùng trị số hiệu dụng để điều khiển chiều và cường độ dòng điện qua cuộn dây.
+Khi tỉ lệ hiệu dụng cao, IC điều khiển van mở lớn, lượng không khí đi tắt qua bướm ga gia tăng. Khi tỉ lệ hiệu dụng thấp thì IC điều khiển van về vị trí đóng.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c7\\1.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c7\\2.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c7\\3.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c7\\4.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c7\\5.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c7\\6.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c7\\7.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c7\\8.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c7\\9.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c7\\10.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c7\\11.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c7\\12.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c7\\13.PNG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2576,6 +3314,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2645,7 +3391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2711,6 +3457,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3028,11 +3778,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B35AC48-28AE-47CF-8E11-1A48B47FC0D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3080,21 +3830,21 @@
         <v>10</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>540</v>
+        <v>710</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>707</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>13</v>
@@ -3121,18 +3871,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="152.4" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>540</v>
+        <v>711</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>708</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>13</v>
@@ -3159,18 +3909,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="111" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>540</v>
+        <v>712</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>709</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>13</v>
@@ -3197,45 +3947,43 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="193.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="111" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>690</v>
-      </c>
+      <c r="C5" s="4"/>
       <c r="D5" s="19" t="s">
-        <v>770</v>
+        <v>713</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>536</v>
+        <v>14</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>537</v>
+        <v>14</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>538</v>
+        <v>14</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>758</v>
+        <v>14</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>20</v>
       </c>
@@ -3243,28 +3991,28 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>691</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>771</v>
+        <v>722</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>714</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>539</v>
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>537</v>
+        <v>14</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>538</v>
+        <v>14</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>758</v>
+        <v>14</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K6" s="18" t="s">
         <v>14</v>
@@ -3273,7 +4021,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="111" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>21</v>
       </c>
@@ -3281,28 +4029,28 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>535</v>
+        <v>723</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>715</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>541</v>
+        <v>14</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>537</v>
+        <v>14</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>538</v>
+        <v>14</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>758</v>
+        <v>14</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K7" s="18" t="s">
         <v>14</v>
@@ -3311,18 +4059,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>540</v>
+        <v>724</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>716</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>13</v>
@@ -3349,7 +4097,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>23</v>
       </c>
@@ -3357,10 +4105,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>693</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>542</v>
+        <v>725</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>717</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>13</v>
@@ -3387,7 +4135,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>24</v>
       </c>
@@ -3395,25 +4143,25 @@
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>693</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>535</v>
+        <v>726</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>719</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>760</v>
+        <v>13</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>761</v>
+        <v>14</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>762</v>
+        <v>14</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>543</v>
+        <v>14</v>
       </c>
       <c r="J10" s="18" t="s">
         <v>14</v>
@@ -3425,18 +4173,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>540</v>
+        <v>727</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>718</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>13</v>
@@ -3463,7 +4211,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>26</v>
       </c>
@@ -3471,10 +4219,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>694</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>545</v>
+        <v>728</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>720</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>13</v>
@@ -3495,7 +4243,7 @@
         <v>14</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>544</v>
+        <v>14</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>440</v>
@@ -3504,7 +4252,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>29</v>
       </c>
@@ -3512,31 +4260,31 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>694</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>545</v>
+        <v>729</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>721</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>546</v>
+        <v>14</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>275</v>
+        <v>14</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>276</v>
+        <v>14</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>277</v>
+        <v>14</v>
       </c>
       <c r="J13" s="18" t="s">
         <v>14</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>544</v>
+        <v>14</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>440</v>
@@ -3553,16 +4301,16 @@
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>694</v>
+        <v>651</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="G14" s="18" t="s">
         <v>275</v>
@@ -3577,7 +4325,7 @@
         <v>14</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>440</v>
@@ -3594,16 +4342,16 @@
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>694</v>
+        <v>651</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="G15" s="18" t="s">
         <v>275</v>
@@ -3618,7 +4366,7 @@
         <v>12</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>440</v>
@@ -3635,16 +4383,16 @@
         <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>695</v>
+        <v>652</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="G16" s="18" t="s">
         <v>275</v>
@@ -3659,7 +4407,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>440</v>
@@ -3676,10 +4424,10 @@
         <v>14</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>695</v>
+        <v>652</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>13</v>
@@ -3700,7 +4448,7 @@
         <v>14</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>440</v>
@@ -3717,16 +4465,16 @@
         <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>694</v>
+        <v>651</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>763</v>
+        <v>700</v>
       </c>
       <c r="G18" s="18" t="s">
         <v>426</v>
@@ -3741,7 +4489,7 @@
         <v>12</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>440</v>
@@ -3761,7 +4509,7 @@
         <v>534</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>13</v>
@@ -3796,10 +4544,10 @@
         <v>14</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>696</v>
+        <v>653</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>13</v>
@@ -3837,7 +4585,7 @@
         <v>534</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>13</v>
@@ -3872,10 +4620,10 @@
         <v>14</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>697</v>
+        <v>654</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>689</v>
+        <v>650</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>13</v>
@@ -3910,10 +4658,10 @@
         <v>14</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>698</v>
+        <v>655</v>
       </c>
       <c r="D23" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>13</v>
@@ -3948,7 +4696,7 @@
         <v>14</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>699</v>
+        <v>656</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>535</v>
@@ -3957,16 +4705,16 @@
         <v>14</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="J24" s="18" t="s">
         <v>14</v>
@@ -3986,7 +4734,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>699</v>
+        <v>656</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>535</v>
@@ -3995,16 +4743,16 @@
         <v>14</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="J25" s="18" t="s">
         <v>12</v>
@@ -4024,7 +4772,7 @@
         <v>14</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>699</v>
+        <v>656</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>535</v>
@@ -4033,16 +4781,16 @@
         <v>14</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="J26" s="18" t="s">
         <v>14</v>
@@ -4062,39 +4810,38 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{9E6D6BAD-5379-4C1E-A0F4-3B9B212E1618}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{A73D93D0-31EC-4158-AF62-682BDA857357}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{78FE737C-A29C-47EA-A7B3-5462292D6826}"/>
-    <hyperlink ref="C8" r:id="rId4" xr:uid="{864E7F6C-2500-4BD1-A8A6-FDC388559A9D}"/>
-    <hyperlink ref="C11" r:id="rId5" xr:uid="{1A448454-DC41-4C04-97BE-48D4F4209186}"/>
-    <hyperlink ref="C19" r:id="rId6" xr:uid="{48102DFF-FD83-43B4-81D1-62A751410264}"/>
-    <hyperlink ref="C21" r:id="rId7" display="\\Resources\mach trang.jpg" xr:uid="{8DAC000A-321D-4DD4-B18D-483ACAEBA58F}"/>
-    <hyperlink ref="C5" r:id="rId8" xr:uid="{4633BFA2-8A16-4654-8B21-AC214611A68A}"/>
-    <hyperlink ref="C6" r:id="rId9" xr:uid="{09978EF0-3AA5-4069-8117-3DFDD030CCA1}"/>
-    <hyperlink ref="C7" r:id="rId10" xr:uid="{E10F54D5-EB5A-4990-AE95-C50F1319B9CD}"/>
-    <hyperlink ref="C9" r:id="rId11" xr:uid="{7F26520F-4955-485B-94EB-D1E93D909774}"/>
-    <hyperlink ref="C10" r:id="rId12" xr:uid="{5E6F9FD6-40AC-4569-B49D-54B0618F9BB1}"/>
-    <hyperlink ref="C12" r:id="rId13" xr:uid="{6DB2CF83-CF3B-4750-9C52-23AFA551A2C8}"/>
-    <hyperlink ref="C13" r:id="rId14" xr:uid="{8E09CCAB-D43B-474C-AA23-3485549F9B57}"/>
-    <hyperlink ref="C14" r:id="rId15" xr:uid="{336910B8-672A-4304-B560-B501722A3A7D}"/>
-    <hyperlink ref="C15" r:id="rId16" xr:uid="{E3AC31A0-900B-4D05-8D3B-607C8B67654E}"/>
-    <hyperlink ref="C16" r:id="rId17" xr:uid="{2D924063-7DDA-4EB8-B536-50CF24198A24}"/>
-    <hyperlink ref="C17" r:id="rId18" xr:uid="{D468A255-B9A4-45D6-9C55-23DC450F45FA}"/>
-    <hyperlink ref="C18" r:id="rId19" xr:uid="{4B4A9628-62C0-4A88-AEA4-4F5293C07F34}"/>
-    <hyperlink ref="C20" r:id="rId20" xr:uid="{3E517526-EC62-4789-B112-A75E53886806}"/>
-    <hyperlink ref="C22" r:id="rId21" xr:uid="{EBC40491-3C6F-4BE9-A56A-93D7589F9768}"/>
-    <hyperlink ref="C23" r:id="rId22" xr:uid="{845C6A17-6F3A-4B0B-96BF-CB5CC99FD7E5}"/>
-    <hyperlink ref="C24" r:id="rId23" xr:uid="{B9BCB315-C933-4DAE-953C-074F4A278E03}"/>
-    <hyperlink ref="C25" r:id="rId24" xr:uid="{B5AD4DBC-F926-480E-92B0-2C8520C5BF85}"/>
-    <hyperlink ref="C26" r:id="rId25" xr:uid="{B54D17F9-E64D-441D-BF64-B109BA7AA0D5}"/>
+    <hyperlink ref="C19" r:id="rId1"/>
+    <hyperlink ref="C21" r:id="rId2" display="\\Resources\mach trang.jpg"/>
+    <hyperlink ref="C14" r:id="rId3"/>
+    <hyperlink ref="C15" r:id="rId4"/>
+    <hyperlink ref="C16" r:id="rId5"/>
+    <hyperlink ref="C17" r:id="rId6"/>
+    <hyperlink ref="C18" r:id="rId7"/>
+    <hyperlink ref="C20" r:id="rId8"/>
+    <hyperlink ref="C22" r:id="rId9"/>
+    <hyperlink ref="C23" r:id="rId10"/>
+    <hyperlink ref="C24" r:id="rId11"/>
+    <hyperlink ref="C25" r:id="rId12"/>
+    <hyperlink ref="C26" r:id="rId13"/>
+    <hyperlink ref="C2" r:id="rId14"/>
+    <hyperlink ref="C3" r:id="rId15"/>
+    <hyperlink ref="C4" r:id="rId16"/>
+    <hyperlink ref="C6" r:id="rId17"/>
+    <hyperlink ref="C7" r:id="rId18"/>
+    <hyperlink ref="C8" r:id="rId19"/>
+    <hyperlink ref="C9" r:id="rId20"/>
+    <hyperlink ref="C12" r:id="rId21"/>
+    <hyperlink ref="C10" r:id="rId22"/>
+    <hyperlink ref="C11" r:id="rId23"/>
+    <hyperlink ref="C13" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId26"/>
+  <pageSetup orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BC4164-0D3A-4957-8DCA-EEBF119874AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4492,7 +5239,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="180" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="193.8" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>26</v>
       </c>
@@ -4525,7 +5272,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="166.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="180" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>29</v>
       </c>
@@ -4558,7 +5305,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="166.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="180" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>30</v>
       </c>
@@ -4825,7 +5572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="276.60000000000002" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="304.2" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>79</v>
       </c>
@@ -5232,30 +5979,30 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{B7131BC5-FB8C-4D4F-AD42-BEF7884B467D}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{4FB84E52-AD88-428E-BFE3-B78EC5CA613B}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{863A783F-2A72-47DB-A36D-492C7379E5A6}"/>
-    <hyperlink ref="C7" r:id="rId4" xr:uid="{1F913B25-D5CB-438B-A8FB-F728BF5021DD}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{FDAC8BB6-B641-4208-B8DF-02C8F0910643}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{504F866A-8916-4082-A4C5-D3168E4C1FF4}"/>
-    <hyperlink ref="C12" r:id="rId7" xr:uid="{5142FEA1-0D7E-4F75-99ED-1D27F243E4D4}"/>
-    <hyperlink ref="C11" r:id="rId8" xr:uid="{16E05817-FBA0-44DD-9273-5EE86180090E}"/>
-    <hyperlink ref="C13" r:id="rId9" xr:uid="{F439659E-065D-4DE1-AE55-6AFE860C08D3}"/>
-    <hyperlink ref="C14" r:id="rId10" xr:uid="{9FE0ECAD-B335-4EE8-A452-F1289833F1BE}"/>
-    <hyperlink ref="C15" r:id="rId11" xr:uid="{0E389C14-5CA9-4AFC-82E3-722AB1B9497F}"/>
-    <hyperlink ref="C16" r:id="rId12" xr:uid="{099807CC-89B9-4B7B-975F-F4AEE9D9491D}"/>
-    <hyperlink ref="C18" r:id="rId13" xr:uid="{85A30DCC-1037-4E36-AB38-A1942C81412F}"/>
-    <hyperlink ref="C19" r:id="rId14" xr:uid="{7DBBBFF1-5230-4F87-AD9D-F768629E141F}"/>
-    <hyperlink ref="C20" r:id="rId15" xr:uid="{1CFF36CC-960F-4ECF-B7F4-2B8904FC2A93}"/>
-    <hyperlink ref="C21" r:id="rId16" xr:uid="{2D1AA79A-2B13-4D8F-BF7F-D8EAC7A4A228}"/>
-    <hyperlink ref="C22" r:id="rId17" xr:uid="{69D61C4A-426D-4DC3-B2FE-56958396727D}"/>
-    <hyperlink ref="C24" r:id="rId18" xr:uid="{9E71EB25-3BD0-45A8-AF1D-4492796E9390}"/>
-    <hyperlink ref="C25" r:id="rId19" display="\\Resources\\Hinh anh cac chuong\\hinh anh c5\\short2ground.png" xr:uid="{F4C64A32-E75C-4768-BB8E-B6346AFDFC15}"/>
-    <hyperlink ref="C30" r:id="rId20" xr:uid="{5096F54D-111A-41F2-9582-0C232319CBE2}"/>
-    <hyperlink ref="C31" r:id="rId21" xr:uid="{48F7176E-292F-4311-A8CD-C565DEB5515B}"/>
-    <hyperlink ref="C32" r:id="rId22" xr:uid="{2D8697AF-E3B8-4E69-B166-E7992C69410A}"/>
-    <hyperlink ref="C33" r:id="rId23" xr:uid="{9CD828B0-49A6-4EDC-B46E-99FD69468E77}"/>
-    <hyperlink ref="C2" r:id="rId24" xr:uid="{664C4C80-8881-4D87-A1D6-7EA615FC7290}"/>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C6" r:id="rId3"/>
+    <hyperlink ref="C7" r:id="rId4"/>
+    <hyperlink ref="C9" r:id="rId5"/>
+    <hyperlink ref="C10" r:id="rId6"/>
+    <hyperlink ref="C12" r:id="rId7"/>
+    <hyperlink ref="C11" r:id="rId8"/>
+    <hyperlink ref="C13" r:id="rId9"/>
+    <hyperlink ref="C14" r:id="rId10"/>
+    <hyperlink ref="C15" r:id="rId11"/>
+    <hyperlink ref="C16" r:id="rId12"/>
+    <hyperlink ref="C18" r:id="rId13"/>
+    <hyperlink ref="C19" r:id="rId14"/>
+    <hyperlink ref="C20" r:id="rId15"/>
+    <hyperlink ref="C21" r:id="rId16"/>
+    <hyperlink ref="C22" r:id="rId17"/>
+    <hyperlink ref="C24" r:id="rId18"/>
+    <hyperlink ref="C25" r:id="rId19" display="\\Resources\\Hinh anh cac chuong\\hinh anh c5\\short2ground.png"/>
+    <hyperlink ref="C30" r:id="rId20"/>
+    <hyperlink ref="C31" r:id="rId21"/>
+    <hyperlink ref="C32" r:id="rId22"/>
+    <hyperlink ref="C33" r:id="rId23"/>
+    <hyperlink ref="C2" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId25"/>
@@ -5263,7 +6010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC63461-BDB8-4207-94FF-50AC58B886E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -5626,7 +6373,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="221.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="235.2" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>26</v>
       </c>
@@ -5821,7 +6568,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="331.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>34</v>
       </c>
@@ -5963,30 +6710,30 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{B3D50D8C-7826-450E-98FB-4CC8B53E7F8A}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{CC83E07E-CA22-419E-AB7D-F040DE6EB090}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{0C92C491-8053-451C-90EE-CFAD0ACAF234}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{F5030EA9-28A4-4243-A980-99957C717031}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{FA387A05-AB52-49A4-8D81-2A5D56B4FFD0}"/>
-    <hyperlink ref="B10" r:id="rId6" xr:uid="{CA923593-237B-4B82-86B6-95D85DD9ACA5}"/>
-    <hyperlink ref="B11" r:id="rId7" xr:uid="{4BE07B08-62A8-4E28-86D4-903DD2612919}"/>
-    <hyperlink ref="B12" r:id="rId8" display="\\Resources\Hinh anh cac chuong\hinh anh c6\wiring_final.png" xr:uid="{AB5B21B4-3D35-4843-80EA-F00566533E4F}"/>
-    <hyperlink ref="B13" r:id="rId9" display="\\Resources\Hinh anh cac chuong\hinh anh c6\wiring_final.png" xr:uid="{3F4C1B57-88F2-491F-8904-52AAC2D2A963}"/>
-    <hyperlink ref="B14" r:id="rId10" xr:uid="{3A18F67E-8767-45CA-AF40-84666CB1CDED}"/>
-    <hyperlink ref="B15" r:id="rId11" xr:uid="{F2B75665-7DFD-46EF-AF61-B1A481D17FA5}"/>
-    <hyperlink ref="B16" r:id="rId12" xr:uid="{7BE7B273-EAB1-41FD-8F01-AA294160855A}"/>
-    <hyperlink ref="B17" r:id="rId13" xr:uid="{3A7F3764-BB91-4F3F-BF2B-B905E932220D}"/>
-    <hyperlink ref="B18" r:id="rId14" xr:uid="{3AE57BE0-74F2-40F3-B734-F57753D9F7E4}"/>
-    <hyperlink ref="B19" r:id="rId15" xr:uid="{BDC5A0D5-5BF1-473D-9282-E65C892B44C2}"/>
-    <hyperlink ref="B20" r:id="rId16" xr:uid="{E0C5F0CA-0FB2-46B1-ACC1-7887909FE67C}"/>
-    <hyperlink ref="B21" r:id="rId17" xr:uid="{FC53BC60-82CB-4AFC-96CA-FB8F89F1B2B0}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B10" r:id="rId6"/>
+    <hyperlink ref="B11" r:id="rId7"/>
+    <hyperlink ref="B12" r:id="rId8" display="\\Resources\Hinh anh cac chuong\hinh anh c6\wiring_final.png"/>
+    <hyperlink ref="B13" r:id="rId9" display="\\Resources\Hinh anh cac chuong\hinh anh c6\wiring_final.png"/>
+    <hyperlink ref="B14" r:id="rId10"/>
+    <hyperlink ref="B15" r:id="rId11"/>
+    <hyperlink ref="B16" r:id="rId12"/>
+    <hyperlink ref="B17" r:id="rId13"/>
+    <hyperlink ref="B18" r:id="rId14"/>
+    <hyperlink ref="B19" r:id="rId15"/>
+    <hyperlink ref="B20" r:id="rId16"/>
+    <hyperlink ref="B21" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AD1192-C9AF-4EF2-B194-DFA20D74E9C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -6616,7 +7363,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>75</v>
       </c>
@@ -6752,24 +7499,24 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG" xr:uid="{E6405A66-00CB-4816-BE07-D66FF85F8B38}"/>
-    <hyperlink ref="B4" r:id="rId2" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG" xr:uid="{B1DF6B7C-8B95-4CB0-8DD8-AE53FD256904}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{62A5E0A2-158D-4FE4-9E12-23A04F04330E}"/>
-    <hyperlink ref="B8" r:id="rId4" xr:uid="{41A0BEA7-A3FA-4C95-80BA-3B7BE158887D}"/>
-    <hyperlink ref="B2" r:id="rId5" xr:uid="{AB59F4F0-7BBA-45E7-84DE-E5CCBEB50348}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{5E225F15-BA83-48D5-9EBD-B86D3A40BBFD}"/>
-    <hyperlink ref="B11" r:id="rId7" xr:uid="{8CF33EC8-F2BA-4FDE-B73A-8D5BD6B16D85}"/>
-    <hyperlink ref="B12" r:id="rId8" xr:uid="{41B3B5E9-D3C3-4222-BA7C-A2A3271F3958}"/>
-    <hyperlink ref="B13" r:id="rId9" xr:uid="{94CAFF04-00EA-4118-BAB5-C99A38E876F7}"/>
-    <hyperlink ref="B14" r:id="rId10" xr:uid="{8B489888-7B11-4CB8-AE8F-7ED43C610A77}"/>
-    <hyperlink ref="B15" r:id="rId11" xr:uid="{2F6CADA1-F276-4990-9C2B-ED281BA21E81}"/>
-    <hyperlink ref="B17" r:id="rId12" xr:uid="{C50D792D-49B2-4905-83FB-9DA7EBF000BA}"/>
-    <hyperlink ref="B18" r:id="rId13" xr:uid="{C0995EF2-8A66-40EE-8315-98789A2E7321}"/>
-    <hyperlink ref="B19" r:id="rId14" xr:uid="{2AB2A280-8B06-4440-A930-EA2D2EC14D82}"/>
-    <hyperlink ref="B20" r:id="rId15" xr:uid="{8B9F0F65-F2A1-450B-9C39-35FF2FEE7522}"/>
-    <hyperlink ref="B21" r:id="rId16" xr:uid="{292B042A-4F7F-4162-A42E-B10857E96D92}"/>
-    <hyperlink ref="B22" r:id="rId17" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG" xr:uid="{EDF4B910-E659-42A0-B83C-4FC4799EFFA1}"/>
-    <hyperlink ref="B23" r:id="rId18" xr:uid="{06B5E751-B541-492C-ACCB-5F59F5411ADF}"/>
+    <hyperlink ref="B3" r:id="rId1" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG"/>
+    <hyperlink ref="B4" r:id="rId2" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG"/>
+    <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId4"/>
+    <hyperlink ref="B2" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B11" r:id="rId7"/>
+    <hyperlink ref="B12" r:id="rId8"/>
+    <hyperlink ref="B13" r:id="rId9"/>
+    <hyperlink ref="B14" r:id="rId10"/>
+    <hyperlink ref="B15" r:id="rId11"/>
+    <hyperlink ref="B17" r:id="rId12"/>
+    <hyperlink ref="B18" r:id="rId13"/>
+    <hyperlink ref="B19" r:id="rId14"/>
+    <hyperlink ref="B20" r:id="rId15"/>
+    <hyperlink ref="B21" r:id="rId16"/>
+    <hyperlink ref="B22" r:id="rId17" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG"/>
+    <hyperlink ref="B23" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId19"/>
@@ -6777,7 +7524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E788451F-840A-4DC8-BC98-46209958401E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7451,17 +8198,17 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{02D03DBE-2B7E-4956-85E9-8DCB6F8CD8FA}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{F835938A-B0C7-4FD3-8BB5-5AD14F60A5C3}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{9D1159F0-24E5-4C7A-9BD4-1EDA207A3492}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{DB09DD12-8498-4DF3-8E4B-6D83470A6C42}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{84251520-ED46-43B9-9735-73B1C09E1BB7}"/>
-    <hyperlink ref="B14" r:id="rId6" xr:uid="{06E73434-E018-4E19-A9EB-A21866F3B74D}"/>
-    <hyperlink ref="B15" r:id="rId7" xr:uid="{9E72A236-5C86-4EED-9E0C-9BCB2255A8AA}"/>
-    <hyperlink ref="B16" r:id="rId8" xr:uid="{3DB89C1B-CF45-4C26-A5AB-1A39BD5A6E62}"/>
-    <hyperlink ref="B17" r:id="rId9" xr:uid="{9DB9D4CD-420E-45F5-9B92-7D103C194B3D}"/>
-    <hyperlink ref="B18" r:id="rId10" xr:uid="{4137CEDB-DAE0-4E71-8641-4A02781796AB}"/>
-    <hyperlink ref="B19" r:id="rId11" xr:uid="{4A600835-AC12-422F-BC79-099B03FD83C2}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B14" r:id="rId6"/>
+    <hyperlink ref="B15" r:id="rId7"/>
+    <hyperlink ref="B16" r:id="rId8"/>
+    <hyperlink ref="B17" r:id="rId9"/>
+    <hyperlink ref="B18" r:id="rId10"/>
+    <hyperlink ref="B19" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId12"/>
@@ -7469,7 +8216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF33A04-5E96-4C6E-A3F7-62EF4A67CE13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7834,7 +8581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A12" s="22">
         <v>12</v>
       </c>
@@ -7975,24 +8722,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{ECE88239-6FAA-46F5-A527-354527315551}"/>
-    <hyperlink ref="B6" r:id="rId2" xr:uid="{9C68EF68-BE9D-4557-A615-48A73F3A34FB}"/>
-    <hyperlink ref="B7" r:id="rId3" xr:uid="{2D5E0AD8-C0FF-4B3B-8D78-8E3BFC311735}"/>
-    <hyperlink ref="B8" r:id="rId4" xr:uid="{E4DCD819-8551-45D4-8A91-CACBC7394D5D}"/>
-    <hyperlink ref="B9" r:id="rId5" xr:uid="{6829B3D3-9E73-49F2-91DA-2C4D86D242C5}"/>
-    <hyperlink ref="B10" r:id="rId6" xr:uid="{4A92E804-6FFE-484E-8434-0184B063CCE0}"/>
-    <hyperlink ref="B11" r:id="rId7" xr:uid="{3443CC0A-AD20-4245-A2DF-31D23BF8A6F6}"/>
-    <hyperlink ref="B12" r:id="rId8" xr:uid="{AAE98899-61D2-42F4-B95C-13D0335B40A9}"/>
-    <hyperlink ref="B13" r:id="rId9" xr:uid="{33FA191F-1978-400F-AC30-84AEB98F32D6}"/>
-    <hyperlink ref="B14" r:id="rId10" xr:uid="{39F8FA31-12AB-4AC7-B37C-70B9D6B11A03}"/>
-    <hyperlink ref="B15" r:id="rId11" xr:uid="{BF455984-E6BA-4BA6-AAC0-9B980E08C918}"/>
+    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId4"/>
+    <hyperlink ref="B9" r:id="rId5"/>
+    <hyperlink ref="B10" r:id="rId6"/>
+    <hyperlink ref="B11" r:id="rId7"/>
+    <hyperlink ref="B12" r:id="rId8"/>
+    <hyperlink ref="B13" r:id="rId9"/>
+    <hyperlink ref="B14" r:id="rId10"/>
+    <hyperlink ref="B15" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BE044C-454F-46CA-AC07-C2ED4834CF4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -8197,7 +8944,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="324" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="360" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
@@ -8229,7 +8976,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="324" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="360" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
@@ -8813,30 +9560,30 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{8FC914EC-FEE2-49E3-8F1D-44609D5179BB}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{013BA329-AB10-444C-B1A2-249CE5C4924B}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{FF0058C1-01A4-4ACE-BE43-60851E6119E1}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{DC66E639-C9BF-49D5-A1B5-71AAAAAEF486}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{4FFB31EB-A870-4E6D-9B6D-0D2B8D899AF7}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{D442D02E-C679-4791-9052-26A97AB3A1D9}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{6E2A93B1-FF81-43FC-BC2A-354BEEE0EF09}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{289A4381-26B2-4A2E-828C-C2B4A1993B52}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{708315E6-8585-4770-A326-F3DB46187165}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{D6B84CBD-9CD8-412D-9AD8-1EABE824B25C}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{FA6E76DA-F176-47BF-807D-AC5982CF3185}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{6525B7D8-EE05-43F9-9D20-0FEF6195995C}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{12BC4C52-E451-4E79-A09D-878390F9989C}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{BC0EB649-AA9E-46B9-9BBC-C897244D75AD}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{225843CB-DB6D-47DA-8771-EA678ECDC2C1}"/>
-    <hyperlink ref="B17" r:id="rId16" xr:uid="{EA49E2C3-BFA4-4A97-9956-5326A5A73C55}"/>
-    <hyperlink ref="B19" r:id="rId17" xr:uid="{A0044814-B4AF-4CF3-8C6B-EF871D4F4459}"/>
-    <hyperlink ref="B20" r:id="rId18" xr:uid="{0DB6B63F-A2C6-4A78-A312-016740A855F3}"/>
-    <hyperlink ref="B22" r:id="rId19" xr:uid="{492EF637-5D51-4B9C-985D-B226421D1225}"/>
-    <hyperlink ref="B23" r:id="rId20" xr:uid="{4ACC14E0-B361-4331-BB81-5CD0BCAB83FF}"/>
-    <hyperlink ref="B24" r:id="rId21" xr:uid="{C4C145BA-E36E-4BB3-BCC5-1A16204BBF91}"/>
-    <hyperlink ref="B25" r:id="rId22" xr:uid="{CDD951C8-F801-400D-91B3-DE0F2ED80974}"/>
-    <hyperlink ref="B21" r:id="rId23" xr:uid="{6BDDA343-8A97-4DB5-8292-697F531C50EA}"/>
-    <hyperlink ref="B18" r:id="rId24" xr:uid="{17764B08-4852-4C73-ACEE-613CB94BFC6F}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId15"/>
+    <hyperlink ref="B17" r:id="rId16"/>
+    <hyperlink ref="B19" r:id="rId17"/>
+    <hyperlink ref="B20" r:id="rId18"/>
+    <hyperlink ref="B22" r:id="rId19"/>
+    <hyperlink ref="B23" r:id="rId20"/>
+    <hyperlink ref="B24" r:id="rId21"/>
+    <hyperlink ref="B25" r:id="rId22"/>
+    <hyperlink ref="B21" r:id="rId23"/>
+    <hyperlink ref="B18" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId25"/>
@@ -8844,7 +9591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6785B5-4FDA-44BB-9BF0-EBFA842085CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -8908,7 +9655,7 @@
         <v>534</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>13</v>
@@ -8943,25 +9690,25 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>700</v>
+        <v>657</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>739</v>
+        <v>690</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>14</v>
@@ -8981,25 +9728,25 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>701</v>
+        <v>658</v>
       </c>
       <c r="D4" t="s">
-        <v>737</v>
+        <v>688</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="J4" s="18" t="s">
         <v>13</v>
@@ -9019,25 +9766,25 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>702</v>
+        <v>659</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>738</v>
+        <v>689</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="J5" s="18" t="s">
         <v>12</v>
@@ -9057,16 +9804,16 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>703</v>
+        <v>660</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>275</v>
@@ -9095,16 +9842,16 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>704</v>
+        <v>661</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>275</v>
@@ -9133,16 +9880,16 @@
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>705</v>
+        <v>662</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="G8" s="18" t="s">
         <v>275</v>
@@ -9171,19 +9918,19 @@
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>706</v>
+        <v>663</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="H9" s="18" t="s">
         <v>276</v>
@@ -9209,19 +9956,19 @@
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>707</v>
+        <v>664</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="H10" s="18" t="s">
         <v>276</v>
@@ -9247,19 +9994,19 @@
         <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>708</v>
+        <v>665</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="H11" s="18" t="s">
         <v>276</v>
@@ -9285,25 +10032,25 @@
         <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>709</v>
+        <v>666</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="J12" s="18" t="s">
         <v>12</v>
@@ -9312,7 +10059,7 @@
         <v>234</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>756</v>
+        <v>698</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>14</v>
@@ -9326,34 +10073,34 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>709</v>
+        <v>666</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="J13" s="18" t="s">
         <v>13</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>14</v>
@@ -9367,40 +10114,40 @@
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>709</v>
+        <v>666</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="J14" s="18" t="s">
         <v>14</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="359.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="387" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>31</v>
       </c>
@@ -9408,10 +10155,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>709</v>
+        <v>666</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>13</v>
@@ -9446,36 +10193,39 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{46A28B89-8654-4A1D-8DE5-69798BB7FF3E}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{4029EE4D-7CD8-40E8-8CEE-E290DCE6481C}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{C39C80C4-0C64-41EF-BD64-DD29AA412996}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{0930C6A2-6CC2-46B6-BEB1-656458DF29BE}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{27ACCB97-DFAC-4136-AC4C-79C60DD895B9}"/>
-    <hyperlink ref="C9" r:id="rId6" xr:uid="{569C85E2-87D5-497C-9D9B-3A8ED440F84E}"/>
-    <hyperlink ref="C12" r:id="rId7" xr:uid="{A3C4604D-386C-4DBC-AD0A-10270CB8B498}"/>
-    <hyperlink ref="C7" r:id="rId8" xr:uid="{BB9C182F-3B1F-4F0F-90AF-3B8128FABE36}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{B6DEB08C-A721-45CC-A1D4-053605EB9E0B}"/>
-    <hyperlink ref="C8" r:id="rId10" xr:uid="{B3364ECF-3F0E-44FF-A638-5BBED8AFA680}"/>
-    <hyperlink ref="C11" r:id="rId11" xr:uid="{5773A0EF-A242-4A11-BA2D-F1AEE4A4B7BC}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{8B810BC0-83E7-400A-8A20-E490D6C36534}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{284B0643-56DF-4DF0-B371-A8FEAA850235}"/>
-    <hyperlink ref="C15" r:id="rId14" xr:uid="{D508686D-C3B8-4724-A416-27143CB04CF8}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C9" r:id="rId6"/>
+    <hyperlink ref="C12" r:id="rId7"/>
+    <hyperlink ref="C7" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="C8" r:id="rId10"/>
+    <hyperlink ref="C11" r:id="rId11"/>
+    <hyperlink ref="C13" r:id="rId12"/>
+    <hyperlink ref="C14" r:id="rId13"/>
+    <hyperlink ref="C15" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDCF00C-17CF-4829-B849-DE6BB8DE9756}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="12.109375" style="2"/>
+    <col min="1" max="2" width="12.109375" style="2"/>
+    <col min="3" max="3" width="63.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="153.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="12.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -9513,7 +10263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -9521,10 +10271,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>685</v>
-      </c>
-      <c r="D2" t="s">
-        <v>686</v>
+        <v>732</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>730</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>13</v>
@@ -9548,7 +10298,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="111" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>16</v>
       </c>
@@ -9556,28 +10306,28 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>710</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>586</v>
+        <v>733</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>731</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>587</v>
+        <v>14</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>588</v>
+        <v>14</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>589</v>
+        <v>14</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>590</v>
+        <v>14</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K3" s="18" t="s">
         <v>14</v>
@@ -9591,25 +10341,25 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>711</v>
+        <v>667</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="J4" s="18" t="s">
         <v>14</v>
@@ -9618,7 +10368,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="373.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
@@ -9626,10 +10376,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>712</v>
+        <v>668</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>13</v>
@@ -9661,22 +10411,22 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>713</v>
+        <v>669</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="I6" s="18" t="s">
         <v>336</v>
@@ -9688,7 +10438,7 @@
         <v>323</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -9702,7 +10452,7 @@
         <v>534</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>13</v>
@@ -9734,10 +10484,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>714</v>
+        <v>670</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>13</v>
@@ -9769,10 +10519,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>714</v>
+        <v>670</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>13</v>
@@ -9804,10 +10554,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>715</v>
+        <v>671</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>13</v>
@@ -9831,7 +10581,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="400.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>25</v>
       </c>
@@ -9839,10 +10589,10 @@
         <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>715</v>
+        <v>671</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>13</v>
@@ -9874,7 +10624,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>716</v>
+        <v>672</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>535</v>
@@ -9883,16 +10633,16 @@
         <v>14</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="H12" s="18" t="s">
         <v>364</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="J12" s="36" t="s">
         <v>12</v>
@@ -9901,7 +10651,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="276.60000000000002" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>29</v>
       </c>
@@ -9909,10 +10659,10 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>717</v>
+        <v>673</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>13</v>
@@ -9936,7 +10686,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="193.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>30</v>
       </c>
@@ -9944,10 +10694,10 @@
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>718</v>
+        <v>674</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>13</v>
@@ -9971,7 +10721,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>31</v>
       </c>
@@ -9979,10 +10729,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>718</v>
+        <v>674</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>13</v>
@@ -10014,16 +10764,16 @@
         <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>719</v>
+        <v>675</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="G16" s="18" t="s">
         <v>360</v>
@@ -10049,7 +10799,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>719</v>
+        <v>675</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>535</v>
@@ -10058,7 +10808,7 @@
         <v>14</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="G17" s="18" t="s">
         <v>365</v>
@@ -10067,7 +10817,7 @@
         <v>364</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="J17" s="18" t="s">
         <v>13</v>
@@ -10076,7 +10826,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="290.39999999999998" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>34</v>
       </c>
@@ -10084,10 +10834,10 @@
         <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>720</v>
+        <v>676</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>13</v>
@@ -10119,10 +10869,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>720</v>
+        <v>676</v>
       </c>
       <c r="D19" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>13</v>
@@ -10154,34 +10904,34 @@
         <v>14</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>721</v>
+        <v>677</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="H20" s="18" t="s">
         <v>374</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="J20" s="18" t="s">
         <v>14</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -10192,41 +10942,44 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" xr:uid="{E6414710-A471-4DDE-A32D-8640CE775135}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{9EDA8240-8CEC-4E08-8066-F1B5BFE83D5F}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{8F6551B1-9A0D-427E-9BB2-FD811C87E228}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{190B1D2F-143D-4A29-9919-3059964799D4}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{2E75FE29-0EE5-453D-84D8-08807F1AF228}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{631CF268-D105-42AF-ABA0-08BC996771CC}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{2A93D39D-21A9-45BA-908E-0FDF4FB5D806}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{A80C15B7-BA2E-40E9-A161-A57D1673ED9B}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{DF956684-DBAB-4CAE-86AE-843C891E7C41}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{53487324-5864-4D09-B58A-B029941B4A00}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{59115C7E-EBDA-493A-80F0-7D923D927DE1}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{9750E422-FED2-4C1F-A8F1-0205B5589054}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{C6D28DA5-C968-460E-9191-6B8A1066A0E2}"/>
-    <hyperlink ref="C15" r:id="rId14" xr:uid="{4BE55F8B-EA0B-4E71-B227-935103AAE101}"/>
-    <hyperlink ref="C16" r:id="rId15" xr:uid="{14C9B074-0634-41C4-93F3-36431659CA7F}"/>
-    <hyperlink ref="C17" r:id="rId16" xr:uid="{B25FF368-4595-4770-A5A1-3D443821630C}"/>
-    <hyperlink ref="C18" r:id="rId17" xr:uid="{C9670F7B-7263-48A7-9DF1-99ECC4E928FF}"/>
-    <hyperlink ref="C19" r:id="rId18" xr:uid="{8735C512-3E4D-47AE-B577-2D7C0E679634}"/>
-    <hyperlink ref="C20" r:id="rId19" xr:uid="{0F6E4314-480B-44E7-BAF3-F19B06075790}"/>
+    <hyperlink ref="C7" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C8" r:id="rId5"/>
+    <hyperlink ref="C9" r:id="rId6"/>
+    <hyperlink ref="C10" r:id="rId7"/>
+    <hyperlink ref="C11" r:id="rId8"/>
+    <hyperlink ref="C12" r:id="rId9"/>
+    <hyperlink ref="C13" r:id="rId10"/>
+    <hyperlink ref="C14" r:id="rId11"/>
+    <hyperlink ref="C15" r:id="rId12"/>
+    <hyperlink ref="C16" r:id="rId13"/>
+    <hyperlink ref="C17" r:id="rId14"/>
+    <hyperlink ref="C18" r:id="rId15"/>
+    <hyperlink ref="C19" r:id="rId16"/>
+    <hyperlink ref="C20" r:id="rId17"/>
+    <hyperlink ref="C2" r:id="rId18"/>
+    <hyperlink ref="C3" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB97F7B-D7CD-4A13-875D-B88ECFBFF6F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="12.109375" style="2"/>
+    <col min="1" max="2" width="12.109375" style="2"/>
+    <col min="3" max="3" width="58.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="134.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="12.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -10264,7 +11017,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -10272,10 +11025,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>687</v>
-      </c>
-      <c r="D2" t="s">
-        <v>688</v>
+        <v>735</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>734</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>13</v>
@@ -10310,7 +11063,7 @@
         <v>534</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>13</v>
@@ -10342,7 +11095,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>687</v>
+        <v>649</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>535</v>
@@ -10351,16 +11104,16 @@
         <v>14</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="J4" s="36" t="s">
         <v>12</v>
@@ -10377,7 +11130,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>722</v>
+        <v>678</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>535</v>
@@ -10386,16 +11139,16 @@
         <v>14</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="J5" s="18" t="s">
         <v>13</v>
@@ -10404,7 +11157,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>20</v>
       </c>
@@ -10412,10 +11165,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>723</v>
+        <v>679</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>13</v>
@@ -10447,10 +11200,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>724</v>
+        <v>680</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>13</v>
@@ -10471,10 +11224,10 @@
         <v>14</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="345.6" x14ac:dyDescent="0.3">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
@@ -10482,31 +11235,31 @@
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>724</v>
+        <v>680</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="J8" s="18" t="s">
         <v>12</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -10517,7 +11270,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>724</v>
+        <v>680</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>535</v>
@@ -10526,16 +11279,16 @@
         <v>14</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="G9" t="s">
-        <v>755</v>
+        <v>697</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>741</v>
+        <v>691</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>742</v>
+        <v>692</v>
       </c>
       <c r="J9" s="18" t="s">
         <v>14</v>
@@ -10552,10 +11305,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>725</v>
+        <v>681</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>13</v>
@@ -10576,13 +11329,13 @@
         <v>14</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="290.39999999999998" x14ac:dyDescent="0.3">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>25</v>
       </c>
@@ -10590,10 +11343,10 @@
         <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>725</v>
+        <v>681</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>13</v>
@@ -10617,7 +11370,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="193.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>26</v>
       </c>
@@ -10625,10 +11378,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>725</v>
+        <v>681</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>764</v>
+        <v>701</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>13</v>
@@ -10649,10 +11402,10 @@
         <v>14</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -10663,10 +11416,10 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>726</v>
+        <v>682</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>765</v>
+        <v>702</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>13</v>
@@ -10687,10 +11440,10 @@
         <v>14</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="262.8" x14ac:dyDescent="0.3">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>30</v>
       </c>
@@ -10698,10 +11451,10 @@
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>727</v>
+        <v>683</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>766</v>
+        <v>703</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>13</v>
@@ -10722,10 +11475,10 @@
         <v>14</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="290.39999999999998" x14ac:dyDescent="0.3">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>31</v>
       </c>
@@ -10733,10 +11486,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>728</v>
+        <v>684</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>767</v>
+        <v>704</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>13</v>
@@ -10757,7 +11510,7 @@
         <v>14</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -10771,36 +11524,39 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="\\Resources\mach trang.jpg" xr:uid="{A9974E3A-B826-4E5D-AF90-19754117A06A}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{3950F5B6-183F-4F17-A99A-E028CEB87683}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{F91E090E-791B-4717-95E6-4FAAD051116A}"/>
-    <hyperlink ref="C6" r:id="rId4" xr:uid="{B7D4A534-FB2B-4AAD-94A1-827760990324}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{B12B9496-316D-4DE5-A865-C572F87DFED3}"/>
-    <hyperlink ref="C8" r:id="rId6" xr:uid="{8AD97172-D193-475E-9E8C-030495A3FF36}"/>
-    <hyperlink ref="C9" r:id="rId7" xr:uid="{4FC694E0-65ED-4A80-93B0-2D5B46132171}"/>
-    <hyperlink ref="C10" r:id="rId8" xr:uid="{CD3AE42D-F9AC-4A1A-9CA2-00A731CA7473}"/>
-    <hyperlink ref="C11" r:id="rId9" xr:uid="{30F9F714-DF4C-4BA3-A68E-71920436A016}"/>
-    <hyperlink ref="C12" r:id="rId10" xr:uid="{16111F94-8477-4397-BDF8-F8C0F285C0FB}"/>
-    <hyperlink ref="C13" r:id="rId11" xr:uid="{B5747920-9270-4580-848F-DE245A8209F5}"/>
-    <hyperlink ref="C14" r:id="rId12" xr:uid="{E668BF89-B13D-4660-BA33-4E6BEAD354E0}"/>
-    <hyperlink ref="C15" r:id="rId13" xr:uid="{000D48D1-AAA0-4ADF-9183-50B234E3AEFF}"/>
-    <hyperlink ref="C4" r:id="rId14" xr:uid="{9115BA55-D7FB-4D46-8C05-6A49A1B317C8}"/>
+    <hyperlink ref="C3" r:id="rId1" display="\\Resources\mach trang.jpg"/>
+    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C6" r:id="rId3"/>
+    <hyperlink ref="C7" r:id="rId4"/>
+    <hyperlink ref="C8" r:id="rId5"/>
+    <hyperlink ref="C9" r:id="rId6"/>
+    <hyperlink ref="C10" r:id="rId7"/>
+    <hyperlink ref="C11" r:id="rId8"/>
+    <hyperlink ref="C12" r:id="rId9"/>
+    <hyperlink ref="C13" r:id="rId10"/>
+    <hyperlink ref="C14" r:id="rId11"/>
+    <hyperlink ref="C15" r:id="rId12"/>
+    <hyperlink ref="C4" r:id="rId13"/>
+    <hyperlink ref="C2" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424C31DE-E19F-459D-8AE3-A2CC0A5AEBEC}">
-  <dimension ref="A1:K8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="12.109375" style="2"/>
+    <col min="1" max="2" width="12.109375" style="2"/>
+    <col min="3" max="3" width="48.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="12.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -10838,7 +11594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="152.4" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
@@ -10846,10 +11602,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>729</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>759</v>
+        <v>745</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>736</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>13</v>
@@ -10873,7 +11629,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="83.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>16</v>
       </c>
@@ -10881,45 +11637,45 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>730</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>643</v>
+        <v>746</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>740</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>644</v>
+        <v>14</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>360</v>
+        <v>14</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>276</v>
+        <v>14</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>277</v>
+        <v>14</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K3" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D4" t="s">
-        <v>540</v>
+        <v>747</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>741</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>13</v>
@@ -10943,7 +11699,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="152.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>19</v>
       </c>
@@ -10951,25 +11707,25 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>731</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>535</v>
+        <v>748</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>742</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>645</v>
+        <v>14</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>768</v>
+        <v>14</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>740</v>
+        <v>14</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>646</v>
+        <v>14</v>
       </c>
       <c r="J5" s="18" t="s">
         <v>14</v>
@@ -10983,13 +11739,13 @@
         <v>20</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>534</v>
+        <v>749</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>540</v>
+        <v>737</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>13</v>
@@ -11013,7 +11769,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="193.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>21</v>
       </c>
@@ -11021,10 +11777,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>732</v>
+        <v>750</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>647</v>
+        <v>743</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>13</v>
@@ -11048,35 +11804,146 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>751</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>738</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>752</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>744</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>753</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>739</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{1156A829-DD13-4CFC-AB7E-FE842D32AFD9}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{19C9C17A-A1FB-4402-A1E1-ACD23A7291A3}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{50F1A9D6-B17B-496B-B787-BA49AB625236}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{CE5BCD10-F5A4-4EFC-A9C7-1A279D619A62}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{09EDFEC8-D46D-4759-9AA8-8324F326E43F}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{51CD5CEF-3A0C-4661-B985-9D127290A965}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA0C3A4-8288-444C-A796-B4D86ABAAD50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="12.109375" style="2"/>
+    <col min="1" max="2" width="12.109375" style="2"/>
+    <col min="3" max="3" width="57.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="12.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11114,18 +11981,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="180" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>540</v>
+        <v>756</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>754</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>13</v>
@@ -11149,7 +12016,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="138.6" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>16</v>
       </c>
@@ -11157,10 +12024,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>648</v>
+        <v>757</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>755</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>13</v>
@@ -11184,7 +12051,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>18</v>
       </c>
@@ -11192,25 +12059,25 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>734</v>
+        <v>685</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="J4" s="18" t="s">
         <v>14</v>
@@ -11219,7 +12086,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>19</v>
       </c>
@@ -11227,25 +12094,25 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>734</v>
+        <v>685</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="J5" s="18" t="s">
         <v>13</v>
@@ -11262,25 +12129,25 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>735</v>
+        <v>686</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="J6" s="18" t="s">
         <v>12</v>
@@ -11289,7 +12156,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="235.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>21</v>
       </c>
@@ -11297,10 +12164,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>735</v>
+        <v>686</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>757</v>
+        <v>699</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>13</v>
@@ -11332,25 +12199,25 @@
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>736</v>
+        <v>687</v>
       </c>
       <c r="D8" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="J8" s="18" t="s">
         <v>14</v>
@@ -11359,7 +12226,7 @@
         <v>323</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -11369,13 +12236,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="\\Resources\mach trang.jpg" xr:uid="{6A60C5D1-A878-4E15-86CC-103444D69A0A}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{FCAFE05D-9A72-4506-8E4D-B34674449DAF}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{0575004A-4F44-4D6F-A0DF-5CDBFB4DF943}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{72DDE6C3-F634-4D6A-9103-59B34CBFA28A}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{E04ED3BD-C0F6-4540-9D18-A1C15E6D16FE}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{82C0C1A7-9A6A-4CB1-A2BF-970A69E010C4}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{0CE3D72F-8C8E-41FF-BD06-F2266CB6EB61}"/>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C6" r:id="rId3"/>
+    <hyperlink ref="C7" r:id="rId4"/>
+    <hyperlink ref="C8" r:id="rId5"/>
+    <hyperlink ref="C2" r:id="rId6"/>
+    <hyperlink ref="C3" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
@@ -11383,16 +12250,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04D04CF-0143-4DC2-A053-CFD366C61BE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="12.109375" style="2"/>
+    <col min="1" max="2" width="12.109375" style="2"/>
+    <col min="3" max="3" width="58.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.21875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="12.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -11430,7 +12300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="216" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -11438,10 +12308,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>683</v>
-      </c>
-      <c r="D2" t="s">
-        <v>684</v>
+        <v>771</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>759</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>13</v>
@@ -11465,7 +12335,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="276.60000000000002" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
@@ -11473,45 +12343,45 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>745</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>535</v>
+        <v>772</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>760</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>661</v>
+        <v>14</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>662</v>
+        <v>14</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>663</v>
+        <v>14</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>664</v>
+        <v>14</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K3" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="111" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>540</v>
+        <v>773</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>761</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>13</v>
@@ -11535,7 +12405,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
@@ -11543,34 +12413,34 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>745</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>665</v>
+        <v>774</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>762</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>666</v>
+        <v>14</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>667</v>
+        <v>14</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>668</v>
+        <v>14</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>669</v>
+        <v>14</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K5" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="111" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
@@ -11578,34 +12448,34 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>746</v>
+        <v>775</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>670</v>
+        <v>763</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>671</v>
+        <v>14</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>360</v>
+        <v>14</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>276</v>
+        <v>14</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>277</v>
+        <v>14</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K6" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="166.2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
@@ -11613,34 +12483,34 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>746</v>
+        <v>776</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>670</v>
+        <v>764</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>672</v>
+        <v>14</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>360</v>
+        <v>14</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>276</v>
+        <v>14</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>277</v>
+        <v>14</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K7" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="83.4" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
@@ -11648,34 +12518,34 @@
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>746</v>
+        <v>777</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>670</v>
+        <v>765</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>673</v>
+        <v>14</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>360</v>
+        <v>14</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>276</v>
+        <v>14</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>277</v>
+        <v>14</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K8" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="111" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="400.8" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>23</v>
       </c>
@@ -11683,34 +12553,34 @@
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>747</v>
+        <v>778</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>674</v>
+        <v>766</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>550</v>
+        <v>14</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>675</v>
+        <v>14</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>676</v>
+        <v>14</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>277</v>
+        <v>14</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K9" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="111" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="331.8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>24</v>
       </c>
@@ -11718,25 +12588,25 @@
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>748</v>
+        <v>779</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>677</v>
+        <v>767</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>550</v>
+        <v>14</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>675</v>
+        <v>14</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>676</v>
+        <v>14</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>277</v>
+        <v>14</v>
       </c>
       <c r="J10" s="18" t="s">
         <v>14</v>
@@ -11745,7 +12615,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="111" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>25</v>
       </c>
@@ -11753,10 +12623,10 @@
         <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>748</v>
+        <v>780</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>678</v>
+        <v>768</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>13</v>
@@ -11780,18 +12650,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="221.4" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>534</v>
+        <v>781</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>540</v>
+        <v>769</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>13</v>
@@ -11815,7 +12685,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="276.60000000000002" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>29</v>
       </c>
@@ -11823,10 +12693,10 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>749</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>743</v>
+        <v>782</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>770</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>13</v>
@@ -11850,7 +12720,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="318" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>30</v>
       </c>
@@ -11858,10 +12728,10 @@
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>750</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>744</v>
+        <v>783</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>758</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>13</v>
@@ -11893,16 +12763,16 @@
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>751</v>
+        <v>693</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>679</v>
+        <v>645</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="G15" s="18" t="s">
         <v>275</v>
@@ -11928,16 +12798,16 @@
         <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>752</v>
+        <v>694</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>680</v>
+        <v>646</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="G16" s="18" t="s">
         <v>275</v>
@@ -11963,16 +12833,16 @@
         <v>14</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>753</v>
+        <v>695</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>681</v>
+        <v>647</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="G17" s="18" t="s">
         <v>275</v>
@@ -11998,16 +12868,16 @@
         <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>754</v>
+        <v>696</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>682</v>
+        <v>648</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="G18" s="18" t="s">
         <v>275</v>
@@ -12046,23 +12916,23 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{98CD573B-D7B7-43C8-AF14-A0B49C6A702C}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{26384932-9954-4A08-8138-21706CE4C7B0}"/>
-    <hyperlink ref="C4" r:id="rId3" display="\\Resources\mach trang.jpg" xr:uid="{9275B34E-DE62-4B48-B737-419ECBC9B606}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{3DD6313C-715B-4017-B23E-B6665FE3CAA0}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{ED7D982F-8850-4F23-9ADF-28594623B868}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{03A8033A-5A56-4661-9FB2-E6DA344E2059}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{68C562E5-9CFD-47C4-9CA2-2025F0250515}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{A5600139-C854-4F8D-B2B0-A75CF96B62C1}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{A18B2ED4-39D2-48D1-BFB6-F7C7546F45F5}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{711374FD-152A-4B0A-948C-AC8C662AD51B}"/>
-    <hyperlink ref="C12" r:id="rId11" display="\\Resources\mach trang.jpg" xr:uid="{3A51BE8A-72A6-44D4-82FC-9FC95B0DE43F}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{0B79FDAE-0CB8-41D3-9E63-4751782F710D}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{B1C87527-63F1-4F11-A283-CE66762B5D7F}"/>
-    <hyperlink ref="C15" r:id="rId14" xr:uid="{A87C4CAC-2407-4FC8-9977-04AD5970BE0C}"/>
-    <hyperlink ref="C16" r:id="rId15" xr:uid="{C4D9D2B5-E393-4F1A-B413-7BB8D44F2012}"/>
-    <hyperlink ref="C17" r:id="rId16" xr:uid="{A719682B-D2E9-4D01-84EF-4FB653517981}"/>
-    <hyperlink ref="C18" r:id="rId17" xr:uid="{4F135334-69F5-4A16-959E-9FDE0D2CEDAF}"/>
+    <hyperlink ref="C15" r:id="rId1"/>
+    <hyperlink ref="C16" r:id="rId2"/>
+    <hyperlink ref="C17" r:id="rId3"/>
+    <hyperlink ref="C18" r:id="rId4"/>
+    <hyperlink ref="C2" r:id="rId5"/>
+    <hyperlink ref="C3" r:id="rId6"/>
+    <hyperlink ref="C4" r:id="rId7"/>
+    <hyperlink ref="C5" r:id="rId8"/>
+    <hyperlink ref="C6" r:id="rId9"/>
+    <hyperlink ref="C7" r:id="rId10"/>
+    <hyperlink ref="C8" r:id="rId11"/>
+    <hyperlink ref="C9" r:id="rId12"/>
+    <hyperlink ref="C10" r:id="rId13"/>
+    <hyperlink ref="C11" r:id="rId14"/>
+    <hyperlink ref="C12" r:id="rId15"/>
+    <hyperlink ref="C13" r:id="rId16"/>
+    <hyperlink ref="C14" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId18"/>
@@ -12070,7 +12940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97AE61BB-1077-4B97-A889-F57D4B14B7A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12940,7 +13810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09884C8B-BF65-4D01-BF68-35CA8A308CF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12995,11 +13865,11 @@
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="N1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -13035,10 +13905,10 @@
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="37" t="s">
+      <c r="O2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="37"/>
+      <c r="P2" s="39"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -13074,10 +13944,10 @@
       <c r="N3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="37" t="s">
+      <c r="O3" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="37"/>
+      <c r="P3" s="39"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -13113,10 +13983,10 @@
       <c r="N4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="37" t="s">
+      <c r="O4" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="37"/>
+      <c r="P4" s="39"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -14191,13 +15061,13 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="\\Resources\\hinh anh c6\\relay working animation.gif" xr:uid="{D58FF5FF-7F00-4B48-AA6E-FEB943535FBC}"/>
-    <hyperlink ref="B7" r:id="rId2" display="\\Resources\\hinh anh c6\\relay working animation.gif" xr:uid="{E4343437-D184-432E-B428-956379EF8059}"/>
-    <hyperlink ref="B10" r:id="rId3" display="\\Resources\\mach c6.png" xr:uid="{EB0A3D00-58C3-42CB-B701-CA924110400D}"/>
-    <hyperlink ref="B11" r:id="rId4" display="\\Resources\\mach c6.png" xr:uid="{1C908F78-6A5F-4866-BE79-54052CF91651}"/>
-    <hyperlink ref="B12" r:id="rId5" display="\\Resources\\mach c6.png" xr:uid="{1E5440BB-88A7-4B96-8AB8-3960A5056792}"/>
-    <hyperlink ref="B8" r:id="rId6" display="\\Resources\\hinh anh c6\\relay working animation.gif" xr:uid="{BF336401-D205-46A9-9B2D-7ABD3B2AE8D8}"/>
-    <hyperlink ref="B9" r:id="rId7" display="\\Resources\\hinh anh c6\\relay working animation.gif" xr:uid="{3E3CB453-22CE-4B70-A84F-1D61D80CCB43}"/>
+    <hyperlink ref="B6" r:id="rId1" display="\\Resources\\hinh anh c6\\relay working animation.gif"/>
+    <hyperlink ref="B7" r:id="rId2" display="\\Resources\\hinh anh c6\\relay working animation.gif"/>
+    <hyperlink ref="B10" r:id="rId3" display="\\Resources\\mach c6.png"/>
+    <hyperlink ref="B11" r:id="rId4" display="\\Resources\\mach c6.png"/>
+    <hyperlink ref="B12" r:id="rId5" display="\\Resources\\mach c6.png"/>
+    <hyperlink ref="B8" r:id="rId6" display="\\Resources\\hinh anh c6\\relay working animation.gif"/>
+    <hyperlink ref="B9" r:id="rId7" display="\\Resources\\hinh anh c6\\relay working animation.gif"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>

--- a/TruaNgay18New1/student_add bai hoc/HoanThanhDangNhap/bin/Debug/nhucc/Du lieu cau hoi/thu vien bai hoc.xlsx
+++ b/TruaNgay18New1/student_add bai hoc/HoanThanhDangNhap/bin/Debug/nhucc/Du lieu cau hoi/thu vien bai hoc.xlsx
@@ -2315,15 +2315,6 @@
     </r>
   </si>
   <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\1.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\2.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\3.PNG</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -2542,30 +2533,6 @@
     </r>
   </si>
   <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\4.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\5.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\6.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\7.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\8.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\9.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\10.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\11.PNG</t>
-  </si>
-  <si>
     <t>Trên bộ dập dao động có bố trí một con vít để nhận biết nhiên liệu có cung cấp đến ống phân phối hay không. 
 Dưới tác dụng của áp suất nhiên liệu từ bơm mà màng bộ dập dao động di chuyển lên tác động cho con vít trồi lên để xác nhận nhiên liệu áp suất cao được cung cấp đến ống phân phối.</t>
   </si>
@@ -2592,12 +2559,6 @@
 Khi áp suất nhiên liệu lớn, lớp ống bên trong sẽ bị ép lại làm cho thể tích ống phân phối tăng lên, áp suất giảm xuống. 
 Khi áp suất nhiên liệu trong ống thấp, lớp ống bên trong sẽ giãn nở ra làm cho thể tích ống phân phối giảm xuống, áp suất tăng lên.</t>
     </r>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c3\\1.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c3\\2.PNG</t>
   </si>
   <si>
     <r>
@@ -2624,9 +2585,6 @@
 Khi bơm quay, áp suất nhiên liệu sẽ tác dụng làm cho màng của bộ điều áp di chuyển và lò xo bị nén lại, nhiên liệu thừa sẽ thoát qua van điều áp trở về thùng chưa nhiên liệu. 
 Ở kiểu này, nhiên liệu được hồi bên trong thùng nhiên liệu và lượng nhiên liệu cần thiết cung cấp cho động cơ được giữ ở một áp suất cố định (khoảng 310 đến 347kPa). Như vậy, lượng nhiên liệu được làm nóng bởi động cơ không hồi trở lại thùng nhiên liệu, làm giảm sự bay hơi nhiên liệu bên trong thùng nhiên liệu và kiểm soát được sự phát thải.</t>
     </r>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c4\\1.PNG</t>
   </si>
   <si>
     <t>Căn cứ vào điện trở của cuộn dây kim phun, kim phun chia làm hai loại. 
@@ -2788,33 +2746,6 @@
     </r>
   </si>
   <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c5\\1.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c5\\2.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c5\\3.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c5\\4.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c5\\5.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c5\\6.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c5\\7.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c5\\8.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c5\\9.PNG</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -2861,12 +2792,6 @@
 B: là vùng làm việc ứng với Transistor trong ECU On. 
 Ở phương pháp dẫn động kim phun bằng contact nhiệt thời gian và ECU. Khi nhiệt độ nước làm mát bé hơn 200C, thời gian mở của kim phun khởi động lạnh phụ thuộc vào sự điều khiển của contact nhiệt thời gian. Khi nhiệt độ nước làm mát lớn hơn 200C, ECU điều khiển thời gian mở của kim phun khởi động lạnh khoảng 0,5 giây. Kim phun khởi động lạnh không phun khi khởi động ở nhiệt độ trên 600C.</t>
     </r>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c6\\1.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c6\\2.PNG</t>
   </si>
   <si>
     <t>Khi khởi động có tín hiệu STA gửi về ECU, van ISC mở lớn để động cơ dễ khởi động, sau đó van khép lại và dừng ở vị trí tương ứng với nhiệt độ nước làm mát của động cơ.
@@ -3184,43 +3109,118 @@
     </r>
   </si>
   <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c7\\1.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c7\\2.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c7\\3.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c7\\4.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c7\\5.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c7\\6.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c7\\7.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c7\\8.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c7\\9.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c7\\10.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c7\\11.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c7\\12.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c7\\13.PNG</t>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c1\\1.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c1\\2.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c1\\3.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c1\\4.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c1\\5.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c1\\6.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c1\\7.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c1\\8.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c1\\9.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c1\\10.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c1\\11.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c3\\1.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c3\\2.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c4\\1.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c5\\1.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c5\\2.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c5\\3.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c5\\4.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c5\\5.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c5\\6.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c5\\7.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c5\\8.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c5\\9.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c6\\1.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c6\\2.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c7\\1.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c7\\2.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c7\\3.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c7\\4.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c7\\5.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c7\\6.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c7\\7.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c7\\8.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c7\\9.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c7\\10.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c7\\11.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c7\\12.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c7\\13.PNG</t>
   </si>
 </sst>
 </file>
@@ -3782,7 +3782,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3841,7 +3841,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>710</v>
+        <v>746</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>707</v>
@@ -3879,7 +3879,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>711</v>
+        <v>747</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>708</v>
@@ -3917,7 +3917,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>712</v>
+        <v>748</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>709</v>
@@ -3956,7 +3956,7 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="19" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>13</v>
@@ -3991,10 +3991,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>722</v>
+        <v>749</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>13</v>
@@ -4029,10 +4029,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>723</v>
+        <v>750</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>13</v>
@@ -4067,10 +4067,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>724</v>
+        <v>751</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>13</v>
@@ -4105,10 +4105,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>725</v>
+        <v>752</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>13</v>
@@ -4143,10 +4143,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>726</v>
+        <v>753</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>13</v>
@@ -4181,10 +4181,10 @@
         <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>727</v>
+        <v>754</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>13</v>
@@ -4219,10 +4219,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>728</v>
+        <v>755</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>13</v>
@@ -4260,10 +4260,10 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>729</v>
+        <v>756</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>13</v>
@@ -9595,7 +9595,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10216,8 +10216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K2"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10271,10 +10271,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>732</v>
+        <v>757</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>13</v>
@@ -10306,10 +10306,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>733</v>
+        <v>758</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>13</v>
@@ -11025,10 +11025,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>735</v>
+        <v>759</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>13</v>
@@ -11547,8 +11547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11602,10 +11602,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>745</v>
+        <v>760</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>736</v>
+        <v>722</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>13</v>
@@ -11637,10 +11637,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>746</v>
+        <v>761</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>13</v>
@@ -11672,10 +11672,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>747</v>
+        <v>762</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>741</v>
+        <v>727</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>13</v>
@@ -11707,10 +11707,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>748</v>
+        <v>763</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>13</v>
@@ -11742,10 +11742,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>749</v>
+        <v>764</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>737</v>
+        <v>723</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>13</v>
@@ -11777,10 +11777,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>750</v>
+        <v>765</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>743</v>
+        <v>729</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>13</v>
@@ -11812,10 +11812,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>751</v>
+        <v>766</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>738</v>
+        <v>724</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>13</v>
@@ -11847,10 +11847,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>752</v>
+        <v>767</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>744</v>
+        <v>730</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>13</v>
@@ -11882,10 +11882,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>753</v>
+        <v>768</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>13</v>
@@ -11935,7 +11935,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11989,10 +11989,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>13</v>
@@ -12024,10 +12024,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>757</v>
+        <v>770</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>13</v>
@@ -12253,8 +12253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12311,7 +12311,7 @@
         <v>771</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>759</v>
+        <v>734</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>13</v>
@@ -12346,7 +12346,7 @@
         <v>772</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>760</v>
+        <v>735</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>13</v>
@@ -12381,7 +12381,7 @@
         <v>773</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>761</v>
+        <v>736</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>13</v>
@@ -12416,7 +12416,7 @@
         <v>774</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>762</v>
+        <v>737</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>13</v>
@@ -12451,7 +12451,7 @@
         <v>775</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>763</v>
+        <v>738</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>13</v>
@@ -12486,7 +12486,7 @@
         <v>776</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>764</v>
+        <v>739</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>13</v>
@@ -12521,7 +12521,7 @@
         <v>777</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>765</v>
+        <v>740</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>13</v>
@@ -12556,7 +12556,7 @@
         <v>778</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>766</v>
+        <v>741</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>13</v>
@@ -12591,7 +12591,7 @@
         <v>779</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>767</v>
+        <v>742</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>13</v>
@@ -12626,7 +12626,7 @@
         <v>780</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>768</v>
+        <v>743</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>13</v>
@@ -12661,7 +12661,7 @@
         <v>781</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>769</v>
+        <v>744</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>13</v>
@@ -12696,7 +12696,7 @@
         <v>782</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>770</v>
+        <v>745</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>13</v>
@@ -12731,7 +12731,7 @@
         <v>783</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>758</v>
+        <v>733</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>13</v>
@@ -12755,7 +12755,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="42" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>31</v>
       </c>
@@ -12790,7 +12790,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="42" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>32</v>
       </c>
@@ -12825,7 +12825,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="42" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>33</v>
       </c>
@@ -12860,7 +12860,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="34" customFormat="1" ht="55.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="34" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>34</v>
       </c>

--- a/TruaNgay18New1/student_add bai hoc/HoanThanhDangNhap/bin/Debug/nhucc/Du lieu cau hoi/thu vien bai hoc.xlsx
+++ b/TruaNgay18New1/student_add bai hoc/HoanThanhDangNhap/bin/Debug/nhucc/Du lieu cau hoi/thu vien bai hoc.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đồ án tốt nghiệp\TruaNgay18New1\student_add bai hoc\HoanThanhDangNhap\bin\Debug\nhucc\Du lieu cau hoi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đồ án tốt nghiệp\doantn\dinh\Loz\TruaNgay18New1\student_add bai hoc\HoanThanhDangNhap\bin\Debug\nhucc\Du lieu cau hoi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3248" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3249" uniqueCount="785">
   <si>
     <t>nActi</t>
   </si>
@@ -3221,6 +3221,9 @@
   </si>
   <si>
     <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c7\\13.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c1\\12.PNG</t>
   </si>
 </sst>
 </file>
@@ -3781,8 +3784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3954,7 +3957,9 @@
       <c r="B5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>784</v>
+      </c>
       <c r="D5" s="19" t="s">
         <v>710</v>
       </c>
@@ -4834,9 +4839,10 @@
     <hyperlink ref="C10" r:id="rId22"/>
     <hyperlink ref="C11" r:id="rId23"/>
     <hyperlink ref="C13" r:id="rId24"/>
+    <hyperlink ref="C5" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId25"/>
+  <pageSetup orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>
 
@@ -7363,7 +7369,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>75</v>
       </c>
@@ -8581,7 +8587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A12" s="22">
         <v>12</v>
       </c>
@@ -8944,7 +8950,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="360" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="324" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
@@ -8976,7 +8982,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="360" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="324" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
@@ -11547,7 +11553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -11874,7 +11880,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -12253,7 +12259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>

--- a/TruaNgay18New1/student_add bai hoc/HoanThanhDangNhap/bin/Debug/nhucc/Du lieu cau hoi/thu vien bai hoc.xlsx
+++ b/TruaNgay18New1/student_add bai hoc/HoanThanhDangNhap/bin/Debug/nhucc/Du lieu cau hoi/thu vien bai hoc.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đồ án tốt nghiệp\doantn\dinh\Loz\TruaNgay18New1\student_add bai hoc\HoanThanhDangNhap\bin\Debug\nhucc\Du lieu cau hoi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đồ án tốt nghiệp\doantn\dinh\Loz\Do_AN\TruaNgay18New1\student_add bai hoc\HoanThanhDangNhap\bin\Debug\nhucc\Du lieu cau hoi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="9" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="5" sheetId="13" r:id="rId5"/>
     <sheet name="6" sheetId="15" r:id="rId6"/>
     <sheet name="7" sheetId="14" r:id="rId7"/>
-    <sheet name="4-old" sheetId="2" r:id="rId8"/>
-    <sheet name="3-old" sheetId="1" r:id="rId9"/>
-    <sheet name="5-old" sheetId="7" r:id="rId10"/>
-    <sheet name="6-old" sheetId="8" r:id="rId11"/>
-    <sheet name="7-old" sheetId="4" r:id="rId12"/>
-    <sheet name="8" sheetId="5" r:id="rId13"/>
+    <sheet name="8" sheetId="5" r:id="rId8"/>
+    <sheet name="4-old" sheetId="2" r:id="rId9"/>
+    <sheet name="3-old" sheetId="1" r:id="rId10"/>
+    <sheet name="5-old" sheetId="7" r:id="rId11"/>
+    <sheet name="6-old" sheetId="8" r:id="rId12"/>
+    <sheet name="7-old" sheetId="4" r:id="rId13"/>
     <sheet name="9" sheetId="6" r:id="rId14"/>
     <sheet name="10" sheetId="3" r:id="rId15"/>
   </sheets>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3249" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3254" uniqueCount="778">
   <si>
     <t>nActi</t>
   </si>
@@ -473,52 +473,6 @@
     <t>z</t>
   </si>
   <si>
-    <t>MẠCH ĐIỆN ĐÈN KÍCH THƯỚC VÀ ĐÈN PHANH
-Sử dụng dây dẫn màu đỏ cho đèn kích thước, dây màu xanh cho đèn phanh, và dây đen cho đoạn dây từ bóng đèn đến mass. Hãy quy định rằng, bóng đèn nằm giữa N-O và L-M là đèn phanh và đèn nằm giữa F-G và H-I là đèn kích thước.</t>
-  </si>
-  <si>
-    <t>Quan sát và nghiên cứu nguyên lý hoạt động của mạch</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c8\\Operating.gif</t>
-  </si>
-  <si>
-    <t>Đèn báo phanh được điều khiển bởi công tắc thường đóng hay thường mở?</t>
-  </si>
-  <si>
-    <t>Thường mở</t>
-  </si>
-  <si>
-    <t>Thường đóng</t>
-  </si>
-  <si>
-    <t>Không thuộc 2 loại trên</t>
-  </si>
-  <si>
-    <t>Đèn kích thước đang được điều khiển bởi công tắc đa vị trí giống như loại công tắc tự động. Trên phần cứng, có 3 vị trí để điều khiển đèn bao gồm: tắt, đèn đỗ xe, đèn đầu. Công tắc đèn đầu cho phép dòng điện chạy qua cả ở 2 vị trí đèn đỗ xe "D" và đèn đầu "E".</t>
-  </si>
-  <si>
-    <t>Quan sát hoạt động và tiến hành đo đạc để trả lời các câu hỏi:</t>
-  </si>
-  <si>
-    <t> Khi mạch hoạt động, hiệu điện thế của cả 4 đèn là?</t>
-  </si>
-  <si>
-    <t>4 đèn nằm ở 1 mạch song song hay 2 mạch mạch song song riêng biệt?</t>
-  </si>
-  <si>
-    <t>Một mạch song song</t>
-  </si>
-  <si>
-    <t>Hai mạch song song riêng biệt</t>
-  </si>
-  <si>
-    <t>Cả 2 đáp án trên đều sai</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c8\\operating voltage across bulb.png</t>
-  </si>
-  <si>
     <t xml:space="preserve">video giảng dạy về đèn 1 tim 2 tim </t>
   </si>
   <si>
@@ -587,9 +541,6 @@
   </si>
   <si>
     <t>\\Resources\\Hinh anh cac chuong\\hinh anh c8\\Popen.png</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c8\\wiring_final.png</t>
   </si>
   <si>
     <t>Đóng công tắc đèn đầu, 2 đèn kích thước SÁNG đúng như dự tính.</t>
@@ -3224,6 +3175,135 @@
   </si>
   <si>
     <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c1\\12.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c8\\1.PNG</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Phân loại:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Có hai kiểu bướm ga điện tử 
+Loại liên kết chân ga đã cũ hiện không còn sản xuất.
+Loại không liên kết có cảm biến bàn đạp ga bố trí ở chân ga.
+Hệ thống điều khiển bướm ga điện tử phát hiện sự thay đổi của bàn đạp ga qua cảm biến vị trí bàn đạp ga và điều khiển bướm ga thông qua motor điều khiển bướm ga. Qua việc sử dụng ECU điều khiển bướm ga, các chức năng khác như điều khiển tốc độ cầm chừng, điều khiển ga tự động, hệ thống chống trượt,.. được thực hiện.
+Ngoài ra các hệ thống điều khiển có liên quan như: Điều khiển bướm ga phi tuyến làm cho độ mở của bướm ga mở chậm, điều khiển phối hợp giữa ECT và VSC và điều khiển độ mở của bướm ga là tối ưu phù hợp với điều kiện hoạt động của động cơ.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Motor bướm ga
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Người ta dùng một motor một chiều để điều khiển bướm ga mở thông qua bộ giảm tốc.
+Chiều xoay của motor bướm ga được thay đổi thông qua mạch cầu H.
+Motor được điều khiển chính xác từ ECU.</t>
+    </r>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c8\\2.PNG</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Phương pháp điều khiển
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ECU động cơ xác định vị trí mở bướm ga tối ưu căn cứ vào tín hiệu cảm biến bàn đạp ga. 
+Cảm biến vị trí bướm ga dùng để điều khiển chính xác motor bướm ga. 
+Các điều kiện hoạt động của bướm ga được giám sát và điều khiển bởi CPU.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Chức năng an toàn của cảm biến vị trí bàn đạp ga
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Trong trường hợp có sự bất thường của một hay hai cảm biến, ECU sẽ xác định sự hư hỏng của cảm biến qua sự chênh lệch điện áp tín hiệu cảm biến chính và cảm biến phụ.
+Khi đó vị trí của cảm biến bàn đạp ga được thiết lập hạn chế và sau đó ECU cho phép điều khiển động cơ ở chế độ hạn chế.
+Nếu xảy ra sự cố bất thường ở cả hai cảm biến, ECU điều khiển động cơ hoạt động ở phạm vi không tải. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Chức năng an toàn của cảm biến vị trí bướm ga
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Trong trường hợp xảy ra bất thường ở một hoặc cả hai mạch vị trí bướm ga, ECU động cơ phát hiện sự hư hỏng do sự chênh lệch điện áp giữa mạch chính và mạch phụ. Trường hợp này ECU sẽ không điều khiển motor điều khiển bướm ga và bướm ga được đưa về vị trí đã đặt bằng lò xo hồi. ECU sẽ điều khiển động cơ hoạt động ở chế độ hạn chế.
+Chế độ này cũng được thực hiện khi ECU động cơ phát hiện motor điều khiển bướm ga bị trục trặc.</t>
+    </r>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c8\\3.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c8\\4.PNG</t>
   </si>
 </sst>
 </file>
@@ -3394,7 +3474,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3466,6 +3546,9 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3784,7 +3867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -3803,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -3833,7 +3916,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="97.2" x14ac:dyDescent="0.3">
@@ -3844,10 +3927,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>13</v>
@@ -3882,10 +3965,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>13</v>
@@ -3920,10 +4003,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>13</v>
@@ -3958,10 +4041,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>784</v>
+        <v>768</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>710</v>
+        <v>694</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>13</v>
@@ -3985,7 +4068,7 @@
         <v>14</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="55.8" x14ac:dyDescent="0.3">
@@ -3996,10 +4079,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>711</v>
+        <v>695</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>13</v>
@@ -4034,10 +4117,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>13</v>
@@ -4072,10 +4155,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>713</v>
+        <v>697</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>13</v>
@@ -4110,10 +4193,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>714</v>
+        <v>698</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>13</v>
@@ -4148,10 +4231,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>716</v>
+        <v>700</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>13</v>
@@ -4186,10 +4269,10 @@
         <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>715</v>
+        <v>699</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>13</v>
@@ -4224,10 +4307,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>13</v>
@@ -4251,7 +4334,7 @@
         <v>14</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>14</v>
@@ -4265,10 +4348,10 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>756</v>
+        <v>740</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>13</v>
@@ -4292,7 +4375,7 @@
         <v>14</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>14</v>
@@ -4306,34 +4389,34 @@
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="J14" s="18" t="s">
         <v>14</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>14</v>
@@ -4347,34 +4430,34 @@
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="J15" s="18" t="s">
         <v>12</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>14</v>
@@ -4388,34 +4471,34 @@
         <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="J16" s="18" t="s">
         <v>14</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>14</v>
@@ -4429,10 +4512,10 @@
         <v>14</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>13</v>
@@ -4453,10 +4536,10 @@
         <v>14</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>14</v>
@@ -4470,34 +4553,34 @@
         <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="J18" s="18" t="s">
         <v>12</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>14</v>
@@ -4511,10 +4594,10 @@
         <v>20</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>13</v>
@@ -4549,10 +4632,10 @@
         <v>14</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>13</v>
@@ -4587,10 +4670,10 @@
         <v>21</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>13</v>
@@ -4625,10 +4708,10 @@
         <v>14</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>13</v>
@@ -4663,10 +4746,10 @@
         <v>14</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="D23" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>13</v>
@@ -4701,25 +4784,25 @@
         <v>14</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="E24" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="J24" s="18" t="s">
         <v>14</v>
@@ -4739,25 +4822,25 @@
         <v>14</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="D25" s="19" t="s">
+        <v>519</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="18" t="s">
         <v>535</v>
       </c>
-      <c r="E25" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>551</v>
-      </c>
       <c r="G25" s="18" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="J25" s="18" t="s">
         <v>12</v>
@@ -4771,31 +4854,31 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="J26" s="18" t="s">
         <v>14</v>
@@ -4848,6 +4931,1271 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" style="2" customWidth="1"/>
+    <col min="2" max="3" width="13.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13" style="2" customWidth="1"/>
+    <col min="11" max="14" width="8.88671875" style="2"/>
+    <col min="15" max="15" width="30.5546875" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="39"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="39"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="39"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="288" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:P4"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" display="\\Resources\\hinh anh c6\\relay working animation.gif"/>
+    <hyperlink ref="B7" r:id="rId2" display="\\Resources\\hinh anh c6\\relay working animation.gif"/>
+    <hyperlink ref="B10" r:id="rId3" display="\\Resources\\mach c6.png"/>
+    <hyperlink ref="B11" r:id="rId4" display="\\Resources\\mach c6.png"/>
+    <hyperlink ref="B12" r:id="rId5" display="\\Resources\\mach c6.png"/>
+    <hyperlink ref="B8" r:id="rId6" display="\\Resources\\hinh anh c6\\relay working animation.gif"/>
+    <hyperlink ref="B9" r:id="rId7" display="\\Resources\\hinh anh c6\\relay working animation.gif"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4865,7 +6213,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -4903,10 +6251,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>13</v>
@@ -4938,25 +6286,25 @@
         <v>12</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>14</v>
@@ -4973,25 +6321,25 @@
         <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="J4" s="18" t="s">
         <v>13</v>
@@ -5008,25 +6356,25 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="J5" s="18" t="s">
         <v>13</v>
@@ -5043,25 +6391,25 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="J6" s="18" t="s">
         <v>12</v>
@@ -5078,10 +6426,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>13</v>
@@ -5113,10 +6461,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>13</v>
@@ -5148,10 +6496,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>13</v>
@@ -5183,10 +6531,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>13</v>
@@ -5218,10 +6566,10 @@
         <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>13</v>
@@ -5251,25 +6599,25 @@
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="4" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="J12" s="18" t="s">
         <v>12</v>
@@ -5284,25 +6632,25 @@
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="4" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="J13" s="18" t="s">
         <v>12</v>
@@ -5317,25 +6665,25 @@
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="4" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="J14" s="18" t="s">
         <v>14</v>
@@ -5350,10 +6698,10 @@
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="4" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>13</v>
@@ -5383,10 +6731,10 @@
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="4" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>13</v>
@@ -5416,10 +6764,10 @@
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="18" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>13</v>
@@ -5449,34 +6797,34 @@
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="4" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="J18" s="18" t="s">
         <v>14</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -5485,10 +6833,10 @@
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="4" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>13</v>
@@ -5518,10 +6866,10 @@
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="4" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>13</v>
@@ -5551,10 +6899,10 @@
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="4" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>13</v>
@@ -5584,10 +6932,10 @@
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="4" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>13</v>
@@ -5617,10 +6965,10 @@
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="18" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>13</v>
@@ -5650,10 +6998,10 @@
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="4" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="E24" s="18" t="s">
         <v>13</v>
@@ -5683,10 +7031,10 @@
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="4" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="E25" s="18" t="s">
         <v>13</v>
@@ -5712,29 +7060,29 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="18" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="J26" s="18" t="s">
         <v>14</v>
@@ -5745,14 +7093,14 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="18" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="E27" s="18" t="s">
         <v>13</v>
@@ -5778,14 +7126,14 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="18" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>13</v>
@@ -5811,14 +7159,14 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="18" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="E29" s="18" t="s">
         <v>13</v>
@@ -5844,14 +7192,14 @@
     </row>
     <row r="30" spans="1:12" ht="276.60000000000002" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="B30" s="18"/>
       <c r="C30" s="4" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>13</v>
@@ -5872,61 +7220,61 @@
         <v>14</v>
       </c>
       <c r="K30" s="18" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="276.60000000000002" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B31" s="18"/>
       <c r="C31" s="4" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="E31" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="J31" s="18" t="s">
         <v>14</v>
       </c>
       <c r="K31" s="18" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="4" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>100</v>
@@ -5935,25 +7283,25 @@
         <v>101</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="4" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>13</v>
@@ -6015,7 +7363,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
@@ -6066,10 +7414,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>13</v>
@@ -6098,10 +7446,10 @@
         <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>13</v>
@@ -6130,25 +7478,25 @@
         <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>14</v>
@@ -6162,25 +7510,25 @@
         <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="I5" s="18" t="s">
         <v>13</v>
@@ -6194,25 +7542,25 @@
         <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="I6" s="18" t="s">
         <v>14</v>
@@ -6226,10 +7574,10 @@
         <v>21</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>13</v>
@@ -6256,22 +7604,22 @@
         <v>22</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="H8" s="18" t="s">
         <v>107</v>
@@ -6288,25 +7636,25 @@
         <v>23</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="I9" s="18" t="s">
         <v>14</v>
@@ -6320,25 +7668,25 @@
         <v>24</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="I10" s="18" t="s">
         <v>12</v>
@@ -6352,25 +7700,25 @@
         <v>25</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="I11" s="18" t="s">
         <v>14</v>
@@ -6384,10 +7732,10 @@
         <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>13</v>
@@ -6408,10 +7756,10 @@
         <v>14</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -6419,10 +7767,10 @@
         <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>13</v>
@@ -6451,25 +7799,25 @@
         <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="I14" s="18" t="s">
         <v>12</v>
@@ -6483,25 +7831,25 @@
         <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="I15" s="18" t="s">
         <v>13</v>
@@ -6515,10 +7863,10 @@
         <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>13</v>
@@ -6547,10 +7895,10 @@
         <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>13</v>
@@ -6579,10 +7927,10 @@
         <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>13</v>
@@ -6611,10 +7959,10 @@
         <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>13</v>
@@ -6635,10 +7983,10 @@
         <v>14</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="K19" s="20" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -6646,34 +7994,34 @@
         <v>75</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="I20" s="18" t="s">
         <v>14</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -6681,25 +8029,25 @@
         <v>78</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="I21" s="18" t="s">
         <v>14</v>
@@ -6738,7 +8086,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
@@ -6917,7 +8265,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>96</v>
@@ -6949,7 +8297,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>97</v>
@@ -6981,7 +8329,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>98</v>
@@ -7083,7 +8431,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>111</v>
@@ -7118,7 +8466,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>112</v>
@@ -7150,7 +8498,7 @@
         <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>117</v>
@@ -7182,7 +8530,7 @@
         <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>118</v>
@@ -7214,7 +8562,7 @@
         <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>119</v>
@@ -7278,7 +8626,7 @@
         <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>121</v>
@@ -7310,7 +8658,7 @@
         <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>122</v>
@@ -7342,7 +8690,7 @@
         <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>125</v>
@@ -7374,7 +8722,7 @@
         <v>75</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>127</v>
@@ -7406,7 +8754,7 @@
         <v>78</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>128</v>
@@ -7470,7 +8818,7 @@
         <v>80</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>131</v>
@@ -7529,698 +8877,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="15" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="15" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="276.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="193.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B14" r:id="rId6"/>
-    <hyperlink ref="B15" r:id="rId7"/>
-    <hyperlink ref="B16" r:id="rId8"/>
-    <hyperlink ref="B17" r:id="rId9"/>
-    <hyperlink ref="B18" r:id="rId10"/>
-    <hyperlink ref="B19" r:id="rId11"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
@@ -8272,10 +8928,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="D2" s="22">
         <v>1</v>
@@ -8304,25 +8960,25 @@
         <v>3</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="D3" s="22">
         <v>0</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="I3" s="22">
         <v>0</v>
@@ -8336,25 +8992,25 @@
         <v>4</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="D4" s="22">
         <v>0</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="I4" s="22">
         <v>1</v>
@@ -8368,7 +9024,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>98</v>
@@ -8377,16 +9033,16 @@
         <v>0</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="I5" s="22">
         <v>0</v>
@@ -8400,7 +9056,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>98</v>
@@ -8409,16 +9065,16 @@
         <v>0</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="I6" s="22">
         <v>1</v>
@@ -8432,7 +9088,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>98</v>
@@ -8441,16 +9097,16 @@
         <v>0</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="I7" s="22">
         <v>1</v>
@@ -8464,16 +9120,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="D8" s="22">
         <v>0</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>100</v>
@@ -8482,7 +9138,7 @@
         <v>101</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="I8" s="22">
         <v>1</v>
@@ -8496,7 +9152,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>98</v>
@@ -8505,16 +9161,16 @@
         <v>0</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="I9" s="22">
         <v>1</v>
@@ -8528,16 +9184,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="D10" s="22">
         <v>0</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>100</v>
@@ -8546,7 +9202,7 @@
         <v>101</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="I10" s="22">
         <v>0</v>
@@ -8560,10 +9216,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="D11" s="22">
         <v>1</v>
@@ -8592,34 +9248,34 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="D12" s="22">
         <v>0</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="I12" s="22">
         <v>0</v>
       </c>
       <c r="J12" s="22" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="93.6" x14ac:dyDescent="0.3">
@@ -8627,10 +9283,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="D13" s="22">
         <v>1</v>
@@ -8659,34 +9315,34 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="D14" s="22">
         <v>0</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="I14" s="22">
         <v>0</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="93.6" x14ac:dyDescent="0.3">
@@ -8694,10 +9350,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="D15" s="22">
         <v>1</v>
@@ -9616,7 +10272,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -9658,10 +10314,10 @@
         <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>13</v>
@@ -9696,25 +10352,25 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>14</v>
@@ -9734,25 +10390,25 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="D4" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="J4" s="18" t="s">
         <v>13</v>
@@ -9772,25 +10428,25 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="J5" s="18" t="s">
         <v>12</v>
@@ -9810,25 +10466,25 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="J6" s="18" t="s">
         <v>14</v>
@@ -9848,25 +10504,25 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="J7" s="18" t="s">
         <v>14</v>
@@ -9886,25 +10542,25 @@
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="J8" s="18" t="s">
         <v>12</v>
@@ -9924,25 +10580,25 @@
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="J9" s="18" t="s">
         <v>14</v>
@@ -9962,25 +10618,25 @@
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>664</v>
+        <v>648</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="J10" s="18" t="s">
         <v>13</v>
@@ -10000,25 +10656,25 @@
         <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="J11" s="18" t="s">
         <v>12</v>
@@ -10038,34 +10694,34 @@
         <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="J12" s="18" t="s">
         <v>12</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>14</v>
@@ -10079,34 +10735,34 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="J13" s="18" t="s">
         <v>13</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>14</v>
@@ -10120,34 +10776,34 @@
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="J14" s="18" t="s">
         <v>14</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>14</v>
@@ -10161,10 +10817,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>13</v>
@@ -10239,7 +10895,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -10277,10 +10933,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>719</v>
+        <v>703</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>13</v>
@@ -10312,10 +10968,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>13</v>
@@ -10347,25 +11003,25 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="J4" s="18" t="s">
         <v>14</v>
@@ -10382,10 +11038,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>668</v>
+        <v>652</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>13</v>
@@ -10417,34 +11073,34 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="J6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -10455,10 +11111,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>13</v>
@@ -10490,10 +11146,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>670</v>
+        <v>654</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>13</v>
@@ -10525,10 +11181,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>670</v>
+        <v>654</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>13</v>
@@ -10560,10 +11216,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>671</v>
+        <v>655</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>13</v>
@@ -10595,10 +11251,10 @@
         <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>671</v>
+        <v>655</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>13</v>
@@ -10630,25 +11286,25 @@
         <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="J12" s="36" t="s">
         <v>12</v>
@@ -10665,10 +11321,10 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>13</v>
@@ -10700,10 +11356,10 @@
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>13</v>
@@ -10735,10 +11391,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>13</v>
@@ -10770,25 +11426,25 @@
         <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="J16" s="30" t="s">
         <v>12</v>
@@ -10805,25 +11461,25 @@
         <v>14</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="J17" s="18" t="s">
         <v>13</v>
@@ -10840,10 +11496,10 @@
         <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>13</v>
@@ -10875,10 +11531,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="D19" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>13</v>
@@ -10910,34 +11566,34 @@
         <v>14</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="J20" s="18" t="s">
         <v>14</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -10993,7 +11649,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -11031,10 +11687,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>759</v>
+        <v>743</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>13</v>
@@ -11066,10 +11722,10 @@
         <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>13</v>
@@ -11101,25 +11757,25 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="J4" s="36" t="s">
         <v>12</v>
@@ -11136,25 +11792,25 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>678</v>
+        <v>662</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="J5" s="18" t="s">
         <v>13</v>
@@ -11171,10 +11827,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>13</v>
@@ -11206,10 +11862,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>13</v>
@@ -11230,7 +11886,7 @@
         <v>14</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="42" x14ac:dyDescent="0.3">
@@ -11241,31 +11897,31 @@
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="J8" s="18" t="s">
         <v>12</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -11276,25 +11932,25 @@
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="G9" t="s">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>691</v>
+        <v>675</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="J9" s="18" t="s">
         <v>14</v>
@@ -11311,10 +11967,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>13</v>
@@ -11335,10 +11991,10 @@
         <v>14</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="42" x14ac:dyDescent="0.3">
@@ -11349,10 +12005,10 @@
         <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>13</v>
@@ -11384,10 +12040,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>701</v>
+        <v>685</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>13</v>
@@ -11408,10 +12064,10 @@
         <v>14</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -11422,10 +12078,10 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>702</v>
+        <v>686</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>13</v>
@@ -11446,7 +12102,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="42" x14ac:dyDescent="0.3">
@@ -11457,10 +12113,10 @@
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>13</v>
@@ -11481,7 +12137,7 @@
         <v>14</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="28.2" x14ac:dyDescent="0.3">
@@ -11492,10 +12148,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>13</v>
@@ -11516,7 +12172,7 @@
         <v>14</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -11570,7 +12226,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -11608,10 +12264,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>760</v>
+        <v>744</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>13</v>
@@ -11643,10 +12299,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>761</v>
+        <v>745</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>13</v>
@@ -11678,10 +12334,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>762</v>
+        <v>746</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>727</v>
+        <v>711</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>13</v>
@@ -11713,10 +12369,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>13</v>
@@ -11748,10 +12404,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>13</v>
@@ -11783,10 +12439,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>13</v>
@@ -11818,10 +12474,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>13</v>
@@ -11853,10 +12509,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>767</v>
+        <v>751</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>730</v>
+        <v>714</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>13</v>
@@ -11888,10 +12544,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>768</v>
+        <v>752</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>13</v>
@@ -11957,7 +12613,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -11995,10 +12651,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>769</v>
+        <v>753</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>731</v>
+        <v>715</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>13</v>
@@ -12030,10 +12686,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>770</v>
+        <v>754</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>732</v>
+        <v>716</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>13</v>
@@ -12065,25 +12721,25 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="J4" s="18" t="s">
         <v>14</v>
@@ -12100,25 +12756,25 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="J5" s="18" t="s">
         <v>13</v>
@@ -12135,25 +12791,25 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="J6" s="18" t="s">
         <v>12</v>
@@ -12170,10 +12826,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>699</v>
+        <v>683</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>13</v>
@@ -12205,34 +12861,34 @@
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
       <c r="D8" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="J8" s="18" t="s">
         <v>14</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -12259,8 +12915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12276,7 +12932,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -12314,10 +12970,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>771</v>
+        <v>755</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>13</v>
@@ -12349,10 +13005,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>772</v>
+        <v>756</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>735</v>
+        <v>719</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>13</v>
@@ -12384,10 +13040,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>773</v>
+        <v>757</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>736</v>
+        <v>720</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>13</v>
@@ -12419,10 +13075,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>774</v>
+        <v>758</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>13</v>
@@ -12454,10 +13110,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>775</v>
+        <v>759</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>13</v>
@@ -12489,10 +13145,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>776</v>
+        <v>760</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>13</v>
@@ -12524,10 +13180,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>777</v>
+        <v>761</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>13</v>
@@ -12559,10 +13215,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>778</v>
+        <v>762</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>13</v>
@@ -12594,10 +13250,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>779</v>
+        <v>763</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>742</v>
+        <v>726</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>13</v>
@@ -12629,10 +13285,10 @@
         <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>780</v>
+        <v>764</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>743</v>
+        <v>727</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>13</v>
@@ -12664,10 +13320,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>781</v>
+        <v>765</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>13</v>
@@ -12699,10 +13355,10 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>782</v>
+        <v>766</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>13</v>
@@ -12734,10 +13390,10 @@
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>783</v>
+        <v>767</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>13</v>
@@ -12769,25 +13425,25 @@
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="J15" s="18" t="s">
         <v>12</v>
@@ -12804,25 +13460,25 @@
         <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="J16" s="18" t="s">
         <v>12</v>
@@ -12839,25 +13495,25 @@
         <v>14</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="J17" s="18" t="s">
         <v>12</v>
@@ -12874,25 +13530,25 @@
         <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="J18" s="18" t="s">
         <v>14</v>
@@ -12947,6 +13603,716 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="15" style="2"/>
+    <col min="3" max="3" width="61.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="48.88671875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="15" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>770</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>771</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="138.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>773</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="180" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>774</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="166.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>775</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="193.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B14" r:id="rId1"/>
+    <hyperlink ref="B15" r:id="rId2"/>
+    <hyperlink ref="B16" r:id="rId3"/>
+    <hyperlink ref="B17" r:id="rId4"/>
+    <hyperlink ref="B18" r:id="rId5"/>
+    <hyperlink ref="B19" r:id="rId6"/>
+    <hyperlink ref="C2" r:id="rId7"/>
+    <hyperlink ref="C3" r:id="rId8"/>
+    <hyperlink ref="C4" r:id="rId9"/>
+    <hyperlink ref="C5" r:id="rId10"/>
+    <hyperlink ref="C6" r:id="rId11"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12996,10 +14362,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>13</v>
@@ -13028,25 +14394,25 @@
         <v>16</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>13</v>
@@ -13060,25 +14426,25 @@
         <v>18</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>12</v>
@@ -13092,10 +14458,10 @@
         <v>19</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>13</v>
@@ -13124,25 +14490,25 @@
         <v>20</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>13</v>
@@ -13156,10 +14522,10 @@
         <v>21</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>13</v>
@@ -13188,7 +14554,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>3</v>
@@ -13197,16 +14563,16 @@
         <v>14</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>12</v>
@@ -13220,10 +14586,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>13</v>
@@ -13252,7 +14618,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>3</v>
@@ -13261,16 +14627,16 @@
         <v>14</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>13</v>
@@ -13284,7 +14650,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>3</v>
@@ -13293,16 +14659,16 @@
         <v>14</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>13</v>
@@ -13316,7 +14682,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>3</v>
@@ -13348,7 +14714,7 @@
         <v>29</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>3</v>
@@ -13357,16 +14723,16 @@
         <v>14</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>13</v>
@@ -13380,7 +14746,7 @@
         <v>30</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>3</v>
@@ -13412,7 +14778,7 @@
         <v>31</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>3</v>
@@ -13421,16 +14787,16 @@
         <v>14</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>13</v>
@@ -13444,10 +14810,10 @@
         <v>32</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>13</v>
@@ -13476,10 +14842,10 @@
         <v>33</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>13</v>
@@ -13508,25 +14874,25 @@
         <v>34</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>12</v>
@@ -13535,7 +14901,7 @@
         <v>14</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -13543,25 +14909,25 @@
         <v>35</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>14</v>
@@ -13575,25 +14941,25 @@
         <v>75</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>13</v>
@@ -13607,10 +14973,10 @@
         <v>78</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>13</v>
@@ -13639,10 +15005,10 @@
         <v>79</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>13</v>
@@ -13671,34 +15037,34 @@
         <v>80</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -13706,34 +15072,34 @@
         <v>83</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -13741,45 +15107,45 @@
         <v>85</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>13</v>
@@ -13813,1269 +15179,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.109375" style="2" customWidth="1"/>
-    <col min="2" max="3" width="13.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.5546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13" style="2" customWidth="1"/>
-    <col min="11" max="14" width="8.88671875" style="2"/>
-    <col min="15" max="15" width="30.5546875" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>383</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="39"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>384</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="39"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>385</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O4" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" s="39"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>389</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>391</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>396</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>394</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>395</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>399</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="288" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>404</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>405</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>399</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O4:P4"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="\\Resources\\hinh anh c6\\relay working animation.gif"/>
-    <hyperlink ref="B7" r:id="rId2" display="\\Resources\\hinh anh c6\\relay working animation.gif"/>
-    <hyperlink ref="B10" r:id="rId3" display="\\Resources\\mach c6.png"/>
-    <hyperlink ref="B11" r:id="rId4" display="\\Resources\\mach c6.png"/>
-    <hyperlink ref="B12" r:id="rId5" display="\\Resources\\mach c6.png"/>
-    <hyperlink ref="B8" r:id="rId6" display="\\Resources\\hinh anh c6\\relay working animation.gif"/>
-    <hyperlink ref="B9" r:id="rId7" display="\\Resources\\hinh anh c6\\relay working animation.gif"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
-</worksheet>
 </file>
--- a/TruaNgay18New1/student_add bai hoc/HoanThanhDangNhap/bin/Debug/nhucc/Du lieu cau hoi/thu vien bai hoc.xlsx
+++ b/TruaNgay18New1/student_add bai hoc/HoanThanhDangNhap/bin/Debug/nhucc/Du lieu cau hoi/thu vien bai hoc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đồ Án\DO AN\Do_AN\TruaNgay18New1\student_add bai hoc\HoanThanhDangNhap\bin\Debug\nhucc\Du lieu cau hoi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33ED6920-8B06-47FF-8900-6BD3FBB4AC00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2530C5D5-60E9-4DF1-B70E-8BB4404B6D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="9" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3249" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2384" uniqueCount="591">
   <si>
     <t>nActi</t>
   </si>
@@ -520,110 +520,7 @@
     <t>\\Resources\\Hinh anh cac chuong\\hinh anh c8\\operating voltage across bulb.png</t>
   </si>
   <si>
-    <t xml:space="preserve">video giảng dạy về đèn 1 tim 2 tim </t>
-  </si>
-  <si>
-    <t>bài học cho video</t>
-  </si>
-  <si>
-    <t>video đèn hậu và đèn phanh</t>
-  </si>
-  <si>
-    <t>video minh họa cùng 1 điện áp nhưng thay đổi giá trị điển trở sẽ làm giảm cường độ dòng điện (ít electron chạy trong dây dẫn hơn)</t>
-  </si>
-  <si>
-    <t>Với cùng 1 giá trị điện áp, điện trở thấp hơn sẽ cho dòng điện lớn hơn mặc dù dây dẫn sẽ nóng hơn. Với một bóng đèn có giá trị điện trở thấp, sẽ có dòng điện lớn hơn chạy qua đèn và đèn sẽ sáng hơn.</t>
-  </si>
-  <si>
-    <t>video minh họa quá trình đo cường độ dòng điện đi qua đèn phanh và đèn hậu, từ đó tính công suất của 2 đèn</t>
-  </si>
-  <si>
-    <t>Hãy xem và trả lời câu hỏi đi kèm:</t>
-  </si>
-  <si>
-    <t>Công suất = U*I. Công suất được quyết định bởi lượng ….. và …. chạy qua linh kiện?</t>
-  </si>
-  <si>
-    <t>Ampe và độ dày của dây điện</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ohm và tiết diện tính theo Inch </t>
-  </si>
-  <si>
-    <t>Volt và Ampe</t>
-  </si>
-  <si>
-    <t>Với cùng 1 điện áp đặt vào 2 đầu của đèn phanh và đèn hậu, đèn phanh sáng mạnh hơn. Đèn nào có giá trị điện trở thấp hơn và cho cường độ dòng điện chạy qua lớn hơn?</t>
-  </si>
-  <si>
-    <t>Đèn phanh có điện trở thấp hơn</t>
-  </si>
-  <si>
-    <t>Đèn hậu có điện trở thấp hơn</t>
-  </si>
-  <si>
-    <t>2 đèn có cùng điện trở</t>
-  </si>
-  <si>
-    <t>Cường độ dòng điện chạy qua đèn phanh có giá trị cao hơn cường độ dòng điện chạy qua đèn hậu. Đèn nào sẽ có công suất lớn hơn?</t>
-  </si>
-  <si>
-    <t>Đèn kích thước có công suất cao hơn.</t>
-  </si>
-  <si>
-    <t>Đèn phanh có công suất cao hơn.</t>
-  </si>
-  <si>
-    <t>Cả hai đều có công suất như nhau.</t>
-  </si>
-  <si>
-    <t>Video minh họa pan thiếu mass</t>
-  </si>
-  <si>
-    <t>Xem bài giảng sau:</t>
-  </si>
-  <si>
-    <t>ĐÈN KÍCH THƯỚC VÀ ĐÈN PHANH
-Hãy tạo một vấn đề bằng cách ngắt kết nối tại mass P cho nhánh đèn bên trái.</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c8\\Popen.png</t>
-  </si>
-  <si>
     <t>\\Resources\\Hinh anh cac chuong\\hinh anh c8\\wiring_final.png</t>
-  </si>
-  <si>
-    <t>Đóng công tắc đèn đầu, 2 đèn kích thước SÁNG đúng như dự tính.</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c8\\DswON + Popen 2TailBulbActive.png</t>
-  </si>
-  <si>
-    <t>Trả công tắc đèn đầu về vị trí mở, đóng công tắc đèn phanh lại, ta thấy chỉ có đèn bên phải sáng. 2 đèn kích thước thì cũng sáng, nhưng mà lại bị mờ hơn.</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c8\\Brake swON + Popen + 2bulbDIM + 1bulbActive.png</t>
-  </si>
-  <si>
-    <t>Đóng cả 2 công tắc đèn đầu và công tắc phanh sẽ cho ta thấy được chỉ có đèn phanh và đèn kích thước bên phía phải sáng.</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c8\\2swON + 1bulbDIM + 1bulbActive.png</t>
-  </si>
-  <si>
-    <t>MẠCH ĐIỆN ĐÈN KÍCH THƯỚC VÀ ĐÈN PHANH
-Với cả 2 công tắc được bật ON, kiểm tra điện áp tại mỗi bóng đèn</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c8\\2swON + 1bulbDIM + 1bulbActive + VOM.png</t>
-  </si>
-  <si>
-    <t>MẠCH ĐIỆN ĐÈN KÍCH THƯỚC VÀ ĐÈN PHANH
-Ngắt nguồn điện cung cấp cho mạch tại A và ngắt kết nối các bóng đèn với nhau (ngắt kết nối tại N và H).
-Kiểm tra thông mạch giữa các đèn với mass</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c8\\A N H open.png</t>
   </si>
   <si>
     <t>Video minh họa mạch motor khởi động (có công tắc số)</t>
@@ -1689,326 +1586,12 @@
     <t>\\Resources\\mach trang.jpg</t>
   </si>
   <si>
-    <t>Trả lời câu hỏi sau.</t>
-  </si>
-  <si>
     <t>Hiển thị vid</t>
   </si>
   <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>Phần mềm vừa tạo một lỗi cho mạch. Hãy lần lượt đo điện áp giữa 3 điểm B, D, F so với GND, sau đó đo dòng điện chạy qua mạch để nhận biết hiện tượng.</t>
-  </si>
-  <si>
-    <t>Điện áp giữa điểm B so với GND là ?</t>
-  </si>
-  <si>
-    <t>Điện áp giữa điểm D so với GND là ?</t>
-  </si>
-  <si>
-    <t>Bây giờ hãy ngắt kết nối dây tại B, sau đó đo điện áp tại điểm B so với GND</t>
-  </si>
-  <si>
     <t>Giá trị điện áp đo được là ?</t>
   </si>
   <si>
-    <t>Khi có lỗi HỞ MẠCH, không có dòng điện chạy trong mạch và các thành phần trong mạch sẽ không có điện áp rơi tại đó.</t>
-  </si>
-  <si>
-    <t>Nối lại dây tại điểm B. Trả lời câu hỏi, sau đó hãy kiểm tra câu trả lời của bạn bằng cách dùng đồng hồ với thang đo OHM.
-LƯU Ý: Hãy ngắt nguồn trước khi sử dụng thang đo OHM</t>
-  </si>
-  <si>
-    <t>Dùng đồng hồ AMPE khi mạch xuất hiện điện trở không mong muốn chỉ giúp ta nhận thấy dòng điện qua mạch bị giảm đi chứ không giúp ta định vị được vị trí bị lỗi.
-Đồng hồ OHM sẽ giúp chúng ta tìm được nhưng nhược điểm của cách đo này là chỉ có thể đo được khi không có dòng điện trong mạch. 
-Còn với đồng hồ VOLT, ta có thể xác định được vị trí lỗi kể cả khi mạch đang hoạt động.</t>
-  </si>
-  <si>
-    <t>Để bảo vệ các linh kiện trong mạch, chúng tôi sử dụng 1 cầu chì ngắt mạch (Circuit Breaker) – nằm ở vị trí linh kiện số 1. Khi mạch xảy ra sự cố, cầu chì sẽ kêu 1 tiếng click báo hiệu cầu chì bị đứt, giúp chúng ta nhận biết mạch đang có sự cố. Nếu chúng ta nhấn công tắc màu trắng, sẽ có 1 tiếng click nữa, báo hiệu rằng cầu chì đã được nối lại.</t>
-  </si>
-  <si>
-    <t>Khi mạch xảy ra lỗi HỞ MẠCH, không có dòng điện chạy trong mạch và mạch không hoạt động. Lúc này, sử dụng loại đồng hồ nào để xác định vị trí lỗi?</t>
-  </si>
-  <si>
-    <t>Đồng hồ VOLT</t>
-  </si>
-  <si>
-    <t>Đồng hồ AMPE</t>
-  </si>
-  <si>
-    <t>Đồng hồ OHM</t>
-  </si>
-  <si>
-    <t>Để xác định vị trí lỗi HỞ MẠCH với điều kiện ngắt nguồn, chúng ta sử dụng loại đồng hồ nào ?</t>
-  </si>
-  <si>
-    <t>Điện áp cao hơn</t>
-  </si>
-  <si>
-    <t>Cường độ dòng điện cao hơn</t>
-  </si>
-  <si>
-    <t>Điện áp thấp hơn</t>
-  </si>
-  <si>
-    <t>Khi mạch hoạt động với lỗi xuất hiện điện trở không mong muốn, nơi xuất hiện lỗi này là nơi có …. so với thông thường.</t>
-  </si>
-  <si>
-    <t>Cường độ dòng điện đo được là? 
-Lưu ý: các đáp án đều được làm tròn, hãy chọn đáp án gần đúng nhất.</t>
-  </si>
-  <si>
-    <t>0.14A</t>
-  </si>
-  <si>
-    <t>0.02A</t>
-  </si>
-  <si>
-    <t>0.12A</t>
-  </si>
-  <si>
-    <t>Dùng thang đo VOLT, đo điện áp 2 đầu điểm I và GND.</t>
-  </si>
-  <si>
-    <t>Dùng thang đo VOLT, đo điện áp 2 đầu điểm G và GND.</t>
-  </si>
-  <si>
-    <t>Dùng thang đo VOLT, đo điện áp 2 đầu điểm H và GND.</t>
-  </si>
-  <si>
-    <t>Dùng thang đo VOLT, đo điện áp 2 đầu điểm F và GND.</t>
-  </si>
-  <si>
-    <t>2V</t>
-  </si>
-  <si>
-    <t>Dùng thang đo VOLT, đo điện áp 2 đầu điểm D và GND.</t>
-  </si>
-  <si>
-    <t>Dùng thang đo VOLT, đo điện áp 2 đầu điểm B và GND.</t>
-  </si>
-  <si>
-    <t>Phần mềm vừa tạo một lỗi cho mạch. Đo điện áp và cường độ dòng qua mạch để xác định lỗi.</t>
-  </si>
-  <si>
-    <t>Lỗi hiện tại là?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hở mạch giữa 2 đầu B và C </t>
-  </si>
-  <si>
-    <t>Giữa D và E có thêm điện trở không mong muốn</t>
-  </si>
-  <si>
-    <t>Điểm H nối tắt GND</t>
-  </si>
-  <si>
-    <t>fault13</t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>Phần mềm vừa tạo một lỗi cho mạch. Đo điện áp và cường độ dòng điện qua mạch để xác định lỗi.</t>
-  </si>
-  <si>
-    <t>fault10</t>
-  </si>
-  <si>
-    <t>Phần mềm vừa tạo lỗi cho mạch. Đo điện áp và cường độ dòng điện qua mạch để xác định lỗi.</t>
-  </si>
-  <si>
-    <t>Ba loại lỗi vừa được tạo là:
-1. Hở mạch
-2. Xuất hiện điện trở không mong muốn
-3. Nối tắt GND
-Trên mạch, GND được sắp xếp chạy dọc cạnh dưới, đại diện cho sườn xe ngoài thực tế. Nhiều quy trình chẩn đoán, bao gồm cả đo lường điện áp với cực âm của volt kế được kết nối vào sườn xe.</t>
-  </si>
-  <si>
-    <t>Relay chuyển tiếp điểm nhưng còi không kêu.</t>
-  </si>
-  <si>
-    <t>Relay chuyển tiếp điểm, còi hoạt động bình thường</t>
-  </si>
-  <si>
-    <t>Relay không chuyển tiếp điểm, còi không kêu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nối lại dây tại điểm D, sau đó ngắt dây tại điểm G. Nhấn công tắc để vận hành mạch, quan sát hiện tượng và trả lời câu hỏi. </t>
-  </si>
-  <si>
-    <t>Khi có hở mạch tại còi, mạch hoạt động như thế nào?</t>
-  </si>
-  <si>
-    <t>Qua 2 trường hợp trên:
-- Khi có hở mạch trên nhánh mạch điều khiển của relay (cuộn dây relay) mạch sẽ không hoạt động khi nhấn công tắc.
-- Khi có hở mạch trên nhánh mạch tải (còi) tiếp điểm của relay vẫn chuyển vì nhánh mạch này bình thường, nhưng nhánh mạch tải sẽ không hoạt động.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phần mềm vừa tạo lỗi hở mạch. Nhấn giữ công tắc #17 để vận hành mạch, dùng đồng hồ với thang đo VOLT để xác định vị trí lỗi. </t>
-  </si>
-  <si>
-    <t>Vị trí lỗi nằm ở?</t>
-  </si>
-  <si>
-    <t>Cuộn dây relay</t>
-  </si>
-  <si>
-    <t>Công tắc #17</t>
-  </si>
-  <si>
-    <t>fault 15</t>
-  </si>
-  <si>
-    <t>Nối tắt cuộn dây relay bằng cách nối dây từ điểm C qua điểm D. Nhấn công tắc #17 để vận hành mạch. Quan sát hiện tượng.</t>
-  </si>
-  <si>
-    <t>Trường hợp trên, ta dùng nối tắt dây qua tải, làm nhánh mạch màu xanh trở thành một đường dây không tải, tạo nên một dòng điện rất lớn chạy trong mạch làm đứt cầu chì.</t>
-  </si>
-  <si>
-    <t>Tháo dây nối giữa C và D. Nối tắt dây giữa từ điểm G qua điểm H. Nhấn công tắc #17 để vận hành mạch. Quan sát hiện tượng.</t>
-  </si>
-  <si>
-    <t>Tương tự như trường hợp trước, lần này chúng ta vẫn nối tắt dây qua tải là còi, cũng sẽ tạo nên 1 nhánh mạch không tải và làm đứt cầu chì khi mạch được vận hành.
-Hai trường hợp trên là ví dụ cho việc nối tắt dây SAI. Vì vậy, điều bắt buộc khi dùng phương pháp nối tắt dây là KHÔNG ĐƯỢC nối tắt dây qua tải (điện trở, đèn, motor, ... ).</t>
-  </si>
-  <si>
-    <t>Phương pháp nối tắt dây có thể nối tắt cho trường hợp nào sau đây?</t>
-  </si>
-  <si>
-    <t>Bóng đèn</t>
-  </si>
-  <si>
-    <t>Nối GND cho motor</t>
-  </si>
-  <si>
-    <t>Ngắt dây tại điểm F, giả sử chúng ta không biết rằng tại F bị hở mạch. Nhấn công tắc để vận hành mạch. Quan sát hiện tượng.
-Ta thấy rằng relay vẫn chuyển tiếp điểm khi nhấn công tắc, chứng tỏ nhánh mạch điều khiển không có lỗi.</t>
-  </si>
-  <si>
-    <t>Nối tắt dây từ điểm G về điểm A. Quan sát hiện tượng.
-Ta thấy rằng còi kêu khi được nối trực tiếp với nguồn, có nghĩa nhánh mạch từ điểm G về GND không có lỗi.</t>
-  </si>
-  <si>
-    <t>Lần lượt nối tắt dây tại B - E, E - F, F - G, và nhấn công tắc để vận hành mạch và quan sát hiện tượng.
-Kết quả cho thấy rằng, nối tắt dây tại B - E và E - F, còi vẫn sẽ không hoạt động, chứng tỏ lỗi không nằm ở 2 đoạn này. Còn khi nối tắt dây tại F - G, còi hoạt động, có nghĩa là trên đoạn dây F - G xuất hiện hở mạch. Đây là phương pháp giúp chúng ta xác định được vị trí hở mạch khi mạch vẫn được nối nguồn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nối lại dây tại điểm F. Nhấn công tắc để mạch hoạt động và đo điện áp rơi trên còi. </t>
-  </si>
-  <si>
-    <t>Giá trị điện áp là?</t>
-  </si>
-  <si>
-    <t>Trong điều kiện kết nối kém (các đầu kết nối bám bụi hoặc bị oxy hoá, … ), đại lượng nào trong mạch sẽ tăng lên ?</t>
-  </si>
-  <si>
-    <t>Cường độ dòng điện</t>
-  </si>
-  <si>
-    <t>Khi mạch có những vị trí bị kết nối kém, rất khó để xác định được lỗi khi không có đồng hồ VOM. 
-Đấu mạch như hình vẽ để tạo một điện trở không mong muốn cho còi. Nhấn công tắc để vận hành mạch và đo điện áp rơi tại còi.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Điện áp rơi trên còi lúc này đã giảm, vì vậy nên còi phát ra tiếng nhỏ hơn. Nguyên nhân sự mất điện áp trên là vì điện trở không mong muốn đã tiêu thụ một phần điện áp. </t>
-  </si>
-  <si>
-    <t>Phần mềm đã tạo 1 lỗi xuất hiện điện trở không mong muốn cho mạch. Vận hành mạch để đo điện áp tại các điểm B, E, F, G, H để xác định vị trí xảy ra lỗi.</t>
-  </si>
-  <si>
-    <t>Vị trí xảy ra lỗi là ?</t>
-  </si>
-  <si>
-    <t>Giữa hai điểm E và F</t>
-  </si>
-  <si>
-    <t>Giữa hai điểm G và H</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>fault 22</t>
-  </si>
-  <si>
-    <t>Hiển thị vide</t>
-  </si>
-  <si>
-    <t>Công tắc được dùng trong mạch điều khiển còi là loại công tắc nào ?</t>
-  </si>
-  <si>
-    <t>Công tắc 1 cực - 1 điểm</t>
-  </si>
-  <si>
-    <t>Công tắc 1 cực - 2 điểm</t>
-  </si>
-  <si>
-    <t>Nút nhấn</t>
-  </si>
-  <si>
-    <t>Các loại công tắc nào được dùng trong mô hình thực tập này?</t>
-  </si>
-  <si>
-    <t>Công tắc 1 cực - 1 tiếp điểm / Công tắc 1 cực - 2 tiếp điểm / Nút nhấn</t>
-  </si>
-  <si>
-    <t>Công tắc 1 cực - 2 tiếp điểm / Công tắc 1 cực – nhiều tiếp điểm / Nút nhấn</t>
-  </si>
-  <si>
-    <t>Công tắc 1 cực - 1 tiếp điểm / Công tắc 1 cực – nhiều tiếp điểm / Nút nhấn</t>
-  </si>
-  <si>
-    <t>Ngắt dây tại điểm D. Lúc này, mạch có lỗi hở tại công tắc số 10. 
-Với những kiểm tra lỗi hở trên đường dây, hoặc tại những linh kiện điều khiển như công tắc, chúng ta có 3 cách để kiểm tra:
-- Dùng đồng hồ thang đo VOLT khi mạch đang hoạt động.
-- Dùng đồng hồ thang đo OHM khi mạch ngắt nguồn.
-- Dùng phương pháp nối tắt dây.</t>
-  </si>
-  <si>
-    <t>Nối lại dây tại điểm D. Phần mềm vừa tạo một lỗi hở mạch. Gạt công tắc để vận hành mạch và quan sát hiện tượng.</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>Lỗi trên là lỗi hở mạch tại đèn #15.
-Trên thực tế, lỗi hở mạch không chỉ xảy ra tại các đường dây hay công tắc mà những loại tải như đèn, motor cũng có thể bị đứt. Vì vậy, khi kiểm tra mạch ngoài thực tế, chúng ta cần tháo các linh kiện khỏi mạch và kiểm tra xem chúng còn hoạt động tốt hay không.</t>
-  </si>
-  <si>
-    <t>Nếu kiểm tra chất lượng của linh kiện còn hoạt động được hay không, chúng ta phải dùng đồng hồ với thang đo nào?</t>
-  </si>
-  <si>
-    <t>Volt</t>
-  </si>
-  <si>
-    <t>Ampe</t>
-  </si>
-  <si>
-    <t>Ohm</t>
-  </si>
-  <si>
-    <t>Khi kiểm tra bô bin đánh lửa hay các dây dẫn cao áp, chúng ta chỉ nên kiểm tra với đồng hồ thang đo OHM khi đã ngắt nguồn. Vì sao?</t>
-  </si>
-  <si>
-    <t>Gạt công tắc để vận hành mạch. Quan sát hiện tượng.</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>fault 25</t>
-  </si>
-  <si>
-    <t>Cầu chì ngắt đã bị đứt.
-Phần mềm vừa tạo ra một lỗi phổ biến trên thực tế đó chính là lỗi ngắn mạch nối đất. 
-Có thể dùng đồng hồ thang đo OHM để xác định vị trí lỗi. Ngoài ra, chúng ta có thể dùng khả năng của cầu chì ngắt để kiểm tra mạch.</t>
-  </si>
-  <si>
-    <t>Ngắt dây nối tại điểm J.
-Chuyển công tắc P/N sang vị trí J, gạt công tắc #10 để vận hành mạch. Quan sát hiện tượng và trả lời câu hỏi.</t>
-  </si>
-  <si>
     <t>Mạch hoạt động như thế nào?</t>
   </si>
   <si>
@@ -2021,211 +1604,10 @@
     <t>Relay chuyển tiếp điểm nhưng motor không quay.</t>
   </si>
   <si>
-    <t>Ngắt dây nối tại điểm J.
-Chuyển công tắc P/N sang vị trí K, gạt công tắc số 10 để vận hành mạch. Quan sát hiện tượng và trả lời câu hỏi.</t>
-  </si>
-  <si>
-    <t>Nối lại dây tại điểm J. Ngắt dây nối tại điểm D. Vận hành mạch và quan sát hiện tượng.</t>
-  </si>
-  <si>
-    <t>Nối lại dây tại D. Phần mềm vừa tạo một lỗi trong mạch. Hãy xác định loại lỗi xảy ra.</t>
-  </si>
-  <si>
-    <t>Loại lỗi xảy ra trong mạch là?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hở mạch </t>
-  </si>
-  <si>
-    <t>Ngắn mạch nối đất</t>
-  </si>
-  <si>
-    <t>Xuất hiện điện trở không mong muốn</t>
-  </si>
-  <si>
     <t>Đo điện áp tại điểm G so với GND</t>
   </si>
   <si>
-    <t>Đo điện áp tại điểm M so với GND</t>
-  </si>
-  <si>
-    <t>Đo điện áp tại điểm I so với GND</t>
-  </si>
-  <si>
-    <t>Đo điện áp qua đèn bên hông xe (2 điểm K và L)</t>
-  </si>
-  <si>
-    <t>\\Resources\\tong hop final wiring\\c4.png</t>
-  </si>
-  <si>
-    <t>Tạo lỗi nối tắt GND bằng cách nối thêm một dây từ điểm C về GND như hình vẽ. Lúc này, các tải phía sau điểm C sẽ được bỏ qua. Vì vậy, không có dòng điện đi từ D về GND, nhưng dòng điện từ C về GND sẽ tăng. Khi xảy ra lỗi này trong mạch, cầu chì trong mạch sẽ dễ bị cháy vì dòng điện tăng quá mức giới hạn.</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\chuong1acti11.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\chuong1acti15.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\chuong1acti19.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\chuong1acti21.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\chuong1acti22.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c1\\chuong1acti24.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\chuong2acti3.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\chuong2acti4.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\chuong2acti5.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\chuong2acti6.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\chuong2acti7.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\chuong2acti8.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\chuong2acti9.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\chuong2acti10.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\chuong2acti11.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c2\\chuong2acti12.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c3\\chuong3acti3.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c3\\chuong3acti4.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c3\\chuong3acti5.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c3\\chuong3acti7.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c3\\chuong3acti9.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c3\\chuong3acti11.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c3\\chuong3acti12.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c3\\chuong3acti13.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c3\\chuong3acti15.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c3\\chuong3acti17.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c3\\chuong3acti19.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c4\\chuong4acti3.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c4\\chuong4acti5.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c4\\chuong4acti6.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c4\\chuong4acti9.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c4\\chuong4acti12.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c4\\chuong4acti13.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c4\\chuong4acti14.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c6\\chuong6acti4.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c6\\chuong6acti6.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c6\\chuong6acti8.PNG</t>
-  </si>
-  <si>
-    <t>Đo cường độ dòng điện đi qua CD.</t>
-  </si>
-  <si>
-    <t>Đo cường độ dòng điện đi qua BH.</t>
-  </si>
-  <si>
-    <t>Đo cường độ dòng điện đi qua AB.</t>
-  </si>
-  <si>
-    <t>Kiểm tra đồng hồ thang đo OHM không cần ngắt nguồn.</t>
-  </si>
-  <si>
-    <t>Việc ngắt nguồn hay không không ảnh hưởng đến kết quả kiểm tra</t>
-  </si>
-  <si>
     <t>\\Resources\\Hinh anh cac chuong\\hinh anh c7\\chuong7acti14.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c7\\chuong7acti15.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c7\\chuong7acti16.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c7\\chuong7acti17.PNG</t>
-  </si>
-  <si>
-    <t>Điện áp nguy hiểm có thể gây cháy nổ hoặc thương tích nếu không ngắt nguồn trước khi kiểm tra.</t>
-  </si>
-  <si>
-    <t>fault 21</t>
-  </si>
-  <si>
-    <t>Giả sử dây nối tại D không bị ngắt. Dựa vào hiện tượng mạch vừa quan sát, hãy suy luận và dùng đồng hồ thang đo OHM để xác định vị trí lỗi.
-CHÚ Ý: Dùng đồng hồ thang đo OHM phải ngắt nguồn.</t>
-  </si>
-  <si>
-    <t>Dựa vào những giá trị điện trở đo được, bạn hãy xác định vị trí xảy ra hở mạch?</t>
-  </si>
-  <si>
-    <t>Phần mềm vừa tạo một lỗi ngắn mạch nối đất. Gạt công tắc để vận hành mạch. Nhấn “OK” để tiếp tục.
-Nếu cầu chì ngắt bị đứt, nhấn công tắc trên cầu chì để nối lại.</t>
-  </si>
-  <si>
-    <t>Ngắt dây nối tại điểm F. BẬT/TẮT công tắc để kiểm tra mạch. Cầu chì ngắt bị đứt, có nghĩa rằng lỗi ngắn mạch nối đất nằm trước điểm F. Nhấn "OK" để tiếp tục</t>
-  </si>
-  <si>
-    <t>Nhấn nút trên cầu chì ngắt để nối lại cầu chì. Nối lại dây tại điểm F, ngắt dây nối tại điểm E. BẬT/TẮT công tắc để kiểm tra mạch.
-Cầu chì vẫn bị đứt, có nghĩa ngắn mạch nối đất nằm trước điểm E.
-Nhấn OK để tiếp tục.</t>
-  </si>
-  <si>
-    <t>Nhấn nút trên cầu chì ngắt để nối lại cầu chì. Nối lại dây tại điểm E, ngắt dây nối tại điểm C. BẬT/TẮT công tắc để kiểm tra mạch.
-Cầu chì không có hiện tượng, có nghĩa rằng lỗi ngắn mạch nối đất nằm ở giữa điểm C và D (bên trong công tắc số 10).</t>
   </si>
   <si>
     <t>Đáp án D</t>
@@ -3225,6 +2607,9 @@
   </si>
   <si>
     <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c1\\12.PNG</t>
+  </si>
+  <si>
+    <t>end</t>
   </si>
 </sst>
 </file>
@@ -3395,7 +2780,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3450,7 +2835,6 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3783,9 +3167,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -3804,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>533</v>
+        <v>500</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -3834,7 +3218,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>705</v>
+        <v>510</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="97.2" x14ac:dyDescent="0.3">
@@ -3845,10 +3229,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>746</v>
+        <v>551</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>707</v>
+        <v>512</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>13</v>
@@ -3883,10 +3267,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>747</v>
+        <v>552</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>708</v>
+        <v>513</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>13</v>
@@ -3921,10 +3305,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>748</v>
+        <v>553</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>709</v>
+        <v>514</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>13</v>
@@ -3959,10 +3343,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>784</v>
+        <v>589</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>710</v>
+        <v>515</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>13</v>
@@ -3986,7 +3370,7 @@
         <v>14</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>706</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="55.8" x14ac:dyDescent="0.3">
@@ -3997,10 +3381,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>749</v>
+        <v>554</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>711</v>
+        <v>516</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>13</v>
@@ -4035,10 +3419,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>750</v>
+        <v>555</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>712</v>
+        <v>517</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>13</v>
@@ -4073,10 +3457,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>751</v>
+        <v>556</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>713</v>
+        <v>518</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>13</v>
@@ -4111,10 +3495,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>752</v>
+        <v>557</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>714</v>
+        <v>519</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>13</v>
@@ -4149,10 +3533,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>753</v>
+        <v>558</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>716</v>
+        <v>521</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>13</v>
@@ -4187,10 +3571,10 @@
         <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>754</v>
+        <v>559</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>715</v>
+        <v>520</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>13</v>
@@ -4225,10 +3609,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>755</v>
+        <v>560</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>717</v>
+        <v>522</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>13</v>
@@ -4252,7 +3636,7 @@
         <v>14</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>440</v>
+        <v>407</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>14</v>
@@ -4266,10 +3650,10 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>756</v>
+        <v>561</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>718</v>
+        <v>523</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>13</v>
@@ -4293,557 +3677,35 @@
         <v>14</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>440</v>
+        <v>407</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>538</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>540</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="18" t="s">
-        <v>537</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>538</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>537</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>541</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>542</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16" s="18" t="s">
-        <v>537</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>543</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K17" s="18" t="s">
-        <v>537</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>544</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>700</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>426</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>427</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>428</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="18" t="s">
-        <v>537</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="42" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>653</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>545</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K21" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>650</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K22" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>655</v>
-      </c>
-      <c r="D23" t="s">
-        <v>546</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K23" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>656</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>547</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>548</v>
-      </c>
-      <c r="H24" s="18" t="s">
-        <v>549</v>
-      </c>
-      <c r="I24" s="18" t="s">
-        <v>550</v>
-      </c>
-      <c r="J24" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K24" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>656</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>535</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>551</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>548</v>
-      </c>
-      <c r="H25" s="18" t="s">
-        <v>549</v>
-      </c>
-      <c r="I25" s="18" t="s">
-        <v>550</v>
-      </c>
-      <c r="J25" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K25" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>656</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>555</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>552</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>553</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>554</v>
-      </c>
-      <c r="J26" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K26" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>28</v>
+      <c r="A14" s="2" t="s">
+        <v>590</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C19" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C21" r:id="rId2" display="\\Resources\mach trang.jpg" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C14" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C15" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C16" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C17" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C18" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C20" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C22" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C23" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C24" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C25" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C26" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C2" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C3" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C4" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C6" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C7" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C8" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C9" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C10" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C11" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="C13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="C5" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C5" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId26"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -4903,21 +3765,21 @@
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="N1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>13</v>
@@ -4943,20 +3805,20 @@
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="39" t="s">
+      <c r="O2" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="39"/>
+      <c r="P2" s="38"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>384</v>
+        <v>351</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
@@ -4982,20 +3844,20 @@
       <c r="N3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="39" t="s">
+      <c r="O3" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="39"/>
+      <c r="P3" s="38"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>13</v>
@@ -5021,20 +3883,20 @@
       <c r="N4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="39" t="s">
+      <c r="O4" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="39"/>
+      <c r="P4" s="38"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>390</v>
+        <v>357</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>13</v>
@@ -5063,10 +3925,10 @@
         <v>20</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>391</v>
+        <v>358</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>392</v>
+        <v>359</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>13</v>
@@ -5095,10 +3957,10 @@
         <v>21</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>396</v>
+        <v>363</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>393</v>
+        <v>360</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>13</v>
@@ -5127,10 +3989,10 @@
         <v>22</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>394</v>
+        <v>361</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>397</v>
+        <v>364</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>13</v>
@@ -5159,10 +4021,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>395</v>
+        <v>362</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>398</v>
+        <v>365</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>13</v>
@@ -5191,7 +4053,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>399</v>
+        <v>366</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>98</v>
@@ -5200,16 +4062,16 @@
         <v>14</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>400</v>
+        <v>367</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>401</v>
+        <v>368</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>402</v>
+        <v>369</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>403</v>
+        <v>370</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>14</v>
@@ -5223,10 +4085,10 @@
         <v>25</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>13</v>
@@ -5247,10 +4109,10 @@
         <v>14</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -5258,31 +4120,31 @@
         <v>26</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>399</v>
+        <v>366</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>409</v>
+        <v>376</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>412</v>
+        <v>379</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>414</v>
+        <v>381</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -5290,31 +4152,31 @@
         <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>399</v>
+        <v>366</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>413</v>
+        <v>380</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>412</v>
+        <v>379</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>414</v>
+        <v>381</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -5322,31 +4184,31 @@
         <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>399</v>
+        <v>366</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>415</v>
+        <v>382</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>412</v>
+        <v>379</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>414</v>
+        <v>381</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -5354,10 +4216,10 @@
         <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>399</v>
+        <v>366</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>416</v>
+        <v>383</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>13</v>
@@ -5378,7 +4240,7 @@
         <v>14</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -5386,31 +4248,31 @@
         <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>399</v>
+        <v>366</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>418</v>
+        <v>385</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>412</v>
+        <v>379</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>414</v>
+        <v>381</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -5418,31 +4280,31 @@
         <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>399</v>
+        <v>366</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>417</v>
+        <v>384</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>412</v>
+        <v>379</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -5450,31 +4312,31 @@
         <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>399</v>
+        <v>366</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>412</v>
+        <v>379</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -5482,31 +4344,31 @@
         <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>420</v>
+        <v>387</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>421</v>
+        <v>388</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>422</v>
+        <v>389</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>412</v>
+        <v>379</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -5514,10 +4376,10 @@
         <v>75</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>420</v>
+        <v>387</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>13</v>
@@ -5538,7 +4400,7 @@
         <v>14</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -5546,28 +4408,28 @@
         <v>78</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>399</v>
+        <v>366</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>424</v>
+        <v>391</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>425</v>
+        <v>392</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>426</v>
+        <v>393</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>428</v>
+        <v>395</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>414</v>
+        <v>381</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>14</v>
@@ -5578,10 +4440,10 @@
         <v>79</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>429</v>
+        <v>396</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>430</v>
+        <v>397</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>13</v>
@@ -5610,10 +4472,10 @@
         <v>80</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>431</v>
+        <v>398</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>432</v>
+        <v>399</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>13</v>
@@ -5642,7 +4504,7 @@
         <v>83</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>433</v>
+        <v>400</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>98</v>
@@ -5651,19 +4513,19 @@
         <v>14</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>434</v>
+        <v>401</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>412</v>
+        <v>379</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>414</v>
+        <v>381</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>14</v>
@@ -5674,10 +4536,10 @@
         <v>85</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>435</v>
+        <v>402</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>436</v>
+        <v>403</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>13</v>
@@ -5703,13 +4565,13 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>437</v>
+        <v>404</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>438</v>
+        <v>405</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>13</v>
@@ -5730,50 +4592,50 @@
         <v>14</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>440</v>
+        <v>407</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>437</v>
+        <v>404</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>439</v>
+        <v>406</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>428</v>
+        <v>395</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>426</v>
+        <v>393</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>440</v>
+        <v>407</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>441</v>
+        <v>408</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>392</v>
+        <v>359</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>13</v>
@@ -5799,13 +4661,13 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>442</v>
+        <v>409</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>443</v>
+        <v>410</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>13</v>
@@ -5831,28 +4693,28 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>442</v>
+        <v>409</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>444</v>
+        <v>411</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>100</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>445</v>
+        <v>412</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>14</v>
@@ -5863,28 +4725,28 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>442</v>
+        <v>409</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>446</v>
+        <v>413</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>100</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>445</v>
+        <v>412</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>13</v>
@@ -5895,28 +4757,28 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>442</v>
+        <v>409</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>447</v>
+        <v>414</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>448</v>
+        <v>415</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>449</v>
+        <v>416</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>14</v>
@@ -5927,13 +4789,13 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>451</v>
+        <v>418</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>452</v>
+        <v>419</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>13</v>
@@ -5959,13 +4821,13 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>453</v>
+        <v>420</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>458</v>
+        <v>425</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>13</v>
@@ -5991,13 +4853,13 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>454</v>
+        <v>421</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>459</v>
+        <v>426</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>460</v>
+        <v>427</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>13</v>
@@ -6023,28 +4885,28 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>455</v>
+        <v>422</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>459</v>
+        <v>426</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>461</v>
+        <v>428</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>100</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>445</v>
+        <v>412</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>14</v>
@@ -6055,28 +4917,28 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>459</v>
+        <v>426</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>462</v>
+        <v>429</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>463</v>
+        <v>430</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>464</v>
+        <v>431</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>14</v>
@@ -6131,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>533</v>
+        <v>500</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -6169,10 +5031,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>13</v>
@@ -6204,25 +5066,25 @@
         <v>12</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>14</v>
@@ -6239,25 +5101,25 @@
         <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="J4" s="18" t="s">
         <v>13</v>
@@ -6274,25 +5136,25 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="J5" s="18" t="s">
         <v>13</v>
@@ -6309,25 +5171,25 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="J6" s="18" t="s">
         <v>12</v>
@@ -6344,10 +5206,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>13</v>
@@ -6379,10 +5241,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>13</v>
@@ -6414,10 +5276,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>13</v>
@@ -6449,10 +5311,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>13</v>
@@ -6484,10 +5346,10 @@
         <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>13</v>
@@ -6517,25 +5379,25 @@
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="4" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="J12" s="18" t="s">
         <v>12</v>
@@ -6550,25 +5412,25 @@
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="4" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="J13" s="18" t="s">
         <v>12</v>
@@ -6583,25 +5445,25 @@
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="4" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="J14" s="18" t="s">
         <v>14</v>
@@ -6616,10 +5478,10 @@
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="4" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>13</v>
@@ -6649,10 +5511,10 @@
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="4" t="s">
-        <v>285</v>
+        <v>252</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>284</v>
+        <v>251</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>13</v>
@@ -6682,10 +5544,10 @@
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="18" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>13</v>
@@ -6715,34 +5577,34 @@
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="4" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>290</v>
+        <v>257</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="J18" s="18" t="s">
         <v>14</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -6751,10 +5613,10 @@
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="4" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>13</v>
@@ -6784,10 +5646,10 @@
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="4" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>13</v>
@@ -6817,10 +5679,10 @@
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="4" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>13</v>
@@ -6850,10 +5712,10 @@
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="4" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>13</v>
@@ -6883,10 +5745,10 @@
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="18" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>13</v>
@@ -6916,10 +5778,10 @@
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="4" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>302</v>
+        <v>269</v>
       </c>
       <c r="E24" s="18" t="s">
         <v>13</v>
@@ -6949,10 +5811,10 @@
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="4" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>303</v>
+        <v>270</v>
       </c>
       <c r="E25" s="18" t="s">
         <v>13</v>
@@ -6978,29 +5840,29 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="18" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="J26" s="18" t="s">
         <v>14</v>
@@ -7011,14 +5873,14 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="18" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>311</v>
+        <v>278</v>
       </c>
       <c r="E27" s="18" t="s">
         <v>13</v>
@@ -7044,14 +5906,14 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="18" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>13</v>
@@ -7077,14 +5939,14 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="18" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>314</v>
+        <v>281</v>
       </c>
       <c r="E29" s="18" t="s">
         <v>13</v>
@@ -7110,14 +5972,14 @@
     </row>
     <row r="30" spans="1:12" ht="276.60000000000002" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="B30" s="18"/>
       <c r="C30" s="4" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>315</v>
+        <v>282</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>13</v>
@@ -7138,61 +6000,61 @@
         <v>14</v>
       </c>
       <c r="K30" s="18" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>324</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="276.60000000000002" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="B31" s="18"/>
       <c r="C31" s="4" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>315</v>
+        <v>282</v>
       </c>
       <c r="E31" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>316</v>
+        <v>283</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="J31" s="18" t="s">
         <v>14</v>
       </c>
       <c r="K31" s="18" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="4" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>100</v>
@@ -7201,25 +6063,25 @@
         <v>101</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="4" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>13</v>
@@ -7332,10 +6194,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>325</v>
+        <v>292</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>13</v>
@@ -7364,10 +6226,10 @@
         <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>325</v>
+        <v>292</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>13</v>
@@ -7396,25 +6258,25 @@
         <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>327</v>
+        <v>294</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>14</v>
@@ -7428,25 +6290,25 @@
         <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>327</v>
+        <v>294</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="I5" s="18" t="s">
         <v>13</v>
@@ -7460,25 +6322,25 @@
         <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>327</v>
+        <v>294</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>335</v>
+        <v>302</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>336</v>
+        <v>303</v>
       </c>
       <c r="I6" s="18" t="s">
         <v>14</v>
@@ -7492,10 +6354,10 @@
         <v>21</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>13</v>
@@ -7522,22 +6384,22 @@
         <v>22</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="H8" s="18" t="s">
         <v>107</v>
@@ -7554,25 +6416,25 @@
         <v>23</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="I9" s="18" t="s">
         <v>14</v>
@@ -7586,25 +6448,25 @@
         <v>24</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>354</v>
+        <v>321</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="I10" s="18" t="s">
         <v>12</v>
@@ -7618,25 +6480,25 @@
         <v>25</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>353</v>
+        <v>320</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>354</v>
+        <v>321</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="I11" s="18" t="s">
         <v>14</v>
@@ -7650,10 +6512,10 @@
         <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>13</v>
@@ -7674,10 +6536,10 @@
         <v>14</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>355</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -7685,10 +6547,10 @@
         <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>356</v>
+        <v>323</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>13</v>
@@ -7717,25 +6579,25 @@
         <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>361</v>
+        <v>328</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>358</v>
+        <v>325</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>360</v>
+        <v>327</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="I14" s="18" t="s">
         <v>12</v>
@@ -7749,25 +6611,25 @@
         <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>361</v>
+        <v>328</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>362</v>
+        <v>329</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>363</v>
+        <v>330</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="I15" s="18" t="s">
         <v>13</v>
@@ -7781,10 +6643,10 @@
         <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>361</v>
+        <v>328</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>13</v>
@@ -7813,10 +6675,10 @@
         <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>367</v>
+        <v>334</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>13</v>
@@ -7845,10 +6707,10 @@
         <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>370</v>
+        <v>337</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>13</v>
@@ -7877,10 +6739,10 @@
         <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>13</v>
@@ -7901,10 +6763,10 @@
         <v>14</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="K19" s="20" t="s">
-        <v>376</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -7912,34 +6774,34 @@
         <v>75</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>372</v>
+        <v>339</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>374</v>
+        <v>341</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>375</v>
+        <v>342</v>
       </c>
       <c r="I20" s="18" t="s">
         <v>14</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>377</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -7947,25 +6809,25 @@
         <v>78</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>379</v>
+        <v>346</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>381</v>
+        <v>348</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>382</v>
+        <v>349</v>
       </c>
       <c r="I21" s="18" t="s">
         <v>14</v>
@@ -8183,7 +7045,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>96</v>
@@ -8215,7 +7077,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>97</v>
@@ -8247,7 +7109,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>98</v>
@@ -8349,7 +7211,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>111</v>
@@ -8384,7 +7246,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>112</v>
@@ -8416,7 +7278,7 @@
         <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>117</v>
@@ -8448,7 +7310,7 @@
         <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>118</v>
@@ -8480,7 +7342,7 @@
         <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>119</v>
@@ -8544,7 +7406,7 @@
         <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>121</v>
@@ -8576,7 +7438,7 @@
         <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>122</v>
@@ -8608,7 +7470,7 @@
         <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>125</v>
@@ -8640,7 +7502,7 @@
         <v>75</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>127</v>
@@ -8672,7 +7534,7 @@
         <v>78</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>128</v>
@@ -8736,7 +7598,7 @@
         <v>80</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>131</v>
@@ -8846,10 +7708,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="D2" s="22">
         <v>1</v>
@@ -8878,25 +7740,25 @@
         <v>3</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="D3" s="22">
         <v>0</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="I3" s="22">
         <v>0</v>
@@ -8910,25 +7772,25 @@
         <v>4</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="D4" s="22">
         <v>0</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="I4" s="22">
         <v>1</v>
@@ -8942,7 +7804,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>98</v>
@@ -8951,16 +7813,16 @@
         <v>0</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="I5" s="22">
         <v>0</v>
@@ -8974,7 +7836,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>98</v>
@@ -8983,16 +7845,16 @@
         <v>0</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="I6" s="22">
         <v>1</v>
@@ -9006,7 +7868,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>98</v>
@@ -9015,16 +7877,16 @@
         <v>0</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="I7" s="22">
         <v>1</v>
@@ -9038,16 +7900,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="D8" s="22">
         <v>0</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>100</v>
@@ -9056,7 +7918,7 @@
         <v>101</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="I8" s="22">
         <v>1</v>
@@ -9070,7 +7932,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>98</v>
@@ -9079,16 +7941,16 @@
         <v>0</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="I9" s="22">
         <v>1</v>
@@ -9102,16 +7964,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="D10" s="22">
         <v>0</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>100</v>
@@ -9120,7 +7982,7 @@
         <v>101</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="I10" s="22">
         <v>0</v>
@@ -9134,10 +7996,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="D11" s="22">
         <v>1</v>
@@ -9166,34 +8028,34 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="D12" s="22">
         <v>0</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="I12" s="22">
         <v>0</v>
       </c>
       <c r="J12" s="22" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="93.6" x14ac:dyDescent="0.3">
@@ -9201,10 +8063,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="D13" s="22">
         <v>1</v>
@@ -9233,34 +8095,34 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="D14" s="22">
         <v>0</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="I14" s="22">
         <v>0</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="93.6" x14ac:dyDescent="0.3">
@@ -9268,10 +8130,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="D15" s="22">
         <v>1</v>
@@ -10172,10 +9034,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10190,7 +9052,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>533</v>
+        <v>500</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -10226,16 +9088,16 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>534</v>
+        <v>501</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>536</v>
+        <v>502</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>13</v>
@@ -10262,511 +9124,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="138.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>657</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>690</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>556</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>557</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>558</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>559</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="138.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>658</v>
-      </c>
-      <c r="D4" t="s">
-        <v>688</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>556</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>557</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>558</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>559</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="138.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>689</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>556</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>557</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>558</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>559</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="42" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>560</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>542</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>561</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>542</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>662</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>562</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>542</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>563</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>542</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>564</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>664</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>565</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>542</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>564</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>566</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>542</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>564</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>567</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>568</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>569</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>570</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>571</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>574</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>568</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>569</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>570</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>571</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="18" t="s">
-        <v>573</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>568</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>569</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>570</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>571</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="18" t="s">
-        <v>537</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="387" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>577</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -10774,19 +9133,6 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="C9" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="C12" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="C7" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="C8" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="C11" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="C15" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10794,10 +9140,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10808,12 +9154,12 @@
     <col min="5" max="16384" width="12.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>533</v>
+        <v>500</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -10843,7 +9189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -10851,10 +9197,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>757</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>719</v>
+        <v>562</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>524</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>13</v>
@@ -10878,7 +9224,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="111" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="111" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>16</v>
       </c>
@@ -10886,10 +9232,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>758</v>
+        <v>563</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>720</v>
+        <v>525</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>13</v>
@@ -10913,634 +9259,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>667</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>581</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>582</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>578</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>579</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>580</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="42" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>668</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>583</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>669</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>584</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>585</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>586</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>587</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>336</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>670</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>589</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>670</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>590</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>671</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>591</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>671</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>592</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>672</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>593</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>594</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>364</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>595</v>
-      </c>
-      <c r="J12" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>673</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>596</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>674</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>597</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="42" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>674</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>598</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>675</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>599</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>600</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>360</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="J16" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>675</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>601</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>364</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>602</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>676</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>603</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>676</v>
-      </c>
-      <c r="D19" t="s">
-        <v>604</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>677</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>605</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>606</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>607</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>374</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>608</v>
-      </c>
-      <c r="J20" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" s="18" t="s">
-        <v>609</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E4" s="2" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="C6" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="C8" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="C9" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="C10" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="C11" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="C12" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="C13" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="C14" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="C15" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="C16" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="C17" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="C18" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="C19" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="C20" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="C2" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="C3" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11548,10 +9276,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11562,12 +9290,12 @@
     <col min="5" max="16384" width="12.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>533</v>
+        <v>500</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -11597,7 +9325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -11605,10 +9333,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>759</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>721</v>
+        <v>564</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>526</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>13</v>
@@ -11632,492 +9360,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>611</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>612</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>613</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>614</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>615</v>
-      </c>
-      <c r="J4" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>678</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>616</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>617</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="69.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>679</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>620</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>621</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="42" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>623</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>624</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>625</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>626</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>627</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>628</v>
-      </c>
-      <c r="G9" t="s">
-        <v>697</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>691</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>692</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>681</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>629</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>630</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="42" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>681</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>632</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>681</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>701</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" s="18" t="s">
-        <v>630</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>682</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>702</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="18" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="42" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>683</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>703</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="18" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>684</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>704</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C28" s="31"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C15" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="\\Resources\mach trang.jpg" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="C7" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="C8" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="C9" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="C10" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink ref="C11" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
-    <hyperlink ref="C12" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
-    <hyperlink ref="C13" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
-    <hyperlink ref="C14" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
-    <hyperlink ref="C15" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
-    <hyperlink ref="C4" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
-    <hyperlink ref="C2" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12127,8 +9381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12144,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>533</v>
+        <v>500</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -12182,10 +9436,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>760</v>
+        <v>565</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>722</v>
+        <v>527</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>13</v>
@@ -12217,10 +9471,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>761</v>
+        <v>566</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>726</v>
+        <v>531</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>13</v>
@@ -12252,10 +9506,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>762</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>727</v>
+        <v>567</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>532</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>13</v>
@@ -12287,10 +9541,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>763</v>
+        <v>568</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>728</v>
+        <v>533</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>13</v>
@@ -12322,10 +9576,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>764</v>
+        <v>569</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>723</v>
+        <v>528</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>13</v>
@@ -12357,10 +9611,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>765</v>
+        <v>570</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>729</v>
+        <v>534</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>13</v>
@@ -12391,11 +9645,11 @@
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="38" t="s">
-        <v>766</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>724</v>
+      <c r="C8" s="37" t="s">
+        <v>571</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>529</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>13</v>
@@ -12426,11 +9680,11 @@
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="38" t="s">
-        <v>767</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>730</v>
+      <c r="C9" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>535</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>13</v>
@@ -12461,11 +9715,11 @@
       <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="38" t="s">
-        <v>768</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>725</v>
+      <c r="C10" s="37" t="s">
+        <v>573</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>530</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>13</v>
@@ -12512,10 +9766,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12526,12 +9780,12 @@
     <col min="5" max="16384" width="12.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>533</v>
+        <v>500</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -12561,7 +9815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="180" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="180" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
@@ -12569,10 +9823,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>769</v>
+        <v>574</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>731</v>
+        <v>536</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>13</v>
@@ -12596,7 +9850,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="138.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="138.6" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>16</v>
       </c>
@@ -12604,10 +9858,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>770</v>
+        <v>575</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>732</v>
+        <v>537</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>13</v>
@@ -12631,201 +9885,42 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="42" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>685</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>633</v>
-      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="31"/>
       <c r="E4" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>634</v>
+        <v>504</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>635</v>
+        <v>505</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>636</v>
+        <v>506</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>637</v>
+        <v>507</v>
       </c>
       <c r="J4" s="18" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="18" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>685</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>638</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>634</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>635</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>636</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>637</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="42" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>686</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>639</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>634</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>635</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>636</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>637</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="42" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>686</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>699</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>687</v>
-      </c>
-      <c r="D8" t="s">
-        <v>640</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>641</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>642</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>643</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>644</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink ref="C7" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
-    <hyperlink ref="C8" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
-    <hyperlink ref="C2" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
-    <hyperlink ref="C3" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -12834,7 +9929,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12850,7 +9945,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>533</v>
+        <v>500</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -12888,10 +9983,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>771</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>734</v>
+        <v>576</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>539</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>13</v>
@@ -12923,10 +10018,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>772</v>
+        <v>577</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>735</v>
+        <v>540</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>13</v>
@@ -12954,14 +10049,14 @@
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="35" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>773</v>
+        <v>578</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>736</v>
+        <v>541</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>13</v>
@@ -12993,10 +10088,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>774</v>
+        <v>579</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>737</v>
+        <v>542</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>13</v>
@@ -13028,10 +10123,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>775</v>
+        <v>580</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>738</v>
+        <v>543</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>13</v>
@@ -13063,10 +10158,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>776</v>
+        <v>581</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>739</v>
+        <v>544</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>13</v>
@@ -13098,10 +10193,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>777</v>
+        <v>582</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>740</v>
+        <v>545</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>13</v>
@@ -13133,10 +10228,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>778</v>
+        <v>583</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>741</v>
+        <v>546</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>13</v>
@@ -13144,7 +10239,7 @@
       <c r="F9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="34" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="18" t="s">
@@ -13168,10 +10263,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>779</v>
+        <v>584</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>742</v>
+        <v>547</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>13</v>
@@ -13179,7 +10274,7 @@
       <c r="F10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="35" t="s">
+      <c r="G10" s="34" t="s">
         <v>14</v>
       </c>
       <c r="H10" s="18" t="s">
@@ -13203,10 +10298,10 @@
         <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>780</v>
+        <v>585</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>743</v>
+        <v>548</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>13</v>
@@ -13234,14 +10329,14 @@
       <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="35" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>781</v>
+        <v>586</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>744</v>
+        <v>549</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>13</v>
@@ -13273,10 +10368,10 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>782</v>
+        <v>587</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>745</v>
+        <v>550</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>13</v>
@@ -13308,10 +10403,10 @@
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>783</v>
+        <v>588</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>733</v>
+        <v>538</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>13</v>
@@ -13343,25 +10438,25 @@
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>693</v>
+        <v>509</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>645</v>
+        <v>508</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>542</v>
+        <v>503</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="J15" s="18" t="s">
         <v>12</v>
@@ -13371,117 +10466,48 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>694</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>646</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>542</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="18" t="s">
-        <v>14</v>
-      </c>
+      <c r="A16" s="7"/>
+      <c r="B16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
     </row>
     <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>695</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>647</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>542</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="34" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>696</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>648</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>542</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="18" t="s">
-        <v>14</v>
-      </c>
+      <c r="A17" s="7"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+    </row>
+    <row r="18" spans="1:11" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
-        <v>28</v>
-      </c>
+      <c r="A19" s="20"/>
       <c r="B19" s="20"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="33"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="32"/>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
@@ -13491,41 +10517,38 @@
       <c r="K19" s="20"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C29" s="31"/>
+      <c r="C29" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C15" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="C16" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="C17" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="C18" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
-    <hyperlink ref="C2" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
-    <hyperlink ref="C3" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
-    <hyperlink ref="C4" r:id="rId7" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
-    <hyperlink ref="C5" r:id="rId8" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
-    <hyperlink ref="C6" r:id="rId9" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
-    <hyperlink ref="C7" r:id="rId10" xr:uid="{00000000-0004-0000-0600-000009000000}"/>
-    <hyperlink ref="C8" r:id="rId11" xr:uid="{00000000-0004-0000-0600-00000A000000}"/>
-    <hyperlink ref="C9" r:id="rId12" xr:uid="{00000000-0004-0000-0600-00000B000000}"/>
-    <hyperlink ref="C10" r:id="rId13" xr:uid="{00000000-0004-0000-0600-00000C000000}"/>
-    <hyperlink ref="C11" r:id="rId14" xr:uid="{00000000-0004-0000-0600-00000D000000}"/>
-    <hyperlink ref="C12" r:id="rId15" xr:uid="{00000000-0004-0000-0600-00000E000000}"/>
-    <hyperlink ref="C13" r:id="rId16" xr:uid="{00000000-0004-0000-0600-00000F000000}"/>
-    <hyperlink ref="C14" r:id="rId17" xr:uid="{00000000-0004-0000-0600-000010000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
+    <hyperlink ref="C7" r:id="rId7" xr:uid="{00000000-0004-0000-0600-000009000000}"/>
+    <hyperlink ref="C8" r:id="rId8" xr:uid="{00000000-0004-0000-0600-00000A000000}"/>
+    <hyperlink ref="C9" r:id="rId9" xr:uid="{00000000-0004-0000-0600-00000B000000}"/>
+    <hyperlink ref="C10" r:id="rId10" xr:uid="{00000000-0004-0000-0600-00000C000000}"/>
+    <hyperlink ref="C11" r:id="rId11" xr:uid="{00000000-0004-0000-0600-00000D000000}"/>
+    <hyperlink ref="C12" r:id="rId12" xr:uid="{00000000-0004-0000-0600-00000E000000}"/>
+    <hyperlink ref="C13" r:id="rId13" xr:uid="{00000000-0004-0000-0600-00000F000000}"/>
+    <hyperlink ref="C14" r:id="rId14" xr:uid="{00000000-0004-0000-0600-000010000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13569,12 +10592,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="276.60000000000002" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>139</v>
@@ -13638,7 +10661,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>146</v>
@@ -13730,470 +10753,52 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>14</v>
-      </c>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>14</v>
-      </c>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>14</v>
-      </c>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="193.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -14203,15 +10808,9 @@
     <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0C00-000002000000}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0C00-000003000000}"/>
     <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0C00-000004000000}"/>
-    <hyperlink ref="B14" r:id="rId6" xr:uid="{00000000-0004-0000-0C00-000005000000}"/>
-    <hyperlink ref="B15" r:id="rId7" xr:uid="{00000000-0004-0000-0C00-000006000000}"/>
-    <hyperlink ref="B16" r:id="rId8" xr:uid="{00000000-0004-0000-0C00-000007000000}"/>
-    <hyperlink ref="B17" r:id="rId9" xr:uid="{00000000-0004-0000-0C00-000008000000}"/>
-    <hyperlink ref="B18" r:id="rId10" xr:uid="{00000000-0004-0000-0C00-000009000000}"/>
-    <hyperlink ref="B19" r:id="rId11" xr:uid="{00000000-0004-0000-0C00-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -14266,10 +10865,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>466</v>
+        <v>433</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>13</v>
@@ -14298,25 +10897,25 @@
         <v>16</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>466</v>
+        <v>433</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>467</v>
+        <v>434</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>468</v>
+        <v>435</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>470</v>
+        <v>437</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>13</v>
@@ -14330,25 +10929,25 @@
         <v>18</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>466</v>
+        <v>433</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>467</v>
+        <v>434</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>471</v>
+        <v>438</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>472</v>
+        <v>439</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>473</v>
+        <v>440</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>474</v>
+        <v>441</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>12</v>
@@ -14362,10 +10961,10 @@
         <v>19</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>476</v>
+        <v>443</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>13</v>
@@ -14394,25 +10993,25 @@
         <v>20</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>476</v>
+        <v>443</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>478</v>
+        <v>445</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>479</v>
+        <v>446</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>480</v>
+        <v>447</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>481</v>
+        <v>448</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>13</v>
@@ -14426,10 +11025,10 @@
         <v>21</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>482</v>
+        <v>449</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>483</v>
+        <v>450</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>13</v>
@@ -14458,7 +11057,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>482</v>
+        <v>449</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>3</v>
@@ -14467,16 +11066,16 @@
         <v>14</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>484</v>
+        <v>451</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>485</v>
+        <v>452</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>486</v>
+        <v>453</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>487</v>
+        <v>454</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>12</v>
@@ -14490,10 +11089,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>488</v>
+        <v>455</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>489</v>
+        <v>456</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>13</v>
@@ -14522,7 +11121,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>488</v>
+        <v>455</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>3</v>
@@ -14531,16 +11130,16 @@
         <v>14</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>490</v>
+        <v>457</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>491</v>
+        <v>458</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>492</v>
+        <v>459</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>493</v>
+        <v>460</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>13</v>
@@ -14554,7 +11153,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>488</v>
+        <v>455</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>3</v>
@@ -14563,16 +11162,16 @@
         <v>14</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>494</v>
+        <v>461</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>491</v>
+        <v>458</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>493</v>
+        <v>460</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>495</v>
+        <v>462</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>13</v>
@@ -14586,7 +11185,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>496</v>
+        <v>463</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>3</v>
@@ -14618,7 +11217,7 @@
         <v>29</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>496</v>
+        <v>463</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>3</v>
@@ -14627,16 +11226,16 @@
         <v>14</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>497</v>
+        <v>464</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>491</v>
+        <v>458</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>492</v>
+        <v>459</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>495</v>
+        <v>462</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>13</v>
@@ -14650,7 +11249,7 @@
         <v>30</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>498</v>
+        <v>465</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>3</v>
@@ -14682,7 +11281,7 @@
         <v>31</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>498</v>
+        <v>465</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>3</v>
@@ -14691,16 +11290,16 @@
         <v>14</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>499</v>
+        <v>466</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>501</v>
+        <v>468</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>13</v>
@@ -14714,10 +11313,10 @@
         <v>32</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>502</v>
+        <v>469</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>503</v>
+        <v>470</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>13</v>
@@ -14746,10 +11345,10 @@
         <v>33</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>505</v>
+        <v>472</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>13</v>
@@ -14778,25 +11377,25 @@
         <v>34</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>506</v>
+        <v>473</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>507</v>
+        <v>474</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>508</v>
+        <v>475</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>491</v>
+        <v>458</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>510</v>
+        <v>477</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>509</v>
+        <v>476</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>12</v>
@@ -14805,7 +11404,7 @@
         <v>14</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>511</v>
+        <v>478</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -14813,25 +11412,25 @@
         <v>35</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>508</v>
+        <v>475</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>491</v>
+        <v>458</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>510</v>
+        <v>477</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>509</v>
+        <v>476</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>14</v>
@@ -14845,25 +11444,25 @@
         <v>75</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>514</v>
+        <v>481</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>515</v>
+        <v>482</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>508</v>
+        <v>475</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>491</v>
+        <v>458</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>510</v>
+        <v>477</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>509</v>
+        <v>476</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>13</v>
@@ -14877,10 +11476,10 @@
         <v>78</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>516</v>
+        <v>483</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>517</v>
+        <v>484</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>13</v>
@@ -14909,10 +11508,10 @@
         <v>79</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>518</v>
+        <v>485</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>519</v>
+        <v>486</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>13</v>
@@ -14941,34 +11540,34 @@
         <v>80</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>520</v>
+        <v>487</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>521</v>
+        <v>488</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>523</v>
+        <v>490</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>524</v>
+        <v>491</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>526</v>
+        <v>493</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>527</v>
+        <v>494</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -14976,34 +11575,34 @@
         <v>83</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>520</v>
+        <v>487</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>525</v>
+        <v>492</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>523</v>
+        <v>490</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>524</v>
+        <v>491</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>528</v>
+        <v>495</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>529</v>
+        <v>496</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -15011,45 +11610,45 @@
         <v>85</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>520</v>
+        <v>487</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>525</v>
+        <v>492</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>523</v>
+        <v>490</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>524</v>
+        <v>491</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>530</v>
+        <v>497</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>531</v>
+        <v>498</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>520</v>
+        <v>487</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>532</v>
+        <v>499</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>13</v>

--- a/TruaNgay18New1/student_add bai hoc/HoanThanhDangNhap/bin/Debug/nhucc/Du lieu cau hoi/thu vien bai hoc.xlsx
+++ b/TruaNgay18New1/student_add bai hoc/HoanThanhDangNhap/bin/Debug/nhucc/Du lieu cau hoi/thu vien bai hoc.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đồ Án\DO AN\Do_AN\TruaNgay18New1\student_add bai hoc\HoanThanhDangNhap\bin\Debug\nhucc\Du lieu cau hoi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đồ án tốt nghiệp\doantn\dinh\Loz\Do_AN\TruaNgay18New1\student_add bai hoc\HoanThanhDangNhap\bin\Debug\nhucc\Du lieu cau hoi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2530C5D5-60E9-4DF1-B70E-8BB4404B6D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="9" r:id="rId1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2384" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2363" uniqueCount="577">
   <si>
     <t>nActi</t>
   </si>
@@ -474,55 +473,6 @@
     <t>z</t>
   </si>
   <si>
-    <t>MẠCH ĐIỆN ĐÈN KÍCH THƯỚC VÀ ĐÈN PHANH
-Sử dụng dây dẫn màu đỏ cho đèn kích thước, dây màu xanh cho đèn phanh, và dây đen cho đoạn dây từ bóng đèn đến mass. Hãy quy định rằng, bóng đèn nằm giữa N-O và L-M là đèn phanh và đèn nằm giữa F-G và H-I là đèn kích thước.</t>
-  </si>
-  <si>
-    <t>Quan sát và nghiên cứu nguyên lý hoạt động của mạch</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c8\\Operating.gif</t>
-  </si>
-  <si>
-    <t>Đèn báo phanh được điều khiển bởi công tắc thường đóng hay thường mở?</t>
-  </si>
-  <si>
-    <t>Thường mở</t>
-  </si>
-  <si>
-    <t>Thường đóng</t>
-  </si>
-  <si>
-    <t>Không thuộc 2 loại trên</t>
-  </si>
-  <si>
-    <t>Đèn kích thước đang được điều khiển bởi công tắc đa vị trí giống như loại công tắc tự động. Trên phần cứng, có 3 vị trí để điều khiển đèn bao gồm: tắt, đèn đỗ xe, đèn đầu. Công tắc đèn đầu cho phép dòng điện chạy qua cả ở 2 vị trí đèn đỗ xe "D" và đèn đầu "E".</t>
-  </si>
-  <si>
-    <t>Quan sát hoạt động và tiến hành đo đạc để trả lời các câu hỏi:</t>
-  </si>
-  <si>
-    <t> Khi mạch hoạt động, hiệu điện thế của cả 4 đèn là?</t>
-  </si>
-  <si>
-    <t>4 đèn nằm ở 1 mạch song song hay 2 mạch mạch song song riêng biệt?</t>
-  </si>
-  <si>
-    <t>Một mạch song song</t>
-  </si>
-  <si>
-    <t>Hai mạch song song riêng biệt</t>
-  </si>
-  <si>
-    <t>Cả 2 đáp án trên đều sai</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c8\\operating voltage across bulb.png</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c8\\wiring_final.png</t>
-  </si>
-  <si>
     <t>Video minh họa mạch motor khởi động (có công tắc số)</t>
   </si>
   <si>
@@ -1581,33 +1531,6 @@
   </si>
   <si>
     <t>Video</t>
-  </si>
-  <si>
-    <t>\\Resources\\mach trang.jpg</t>
-  </si>
-  <si>
-    <t>Hiển thị vid</t>
-  </si>
-  <si>
-    <t>Giá trị điện áp đo được là ?</t>
-  </si>
-  <si>
-    <t>Mạch hoạt động như thế nào?</t>
-  </si>
-  <si>
-    <t>Mạch không hoạt động.</t>
-  </si>
-  <si>
-    <t>Relay chuyển tiếp điểm và motor quay.</t>
-  </si>
-  <si>
-    <t>Relay chuyển tiếp điểm nhưng motor không quay.</t>
-  </si>
-  <si>
-    <t>Đo điện áp tại điểm G so với GND</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c7\\chuong7acti14.PNG</t>
   </si>
   <si>
     <t>Đáp án D</t>
@@ -2609,13 +2532,171 @@
     <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c1\\12.PNG</t>
   </si>
   <si>
-    <t>end</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bài 2: Lọc nhiên liệu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Lọc nhiên liệu dùng để lọc các chất bẩn có trong nhiên liệu, để đảm bảo sự làm việc chính xác của hệ thống nhiên liệu.
+Nhiên liệu sau khi ra khỏi lọc sẽ được cung cấp đến bộ dập dao động.</t>
+    </r>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c2\\1.PNG</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Phân loại: Có hai kiểu bướm ga điện tử </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Loại liên kết chân ga đã cũ hiện không còn sản xuất.
+Loại không liên kết có cảm biến bàn đạp ga bố trí ở chân ga.
+Hệ thống điều khiển bướm ga điện tử phát hiện sự thay đổi của bàn đạp ga qua cảm biến vị trí bàn đạp ga và điều khiển bướm ga thông qua motor điều khiển bướm ga. Qua việc sử dụng ECU điều khiển bướm ga, các chức năng khác như điều khiển tốc độ cầm chừng, điều khiển ga tự động, hệ thống chống trượt,.. được thực hiện.
+Ngoài ra các hệ thống điều khiển có liên quan như: Điều khiển bướm ga phi tuyến làm cho độ mở của bướm ga mở chậm, điều khiển phối hợp giữa ECT và VSC và điều khiển độ mở của bướm ga là tối ưu phù hợp với điều kiện hoạt động của động cơ.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Motor bướm ga</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Người ta dùng một motor một chiều để điều khiển bướm ga mở thông qua bộ giảm tốc.
+Chiều xoay của motor bướm ga được thay đổi thông qua mạch cầu H.
+Motor được điều khiển chính xác từ ECU.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Phương pháp điều khiển</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ECU động cơ xác định vị trí mở bướm ga tối ưu căn cứ vào tín hiệu cảm biến bàn đạp ga. 
+Cảm biến vị trí bướm ga dùng để điều khiển chính xác motor bướm ga. 
+Các điều kiện hoạt động của bướm ga được giám sát và điều khiển bởi CPU.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Chức năng an toàn của cảm biến vị trí bàn đạp ga</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Trong trường hợp có sự bất thường của một hay hai cảm biến, ECU sẽ xác định sự hư hỏng của cảm biến qua sự chênh lệch điện áp tín hiệu cảm biến chính và cảm biến phụ.
+Khi đó vị trí của cảm biến bàn đạp ga được thiết lập hạn chế và sau đó ECU cho phép điều khiển động cơ ở chế độ hạn chế.
+Nếu xảy ra sự cố bất thường ở cả hai cảm biến, ECU điều khiển động cơ hoạt động ở phạm vi không tải. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Chức năng an toàn của cảm biến vị trí bướm ga</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Trong trường hợp xảy ra bất thường ở một hoặc cả hai mạch vị trí bướm ga, ECU động cơ phát hiện sự hư hỏng do sự chênh lệch điện áp giữa mạch chính và mạch phụ. Trường hợp này ECU sẽ không điều khiển motor điều khiển bướm ga và bướm ga được đưa về vị trí đã đặt bằng lò xo hồi. ECU sẽ điều khiển động cơ hoạt động ở chế độ hạn chế.
+Chế độ này cũng được thực hiện khi ECU động cơ phát hiện motor điều khiển bướm ga bị trục trặc.</t>
+    </r>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c8\\5.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c8\\1.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c8\\2.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c8\\3.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c8\\.PNG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3166,11 +3247,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3188,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -3218,7 +3299,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>510</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="97.2" x14ac:dyDescent="0.3">
@@ -3229,10 +3310,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>551</v>
+        <v>526</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>512</v>
+        <v>487</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>13</v>
@@ -3267,10 +3348,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>552</v>
+        <v>527</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>513</v>
+        <v>488</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>13</v>
@@ -3305,10 +3386,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>553</v>
+        <v>528</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>514</v>
+        <v>489</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>13</v>
@@ -3343,10 +3424,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>589</v>
+        <v>564</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>515</v>
+        <v>490</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>13</v>
@@ -3370,7 +3451,7 @@
         <v>14</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>511</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="55.8" x14ac:dyDescent="0.3">
@@ -3381,10 +3462,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>554</v>
+        <v>529</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>516</v>
+        <v>491</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>13</v>
@@ -3419,10 +3500,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>555</v>
+        <v>530</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>13</v>
@@ -3457,10 +3538,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>556</v>
+        <v>531</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>518</v>
+        <v>493</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>13</v>
@@ -3495,10 +3576,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>557</v>
+        <v>532</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>519</v>
+        <v>494</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>13</v>
@@ -3533,10 +3614,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>558</v>
+        <v>533</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>521</v>
+        <v>496</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>13</v>
@@ -3571,10 +3652,10 @@
         <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>559</v>
+        <v>534</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>520</v>
+        <v>495</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>13</v>
@@ -3609,10 +3690,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>560</v>
+        <v>535</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>522</v>
+        <v>497</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>13</v>
@@ -3636,7 +3717,7 @@
         <v>14</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>14</v>
@@ -3650,10 +3731,10 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>523</v>
+        <v>498</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>13</v>
@@ -3677,7 +3758,7 @@
         <v>14</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>14</v>
@@ -3685,24 +3766,24 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>590</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="C13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="C5" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C7" r:id="rId5"/>
+    <hyperlink ref="C8" r:id="rId6"/>
+    <hyperlink ref="C9" r:id="rId7"/>
+    <hyperlink ref="C12" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="C13" r:id="rId11"/>
+    <hyperlink ref="C5" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId13"/>
@@ -3710,7 +3791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3776,10 +3857,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>13</v>
@@ -3815,10 +3896,10 @@
         <v>16</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
@@ -3854,10 +3935,10 @@
         <v>18</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>13</v>
@@ -3893,10 +3974,10 @@
         <v>19</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>13</v>
@@ -3925,10 +4006,10 @@
         <v>20</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>13</v>
@@ -3957,10 +4038,10 @@
         <v>21</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>13</v>
@@ -3989,10 +4070,10 @@
         <v>22</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>13</v>
@@ -4021,10 +4102,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>13</v>
@@ -4053,7 +4134,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>98</v>
@@ -4062,16 +4143,16 @@
         <v>14</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>14</v>
@@ -4085,10 +4166,10 @@
         <v>25</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>13</v>
@@ -4109,10 +4190,10 @@
         <v>14</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -4120,31 +4201,31 @@
         <v>26</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -4152,31 +4233,31 @@
         <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -4184,31 +4265,31 @@
         <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>382</v>
-      </c>
       <c r="F14" s="3" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -4216,10 +4297,10 @@
         <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>13</v>
@@ -4240,7 +4321,7 @@
         <v>14</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -4248,31 +4329,31 @@
         <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -4280,31 +4361,31 @@
         <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -4312,31 +4393,31 @@
         <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -4344,31 +4425,31 @@
         <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -4376,10 +4457,10 @@
         <v>75</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>13</v>
@@ -4400,7 +4481,7 @@
         <v>14</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -4408,28 +4489,28 @@
         <v>78</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>14</v>
@@ -4440,10 +4521,10 @@
         <v>79</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>13</v>
@@ -4472,10 +4553,10 @@
         <v>80</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>13</v>
@@ -4504,7 +4585,7 @@
         <v>83</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>98</v>
@@ -4513,19 +4594,19 @@
         <v>14</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>14</v>
@@ -4536,10 +4617,10 @@
         <v>85</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>13</v>
@@ -4565,13 +4646,13 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>13</v>
@@ -4592,50 +4673,50 @@
         <v>14</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>13</v>
@@ -4661,13 +4742,13 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>13</v>
@@ -4693,28 +4774,28 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>100</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>14</v>
@@ -4725,28 +4806,28 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>100</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>13</v>
@@ -4757,28 +4838,28 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>14</v>
@@ -4789,13 +4870,13 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>13</v>
@@ -4821,13 +4902,13 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>13</v>
@@ -4853,13 +4934,13 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>13</v>
@@ -4885,28 +4966,28 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>100</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>14</v>
@@ -4917,28 +4998,28 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>14</v>
@@ -4961,13 +5042,13 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="\\Resources\\hinh anh c6\\relay working animation.gif" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-    <hyperlink ref="B7" r:id="rId2" display="\\Resources\\hinh anh c6\\relay working animation.gif" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
-    <hyperlink ref="B10" r:id="rId3" display="\\Resources\\mach c6.png" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
-    <hyperlink ref="B11" r:id="rId4" display="\\Resources\\mach c6.png" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
-    <hyperlink ref="B12" r:id="rId5" display="\\Resources\\mach c6.png" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
-    <hyperlink ref="B8" r:id="rId6" display="\\Resources\\hinh anh c6\\relay working animation.gif" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
-    <hyperlink ref="B9" r:id="rId7" display="\\Resources\\hinh anh c6\\relay working animation.gif" xr:uid="{00000000-0004-0000-0800-000006000000}"/>
+    <hyperlink ref="B6" r:id="rId1" display="\\Resources\\hinh anh c6\\relay working animation.gif"/>
+    <hyperlink ref="B7" r:id="rId2" display="\\Resources\\hinh anh c6\\relay working animation.gif"/>
+    <hyperlink ref="B10" r:id="rId3" display="\\Resources\\mach c6.png"/>
+    <hyperlink ref="B11" r:id="rId4" display="\\Resources\\mach c6.png"/>
+    <hyperlink ref="B12" r:id="rId5" display="\\Resources\\mach c6.png"/>
+    <hyperlink ref="B8" r:id="rId6" display="\\Resources\\hinh anh c6\\relay working animation.gif"/>
+    <hyperlink ref="B9" r:id="rId7" display="\\Resources\\hinh anh c6\\relay working animation.gif"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
@@ -4975,7 +5056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4993,7 +5074,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -5031,10 +5112,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>13</v>
@@ -5066,25 +5147,25 @@
         <v>12</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>14</v>
@@ -5101,25 +5182,25 @@
         <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="J4" s="18" t="s">
         <v>13</v>
@@ -5136,25 +5217,25 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="J5" s="18" t="s">
         <v>13</v>
@@ -5171,25 +5252,25 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="J6" s="18" t="s">
         <v>12</v>
@@ -5206,10 +5287,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>13</v>
@@ -5241,10 +5322,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>13</v>
@@ -5276,10 +5357,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>13</v>
@@ -5311,10 +5392,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>13</v>
@@ -5346,10 +5427,10 @@
         <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>13</v>
@@ -5379,25 +5460,25 @@
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="4" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="J12" s="18" t="s">
         <v>12</v>
@@ -5412,25 +5493,25 @@
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="4" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="J13" s="18" t="s">
         <v>12</v>
@@ -5445,25 +5526,25 @@
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="4" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="J14" s="18" t="s">
         <v>14</v>
@@ -5478,10 +5559,10 @@
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="4" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>13</v>
@@ -5511,10 +5592,10 @@
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="4" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>13</v>
@@ -5544,10 +5625,10 @@
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="18" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>13</v>
@@ -5577,34 +5658,34 @@
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="4" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="J18" s="18" t="s">
         <v>14</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -5613,10 +5694,10 @@
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="4" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>13</v>
@@ -5646,10 +5727,10 @@
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="4" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>13</v>
@@ -5679,10 +5760,10 @@
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="4" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>13</v>
@@ -5712,10 +5793,10 @@
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="4" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>13</v>
@@ -5745,10 +5826,10 @@
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="18" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>13</v>
@@ -5778,10 +5859,10 @@
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="4" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="E24" s="18" t="s">
         <v>13</v>
@@ -5811,10 +5892,10 @@
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="4" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="E25" s="18" t="s">
         <v>13</v>
@@ -5840,29 +5921,29 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="18" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="J26" s="18" t="s">
         <v>14</v>
@@ -5873,14 +5954,14 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="18" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="E27" s="18" t="s">
         <v>13</v>
@@ -5906,14 +5987,14 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="18" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>13</v>
@@ -5939,14 +6020,14 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="18" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="E29" s="18" t="s">
         <v>13</v>
@@ -5972,14 +6053,14 @@
     </row>
     <row r="30" spans="1:12" ht="276.60000000000002" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="B30" s="18"/>
       <c r="C30" s="4" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>13</v>
@@ -6000,61 +6081,61 @@
         <v>14</v>
       </c>
       <c r="K30" s="18" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="276.60000000000002" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="B31" s="18"/>
       <c r="C31" s="4" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="E31" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="J31" s="18" t="s">
         <v>14</v>
       </c>
       <c r="K31" s="18" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="4" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>100</v>
@@ -6063,25 +6144,25 @@
         <v>101</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="4" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>13</v>
@@ -6113,30 +6194,30 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
-    <hyperlink ref="C7" r:id="rId4" xr:uid="{00000000-0004-0000-0900-000003000000}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0900-000004000000}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0900-000005000000}"/>
-    <hyperlink ref="C12" r:id="rId7" xr:uid="{00000000-0004-0000-0900-000006000000}"/>
-    <hyperlink ref="C11" r:id="rId8" xr:uid="{00000000-0004-0000-0900-000007000000}"/>
-    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0900-000008000000}"/>
-    <hyperlink ref="C14" r:id="rId10" xr:uid="{00000000-0004-0000-0900-000009000000}"/>
-    <hyperlink ref="C15" r:id="rId11" xr:uid="{00000000-0004-0000-0900-00000A000000}"/>
-    <hyperlink ref="C16" r:id="rId12" xr:uid="{00000000-0004-0000-0900-00000B000000}"/>
-    <hyperlink ref="C18" r:id="rId13" xr:uid="{00000000-0004-0000-0900-00000C000000}"/>
-    <hyperlink ref="C19" r:id="rId14" xr:uid="{00000000-0004-0000-0900-00000D000000}"/>
-    <hyperlink ref="C20" r:id="rId15" xr:uid="{00000000-0004-0000-0900-00000E000000}"/>
-    <hyperlink ref="C21" r:id="rId16" xr:uid="{00000000-0004-0000-0900-00000F000000}"/>
-    <hyperlink ref="C22" r:id="rId17" xr:uid="{00000000-0004-0000-0900-000010000000}"/>
-    <hyperlink ref="C24" r:id="rId18" xr:uid="{00000000-0004-0000-0900-000011000000}"/>
-    <hyperlink ref="C25" r:id="rId19" display="\\Resources\\Hinh anh cac chuong\\hinh anh c5\\short2ground.png" xr:uid="{00000000-0004-0000-0900-000012000000}"/>
-    <hyperlink ref="C30" r:id="rId20" xr:uid="{00000000-0004-0000-0900-000013000000}"/>
-    <hyperlink ref="C31" r:id="rId21" xr:uid="{00000000-0004-0000-0900-000014000000}"/>
-    <hyperlink ref="C32" r:id="rId22" xr:uid="{00000000-0004-0000-0900-000015000000}"/>
-    <hyperlink ref="C33" r:id="rId23" xr:uid="{00000000-0004-0000-0900-000016000000}"/>
-    <hyperlink ref="C2" r:id="rId24" xr:uid="{00000000-0004-0000-0900-000017000000}"/>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C6" r:id="rId3"/>
+    <hyperlink ref="C7" r:id="rId4"/>
+    <hyperlink ref="C9" r:id="rId5"/>
+    <hyperlink ref="C10" r:id="rId6"/>
+    <hyperlink ref="C12" r:id="rId7"/>
+    <hyperlink ref="C11" r:id="rId8"/>
+    <hyperlink ref="C13" r:id="rId9"/>
+    <hyperlink ref="C14" r:id="rId10"/>
+    <hyperlink ref="C15" r:id="rId11"/>
+    <hyperlink ref="C16" r:id="rId12"/>
+    <hyperlink ref="C18" r:id="rId13"/>
+    <hyperlink ref="C19" r:id="rId14"/>
+    <hyperlink ref="C20" r:id="rId15"/>
+    <hyperlink ref="C21" r:id="rId16"/>
+    <hyperlink ref="C22" r:id="rId17"/>
+    <hyperlink ref="C24" r:id="rId18"/>
+    <hyperlink ref="C25" r:id="rId19" display="\\Resources\\Hinh anh cac chuong\\hinh anh c5\\short2ground.png"/>
+    <hyperlink ref="C30" r:id="rId20"/>
+    <hyperlink ref="C31" r:id="rId21"/>
+    <hyperlink ref="C32" r:id="rId22"/>
+    <hyperlink ref="C33" r:id="rId23"/>
+    <hyperlink ref="C2" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId25"/>
@@ -6144,7 +6225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -6194,10 +6275,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>13</v>
@@ -6226,10 +6307,10 @@
         <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>13</v>
@@ -6258,25 +6339,25 @@
         <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>14</v>
@@ -6290,25 +6371,25 @@
         <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="I5" s="18" t="s">
         <v>13</v>
@@ -6322,25 +6403,25 @@
         <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="I6" s="18" t="s">
         <v>14</v>
@@ -6354,10 +6435,10 @@
         <v>21</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>13</v>
@@ -6384,22 +6465,22 @@
         <v>22</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="H8" s="18" t="s">
         <v>107</v>
@@ -6416,25 +6497,25 @@
         <v>23</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="I9" s="18" t="s">
         <v>14</v>
@@ -6448,25 +6529,25 @@
         <v>24</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I10" s="18" t="s">
         <v>12</v>
@@ -6480,25 +6561,25 @@
         <v>25</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I11" s="18" t="s">
         <v>14</v>
@@ -6512,10 +6593,10 @@
         <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>13</v>
@@ -6536,10 +6617,10 @@
         <v>14</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -6547,10 +6628,10 @@
         <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>13</v>
@@ -6579,25 +6660,25 @@
         <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="I14" s="18" t="s">
         <v>12</v>
@@ -6611,25 +6692,25 @@
         <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="I15" s="18" t="s">
         <v>13</v>
@@ -6643,10 +6724,10 @@
         <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>13</v>
@@ -6675,10 +6756,10 @@
         <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>13</v>
@@ -6707,10 +6788,10 @@
         <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>13</v>
@@ -6739,10 +6820,10 @@
         <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>13</v>
@@ -6763,10 +6844,10 @@
         <v>14</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="K19" s="20" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -6774,34 +6855,34 @@
         <v>75</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="I20" s="18" t="s">
         <v>14</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -6809,25 +6890,25 @@
         <v>78</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="I21" s="18" t="s">
         <v>14</v>
@@ -6844,30 +6925,30 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0A00-000003000000}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0A00-000004000000}"/>
-    <hyperlink ref="B10" r:id="rId6" xr:uid="{00000000-0004-0000-0A00-000005000000}"/>
-    <hyperlink ref="B11" r:id="rId7" xr:uid="{00000000-0004-0000-0A00-000006000000}"/>
-    <hyperlink ref="B12" r:id="rId8" display="\\Resources\Hinh anh cac chuong\hinh anh c6\wiring_final.png" xr:uid="{00000000-0004-0000-0A00-000007000000}"/>
-    <hyperlink ref="B13" r:id="rId9" display="\\Resources\Hinh anh cac chuong\hinh anh c6\wiring_final.png" xr:uid="{00000000-0004-0000-0A00-000008000000}"/>
-    <hyperlink ref="B14" r:id="rId10" xr:uid="{00000000-0004-0000-0A00-000009000000}"/>
-    <hyperlink ref="B15" r:id="rId11" xr:uid="{00000000-0004-0000-0A00-00000A000000}"/>
-    <hyperlink ref="B16" r:id="rId12" xr:uid="{00000000-0004-0000-0A00-00000B000000}"/>
-    <hyperlink ref="B17" r:id="rId13" xr:uid="{00000000-0004-0000-0A00-00000C000000}"/>
-    <hyperlink ref="B18" r:id="rId14" xr:uid="{00000000-0004-0000-0A00-00000D000000}"/>
-    <hyperlink ref="B19" r:id="rId15" xr:uid="{00000000-0004-0000-0A00-00000E000000}"/>
-    <hyperlink ref="B20" r:id="rId16" xr:uid="{00000000-0004-0000-0A00-00000F000000}"/>
-    <hyperlink ref="B21" r:id="rId17" xr:uid="{00000000-0004-0000-0A00-000010000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B10" r:id="rId6"/>
+    <hyperlink ref="B11" r:id="rId7"/>
+    <hyperlink ref="B12" r:id="rId8" display="\\Resources\Hinh anh cac chuong\hinh anh c6\wiring_final.png"/>
+    <hyperlink ref="B13" r:id="rId9" display="\\Resources\Hinh anh cac chuong\hinh anh c6\wiring_final.png"/>
+    <hyperlink ref="B14" r:id="rId10"/>
+    <hyperlink ref="B15" r:id="rId11"/>
+    <hyperlink ref="B16" r:id="rId12"/>
+    <hyperlink ref="B17" r:id="rId13"/>
+    <hyperlink ref="B18" r:id="rId14"/>
+    <hyperlink ref="B19" r:id="rId15"/>
+    <hyperlink ref="B20" r:id="rId16"/>
+    <hyperlink ref="B21" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -7045,7 +7126,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>96</v>
@@ -7077,7 +7158,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>97</v>
@@ -7109,7 +7190,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>98</v>
@@ -7211,7 +7292,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>111</v>
@@ -7246,7 +7327,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>112</v>
@@ -7278,7 +7359,7 @@
         <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>117</v>
@@ -7310,7 +7391,7 @@
         <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>118</v>
@@ -7342,7 +7423,7 @@
         <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>119</v>
@@ -7406,7 +7487,7 @@
         <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>121</v>
@@ -7438,7 +7519,7 @@
         <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>122</v>
@@ -7470,7 +7551,7 @@
         <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>125</v>
@@ -7497,12 +7578,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>127</v>
@@ -7534,7 +7615,7 @@
         <v>78</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>128</v>
@@ -7598,7 +7679,7 @@
         <v>80</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>131</v>
@@ -7633,24 +7714,24 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
-    <hyperlink ref="B4" r:id="rId2" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{00000000-0004-0000-0B00-000002000000}"/>
-    <hyperlink ref="B8" r:id="rId4" xr:uid="{00000000-0004-0000-0B00-000003000000}"/>
-    <hyperlink ref="B2" r:id="rId5" xr:uid="{00000000-0004-0000-0B00-000004000000}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0B00-000005000000}"/>
-    <hyperlink ref="B11" r:id="rId7" xr:uid="{00000000-0004-0000-0B00-000006000000}"/>
-    <hyperlink ref="B12" r:id="rId8" xr:uid="{00000000-0004-0000-0B00-000007000000}"/>
-    <hyperlink ref="B13" r:id="rId9" xr:uid="{00000000-0004-0000-0B00-000008000000}"/>
-    <hyperlink ref="B14" r:id="rId10" xr:uid="{00000000-0004-0000-0B00-000009000000}"/>
-    <hyperlink ref="B15" r:id="rId11" xr:uid="{00000000-0004-0000-0B00-00000A000000}"/>
-    <hyperlink ref="B17" r:id="rId12" xr:uid="{00000000-0004-0000-0B00-00000B000000}"/>
-    <hyperlink ref="B18" r:id="rId13" xr:uid="{00000000-0004-0000-0B00-00000C000000}"/>
-    <hyperlink ref="B19" r:id="rId14" xr:uid="{00000000-0004-0000-0B00-00000D000000}"/>
-    <hyperlink ref="B20" r:id="rId15" xr:uid="{00000000-0004-0000-0B00-00000E000000}"/>
-    <hyperlink ref="B21" r:id="rId16" xr:uid="{00000000-0004-0000-0B00-00000F000000}"/>
-    <hyperlink ref="B22" r:id="rId17" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG" xr:uid="{00000000-0004-0000-0B00-000010000000}"/>
-    <hyperlink ref="B23" r:id="rId18" xr:uid="{00000000-0004-0000-0B00-000011000000}"/>
+    <hyperlink ref="B3" r:id="rId1" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG"/>
+    <hyperlink ref="B4" r:id="rId2" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG"/>
+    <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId4"/>
+    <hyperlink ref="B2" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B11" r:id="rId7"/>
+    <hyperlink ref="B12" r:id="rId8"/>
+    <hyperlink ref="B13" r:id="rId9"/>
+    <hyperlink ref="B14" r:id="rId10"/>
+    <hyperlink ref="B15" r:id="rId11"/>
+    <hyperlink ref="B17" r:id="rId12"/>
+    <hyperlink ref="B18" r:id="rId13"/>
+    <hyperlink ref="B19" r:id="rId14"/>
+    <hyperlink ref="B20" r:id="rId15"/>
+    <hyperlink ref="B21" r:id="rId16"/>
+    <hyperlink ref="B22" r:id="rId17" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG"/>
+    <hyperlink ref="B23" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId19"/>
@@ -7658,7 +7739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7708,10 +7789,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D2" s="22">
         <v>1</v>
@@ -7740,25 +7821,25 @@
         <v>3</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D3" s="22">
         <v>0</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="I3" s="22">
         <v>0</v>
@@ -7772,25 +7853,25 @@
         <v>4</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D4" s="22">
         <v>0</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="I4" s="22">
         <v>1</v>
@@ -7804,7 +7885,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>98</v>
@@ -7813,16 +7894,16 @@
         <v>0</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="I5" s="22">
         <v>0</v>
@@ -7836,7 +7917,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>98</v>
@@ -7845,16 +7926,16 @@
         <v>0</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="I6" s="22">
         <v>1</v>
@@ -7868,7 +7949,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>98</v>
@@ -7877,16 +7958,16 @@
         <v>0</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="I7" s="22">
         <v>1</v>
@@ -7900,16 +7981,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="D8" s="22">
         <v>0</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>100</v>
@@ -7918,7 +7999,7 @@
         <v>101</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="I8" s="22">
         <v>1</v>
@@ -7932,7 +8013,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>98</v>
@@ -7941,16 +8022,16 @@
         <v>0</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="I9" s="22">
         <v>1</v>
@@ -7964,16 +8045,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="D10" s="22">
         <v>0</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>100</v>
@@ -7982,7 +8063,7 @@
         <v>101</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="I10" s="22">
         <v>0</v>
@@ -7996,10 +8077,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="D11" s="22">
         <v>1</v>
@@ -8023,39 +8104,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A12" s="22">
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="D12" s="22">
         <v>0</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="I12" s="22">
         <v>0</v>
       </c>
       <c r="J12" s="22" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="93.6" x14ac:dyDescent="0.3">
@@ -8063,10 +8144,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="D13" s="22">
         <v>1</v>
@@ -8095,34 +8176,34 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="D14" s="22">
         <v>0</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="I14" s="22">
         <v>0</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="93.6" x14ac:dyDescent="0.3">
@@ -8130,10 +8211,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="D15" s="22">
         <v>1</v>
@@ -8164,24 +8245,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
-    <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0D00-000001000000}"/>
-    <hyperlink ref="B7" r:id="rId3" xr:uid="{00000000-0004-0000-0D00-000002000000}"/>
-    <hyperlink ref="B8" r:id="rId4" xr:uid="{00000000-0004-0000-0D00-000003000000}"/>
-    <hyperlink ref="B9" r:id="rId5" xr:uid="{00000000-0004-0000-0D00-000004000000}"/>
-    <hyperlink ref="B10" r:id="rId6" xr:uid="{00000000-0004-0000-0D00-000005000000}"/>
-    <hyperlink ref="B11" r:id="rId7" xr:uid="{00000000-0004-0000-0D00-000006000000}"/>
-    <hyperlink ref="B12" r:id="rId8" xr:uid="{00000000-0004-0000-0D00-000007000000}"/>
-    <hyperlink ref="B13" r:id="rId9" xr:uid="{00000000-0004-0000-0D00-000008000000}"/>
-    <hyperlink ref="B14" r:id="rId10" xr:uid="{00000000-0004-0000-0D00-000009000000}"/>
-    <hyperlink ref="B15" r:id="rId11" xr:uid="{00000000-0004-0000-0D00-00000A000000}"/>
+    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId4"/>
+    <hyperlink ref="B9" r:id="rId5"/>
+    <hyperlink ref="B10" r:id="rId6"/>
+    <hyperlink ref="B11" r:id="rId7"/>
+    <hyperlink ref="B12" r:id="rId8"/>
+    <hyperlink ref="B13" r:id="rId9"/>
+    <hyperlink ref="B14" r:id="rId10"/>
+    <hyperlink ref="B15" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -8386,7 +8467,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="324" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="360" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
@@ -8418,7 +8499,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="324" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="360" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
@@ -9002,30 +9083,30 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0E00-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0E00-000003000000}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0E00-000004000000}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0E00-000005000000}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0E00-000006000000}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0E00-000007000000}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0E00-000008000000}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0E00-000009000000}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0E00-00000A000000}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0E00-00000B000000}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0E00-00000C000000}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0E00-00000D000000}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0E00-00000E000000}"/>
-    <hyperlink ref="B17" r:id="rId16" xr:uid="{00000000-0004-0000-0E00-00000F000000}"/>
-    <hyperlink ref="B19" r:id="rId17" xr:uid="{00000000-0004-0000-0E00-000010000000}"/>
-    <hyperlink ref="B20" r:id="rId18" xr:uid="{00000000-0004-0000-0E00-000011000000}"/>
-    <hyperlink ref="B22" r:id="rId19" xr:uid="{00000000-0004-0000-0E00-000012000000}"/>
-    <hyperlink ref="B23" r:id="rId20" xr:uid="{00000000-0004-0000-0E00-000013000000}"/>
-    <hyperlink ref="B24" r:id="rId21" xr:uid="{00000000-0004-0000-0E00-000014000000}"/>
-    <hyperlink ref="B25" r:id="rId22" xr:uid="{00000000-0004-0000-0E00-000015000000}"/>
-    <hyperlink ref="B21" r:id="rId23" xr:uid="{00000000-0004-0000-0E00-000016000000}"/>
-    <hyperlink ref="B18" r:id="rId24" xr:uid="{00000000-0004-0000-0E00-000017000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId15"/>
+    <hyperlink ref="B17" r:id="rId16"/>
+    <hyperlink ref="B19" r:id="rId17"/>
+    <hyperlink ref="B20" r:id="rId18"/>
+    <hyperlink ref="B22" r:id="rId19"/>
+    <hyperlink ref="B23" r:id="rId20"/>
+    <hyperlink ref="B24" r:id="rId21"/>
+    <hyperlink ref="B25" r:id="rId22"/>
+    <hyperlink ref="B21" r:id="rId23"/>
+    <hyperlink ref="B18" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId25"/>
@@ -9033,18 +9114,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="12.109375" style="2"/>
     <col min="3" max="3" width="58.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="12.109375" style="2"/>
+    <col min="4" max="4" width="16.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="12.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
@@ -9052,7 +9134,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -9086,18 +9168,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="249" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>502</v>
+        <v>566</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>565</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>13</v>
@@ -9132,18 +9214,19 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9159,7 +9242,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -9197,10 +9280,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>524</v>
+        <v>499</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>13</v>
@@ -9232,10 +9315,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>525</v>
+        <v>500</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>13</v>
@@ -9260,6 +9343,9 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="E4" s="2" t="s">
         <v>28</v>
       </c>
@@ -9267,18 +9353,18 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -9295,7 +9381,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -9333,10 +9419,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>564</v>
+        <v>539</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>526</v>
+        <v>501</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>13</v>
@@ -9371,14 +9457,14 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -9398,7 +9484,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -9436,10 +9522,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>565</v>
+        <v>540</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>527</v>
+        <v>502</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>13</v>
@@ -9471,10 +9557,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>566</v>
+        <v>541</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>531</v>
+        <v>506</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>13</v>
@@ -9506,10 +9592,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>567</v>
+        <v>542</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>532</v>
+        <v>507</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>13</v>
@@ -9541,10 +9627,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>568</v>
+        <v>543</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>533</v>
+        <v>508</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>13</v>
@@ -9576,10 +9662,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>528</v>
+        <v>503</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>13</v>
@@ -9611,10 +9697,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>570</v>
+        <v>545</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>534</v>
+        <v>509</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>13</v>
@@ -9646,10 +9732,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>571</v>
+        <v>546</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>529</v>
+        <v>504</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>13</v>
@@ -9681,10 +9767,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>572</v>
+        <v>547</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>535</v>
+        <v>510</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>13</v>
@@ -9708,7 +9794,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -9716,10 +9802,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>573</v>
+        <v>548</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>530</v>
+        <v>505</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>13</v>
@@ -9750,26 +9836,26 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9785,7 +9871,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -9823,10 +9909,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>574</v>
+        <v>549</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>536</v>
+        <v>511</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>13</v>
@@ -9858,10 +9944,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>537</v>
+        <v>512</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>13</v>
@@ -9885,39 +9971,25 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="42" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="4"/>
       <c r="D4" s="31"/>
-      <c r="E4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>504</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>505</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>506</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>507</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>14</v>
-      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -9925,11 +9997,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9945,7 +10017,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -9983,10 +10055,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>576</v>
+        <v>551</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>539</v>
+        <v>514</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>13</v>
@@ -10018,10 +10090,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>577</v>
+        <v>552</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>540</v>
+        <v>515</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>13</v>
@@ -10053,10 +10125,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>578</v>
+        <v>553</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>541</v>
+        <v>516</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>13</v>
@@ -10088,10 +10160,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>579</v>
+        <v>554</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>542</v>
+        <v>517</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>13</v>
@@ -10123,10 +10195,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>580</v>
+        <v>555</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>543</v>
+        <v>518</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>13</v>
@@ -10158,10 +10230,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>581</v>
+        <v>556</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>544</v>
+        <v>519</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>13</v>
@@ -10193,10 +10265,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>582</v>
+        <v>557</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>545</v>
+        <v>520</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>13</v>
@@ -10228,10 +10300,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>583</v>
+        <v>558</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>546</v>
+        <v>521</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>13</v>
@@ -10263,10 +10335,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>584</v>
+        <v>559</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>547</v>
+        <v>522</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>13</v>
@@ -10298,10 +10370,10 @@
         <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>585</v>
+        <v>560</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>548</v>
+        <v>523</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>13</v>
@@ -10333,10 +10405,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>586</v>
+        <v>561</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>549</v>
+        <v>524</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>13</v>
@@ -10368,10 +10440,10 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>587</v>
+        <v>562</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>13</v>
@@ -10403,10 +10475,10 @@
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>588</v>
+        <v>563</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>538</v>
+        <v>513</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>13</v>
@@ -10434,36 +10506,16 @@
       <c r="A15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>508</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>503</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>14</v>
-      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
     </row>
     <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
@@ -10522,39 +10574,38 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C15" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{00000000-0004-0000-0600-000009000000}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{00000000-0004-0000-0600-00000A000000}"/>
-    <hyperlink ref="C9" r:id="rId9" xr:uid="{00000000-0004-0000-0600-00000B000000}"/>
-    <hyperlink ref="C10" r:id="rId10" xr:uid="{00000000-0004-0000-0600-00000C000000}"/>
-    <hyperlink ref="C11" r:id="rId11" xr:uid="{00000000-0004-0000-0600-00000D000000}"/>
-    <hyperlink ref="C12" r:id="rId12" xr:uid="{00000000-0004-0000-0600-00000E000000}"/>
-    <hyperlink ref="C13" r:id="rId13" xr:uid="{00000000-0004-0000-0600-00000F000000}"/>
-    <hyperlink ref="C14" r:id="rId14" xr:uid="{00000000-0004-0000-0600-000010000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="C12" r:id="rId11"/>
+    <hyperlink ref="C13" r:id="rId12"/>
+    <hyperlink ref="C14" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" style="2"/>
-    <col min="2" max="2" width="36.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="43.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="71.5546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="27.21875" style="2" customWidth="1"/>
     <col min="5" max="16384" width="15" style="2"/>
@@ -10592,15 +10643,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="55.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="207.6" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>154</v>
+        <v>573</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>139</v>
+        <v>567</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>13</v>
@@ -10624,30 +10675,30 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="111" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>140</v>
+        <v>574</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>568</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="I3" s="18" t="s">
         <v>14</v>
@@ -10656,15 +10707,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="111" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>146</v>
+        <v>575</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>569</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>13</v>
@@ -10688,72 +10739,62 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="152.4" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>147</v>
+        <v>576</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>570</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="138.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="B6" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>571</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
@@ -10803,11 +10844,11 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0C00-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0C00-000003000000}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0C00-000004000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
@@ -10815,7 +10856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10865,10 +10906,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>13</v>
@@ -10897,25 +10938,25 @@
         <v>16</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>13</v>
@@ -10929,25 +10970,25 @@
         <v>18</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>12</v>
@@ -10961,10 +11002,10 @@
         <v>19</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>13</v>
@@ -10993,25 +11034,25 @@
         <v>20</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>13</v>
@@ -11025,10 +11066,10 @@
         <v>21</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>13</v>
@@ -11057,7 +11098,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>3</v>
@@ -11066,16 +11107,16 @@
         <v>14</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>12</v>
@@ -11089,10 +11130,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>13</v>
@@ -11121,7 +11162,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>3</v>
@@ -11130,16 +11171,16 @@
         <v>14</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>13</v>
@@ -11153,7 +11194,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>3</v>
@@ -11162,16 +11203,16 @@
         <v>14</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>13</v>
@@ -11185,7 +11226,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>3</v>
@@ -11217,7 +11258,7 @@
         <v>29</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>3</v>
@@ -11226,16 +11267,16 @@
         <v>14</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>13</v>
@@ -11249,7 +11290,7 @@
         <v>30</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>3</v>
@@ -11281,7 +11322,7 @@
         <v>31</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>3</v>
@@ -11290,16 +11331,16 @@
         <v>14</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>13</v>
@@ -11313,10 +11354,10 @@
         <v>32</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>13</v>
@@ -11345,10 +11386,10 @@
         <v>33</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>13</v>
@@ -11377,25 +11418,25 @@
         <v>34</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>12</v>
@@ -11404,7 +11445,7 @@
         <v>14</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -11412,25 +11453,25 @@
         <v>35</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>14</v>
@@ -11444,25 +11485,25 @@
         <v>75</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>13</v>
@@ -11476,10 +11517,10 @@
         <v>78</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>13</v>
@@ -11508,10 +11549,10 @@
         <v>79</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>13</v>
@@ -11540,34 +11581,34 @@
         <v>80</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -11575,34 +11616,34 @@
         <v>83</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -11610,45 +11651,45 @@
         <v>85</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>13</v>
